--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="899">
   <si>
     <t>name</t>
   </si>
@@ -1031,6 +1031,1686 @@
   </si>
   <si>
     <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_eng</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_mth</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_urd</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>English Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Math Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Urdu Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1079,2074 +2759,2074 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>630</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>631</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>491</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>492</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>494</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>496</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>497</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>633</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>498</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>499</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D16" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>503</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D18" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>505</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D19" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>506</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>507</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>508</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>510</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>512</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>513</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>514</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D28" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>515</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>516</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D30" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="C31" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>518</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D32" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>520</v>
       </c>
       <c r="C34" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D34" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>521</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>522</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>635</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>523</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>635</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>524</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>636</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>525</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>637</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>526</v>
       </c>
       <c r="C40" t="s">
-        <v>286</v>
+        <v>637</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>527</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>638</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>528</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>638</v>
       </c>
       <c r="D42" t="s">
-        <v>292</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>529</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>639</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>530</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>639</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>531</v>
       </c>
       <c r="C45" t="s">
-        <v>287</v>
+        <v>639</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>532</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>639</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>533</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>639</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>699</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>534</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>640</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>535</v>
       </c>
       <c r="C49" t="s">
-        <v>285</v>
+        <v>640</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>701</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>536</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>640</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>537</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>640</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>538</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>640</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>704</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>539</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>640</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>540</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>641</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>541</v>
       </c>
       <c r="C55" t="s">
-        <v>285</v>
+        <v>642</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>542</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>642</v>
       </c>
       <c r="D56" t="s">
-        <v>293</v>
+        <v>708</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>395</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>543</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>643</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>544</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>643</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>710</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>545</v>
       </c>
       <c r="C59" t="s">
-        <v>284</v>
+        <v>644</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>711</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>546</v>
       </c>
       <c r="C60" t="s">
-        <v>285</v>
+        <v>645</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>547</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>645</v>
       </c>
       <c r="D61" t="s">
-        <v>292</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>548</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>646</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>549</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>647</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>550</v>
       </c>
       <c r="C64" t="s">
-        <v>285</v>
+        <v>647</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>714</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>551</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>648</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>715</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>552</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>648</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>716</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>405</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>553</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>649</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>649</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>649</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>555</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>650</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>556</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>651</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>721</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>557</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>651</v>
       </c>
       <c r="D72" t="s">
-        <v>292</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>558</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>651</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>559</v>
       </c>
       <c r="C74" t="s">
-        <v>288</v>
+        <v>652</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>561</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>726</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>563</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>727</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>564</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>728</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>565</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>654</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>729</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>566</v>
       </c>
       <c r="C81" t="s">
-        <v>288</v>
+        <v>654</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>567</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>655</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>568</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>656</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>732</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>422</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>569</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>657</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>733</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>423</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>570</v>
       </c>
       <c r="C85" t="s">
-        <v>285</v>
+        <v>658</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>734</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>424</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>571</v>
       </c>
       <c r="C86" t="s">
-        <v>285</v>
+        <v>658</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>735</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>425</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>572</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>659</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>573</v>
       </c>
       <c r="C88" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>574</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>738</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>575</v>
       </c>
       <c r="C90" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>429</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>576</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>740</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>430</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>577</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>741</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>431</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>578</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D93" t="s">
-        <v>92</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>579</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>743</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>580</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>744</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>581</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D96" t="s">
-        <v>92</v>
+        <v>745</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>582</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>661</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>746</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>583</v>
       </c>
       <c r="C98" t="s">
-        <v>288</v>
+        <v>661</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>747</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>584</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>662</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>748</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>585</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
+        <v>663</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>749</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>586</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>663</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>750</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>587</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D102" t="s">
-        <v>295</v>
+        <v>751</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>441</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>588</v>
       </c>
       <c r="C103" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>752</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>589</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
+        <v>753</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>443</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>590</v>
       </c>
       <c r="C105" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>754</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>444</v>
       </c>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>591</v>
       </c>
       <c r="C106" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>755</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>592</v>
       </c>
       <c r="C107" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>756</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>446</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>593</v>
       </c>
       <c r="C108" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D108" t="s">
-        <v>292</v>
+        <v>757</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>447</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>593</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>758</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>594</v>
       </c>
       <c r="C110" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>759</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>449</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>594</v>
       </c>
       <c r="C111" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D111" t="s">
-        <v>151</v>
+        <v>760</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>450</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>595</v>
       </c>
       <c r="C112" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D112" t="s">
-        <v>111</v>
+        <v>761</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>595</v>
       </c>
       <c r="C113" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>762</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>452</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>596</v>
       </c>
       <c r="C114" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D114" t="s">
-        <v>113</v>
+        <v>763</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>453</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>596</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D115" t="s">
-        <v>151</v>
+        <v>764</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>454</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>597</v>
       </c>
       <c r="C116" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D116" t="s">
-        <v>115</v>
+        <v>765</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>455</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>598</v>
       </c>
       <c r="C117" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="D117" t="s">
-        <v>292</v>
+        <v>766</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>456</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>599</v>
       </c>
       <c r="C118" t="s">
-        <v>286</v>
+        <v>665</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>767</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>457</v>
       </c>
       <c r="B119" t="s">
-        <v>258</v>
+        <v>600</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>665</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>768</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>458</v>
       </c>
       <c r="B120" t="s">
-        <v>259</v>
+        <v>601</v>
       </c>
       <c r="C120" t="s">
-        <v>286</v>
+        <v>665</v>
       </c>
       <c r="D120" t="s">
-        <v>151</v>
+        <v>769</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>459</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>602</v>
       </c>
       <c r="C121" t="s">
-        <v>286</v>
+        <v>665</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>770</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>460</v>
       </c>
       <c r="B122" t="s">
-        <v>261</v>
+        <v>603</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>666</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>771</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>604</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>666</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>772</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>462</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>605</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>667</v>
       </c>
       <c r="D124" t="s">
-        <v>151</v>
+        <v>773</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>463</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>606</v>
       </c>
       <c r="C125" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>774</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>464</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>607</v>
       </c>
       <c r="C126" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="D126" t="s">
-        <v>151</v>
+        <v>775</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>465</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>608</v>
       </c>
       <c r="C127" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>776</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>466</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>609</v>
       </c>
       <c r="C128" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>467</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>610</v>
       </c>
       <c r="C129" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="D129" t="s">
-        <v>151</v>
+        <v>778</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>468</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>611</v>
       </c>
       <c r="C130" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="D130" t="s">
-        <v>92</v>
+        <v>779</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>469</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>612</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>780</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>470</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>613</v>
       </c>
       <c r="C132" t="s">
-        <v>288</v>
+        <v>669</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>781</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>471</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>614</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
+        <v>670</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>782</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>472</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>615</v>
       </c>
       <c r="C134" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D134" t="s">
-        <v>297</v>
+        <v>783</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>473</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>616</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>784</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>474</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>617</v>
       </c>
       <c r="C136" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>785</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>618</v>
       </c>
       <c r="C137" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D137" t="s">
-        <v>151</v>
+        <v>786</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>476</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>619</v>
       </c>
       <c r="C138" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D138" t="s">
-        <v>151</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>477</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D139" t="s">
-        <v>151</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>478</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>621</v>
       </c>
       <c r="C140" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
+        <v>789</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>622</v>
       </c>
       <c r="C141" t="s">
-        <v>285</v>
+        <v>671</v>
       </c>
       <c r="D141" t="s">
-        <v>151</v>
+        <v>790</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>480</v>
       </c>
       <c r="B142" t="s">
-        <v>277</v>
+        <v>623</v>
       </c>
       <c r="C142" t="s">
-        <v>288</v>
+        <v>672</v>
       </c>
       <c r="D142" t="s">
-        <v>151</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>481</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>624</v>
       </c>
       <c r="C143" t="s">
-        <v>285</v>
+        <v>673</v>
       </c>
       <c r="D143" t="s">
-        <v>298</v>
+        <v>792</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>482</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>625</v>
       </c>
       <c r="C144" t="s">
-        <v>285</v>
+        <v>673</v>
       </c>
       <c r="D144" t="s">
-        <v>299</v>
+        <v>793</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>626</v>
       </c>
       <c r="C145" t="s">
-        <v>285</v>
+        <v>673</v>
       </c>
       <c r="D145" t="s">
-        <v>144</v>
+        <v>794</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>484</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>627</v>
       </c>
       <c r="C146" t="s">
-        <v>285</v>
+        <v>673</v>
       </c>
       <c r="D146" t="s">
-        <v>151</v>
+        <v>795</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>485</v>
       </c>
       <c r="B147" t="s">
-        <v>281</v>
+        <v>628</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>674</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
+        <v>796</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>486</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>629</v>
       </c>
       <c r="C148" t="s">
-        <v>285</v>
+        <v>675</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -3160,475 +4840,475 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>798</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>814</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>799</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>815</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>799</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>816</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>799</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>817</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>799</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>818</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>860</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>800</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>819</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>800</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>820</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>801</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>821</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>801</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>822</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>801</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>823</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>824</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>825</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>826</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>827</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>869</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>828</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>870</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>802</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>829</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>871</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>803</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>830</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>872</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>803</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>831</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>804</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>832</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>804</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>833</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>805</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>834</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>876</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>805</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>835</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>806</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>835</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>806</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>836</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>879</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>806</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>837</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>880</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>807</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>838</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>807</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>839</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
+        <v>882</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>807</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>840</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>883</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>808</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>841</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>808</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>842</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>809</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>843</v>
       </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>886</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>809</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>844</v>
       </c>
       <c r="C32" t="s">
-        <v>313</v>
+        <v>887</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>810</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>845</v>
       </c>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>888</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>294</v>
+        <v>810</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>846</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>889</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>811</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>847</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>890</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>811</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>848</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>891</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>812</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>849</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>892</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>812</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>850</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>893</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>812</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>851</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>894</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>812</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>852</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>895</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>812</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>853</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>290</v>
+        <v>813</v>
       </c>
       <c r="B42" t="s">
-        <v>303</v>
+        <v>854</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>897</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>290</v>
+        <v>813</v>
       </c>
       <c r="B43" t="s">
-        <v>304</v>
+        <v>855</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="2567">
   <si>
     <t>name</t>
   </si>
@@ -2162,6 +2162,5010 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_eng</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_mth</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_urd</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>English Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Math Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Urdu Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_eng</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_mth</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_urd</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>English Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Math Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Urdu Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_eng</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_mth</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_urd</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>English Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Math Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Urdu Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
   <si>
     <t/>
@@ -2754,2079 +7758,2065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D147"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>2010</v>
       </c>
       <c r="B1" t="s">
-        <v>487</v>
+        <v>2157</v>
       </c>
       <c r="C1" t="s">
-        <v>630</v>
+        <v>2299</v>
       </c>
       <c r="D1" t="s">
-        <v>676</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>2158</v>
       </c>
       <c r="C2" t="s">
-        <v>631</v>
+        <v>2300</v>
       </c>
       <c r="D2" t="s">
-        <v>677</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>2012</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>2159</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D3" t="s">
-        <v>678</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>2160</v>
       </c>
       <c r="C4" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D4" t="s">
-        <v>679</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>2161</v>
       </c>
       <c r="C5" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D5" t="s">
-        <v>680</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>2162</v>
       </c>
       <c r="C6" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D6" t="s">
-        <v>681</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>2163</v>
       </c>
       <c r="C7" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D7" t="s">
-        <v>682</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>2164</v>
       </c>
       <c r="C8" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D8" t="s">
-        <v>683</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>2165</v>
       </c>
       <c r="C9" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D9" t="s">
-        <v>684</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>2166</v>
       </c>
       <c r="C10" t="s">
-        <v>632</v>
+        <v>2301</v>
       </c>
       <c r="D10" t="s">
-        <v>685</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>2020</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>2167</v>
       </c>
       <c r="C11" t="s">
-        <v>633</v>
+        <v>2302</v>
       </c>
       <c r="D11" t="s">
-        <v>686</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>2021</v>
       </c>
       <c r="B12" t="s">
-        <v>498</v>
+        <v>2168</v>
       </c>
       <c r="C12" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D12" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>499</v>
+        <v>2169</v>
       </c>
       <c r="C13" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D13" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>500</v>
+        <v>2170</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D14" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>2024</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>2171</v>
       </c>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D15" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>502</v>
+        <v>2172</v>
       </c>
       <c r="C16" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D16" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>2026</v>
       </c>
       <c r="B17" t="s">
-        <v>503</v>
+        <v>2173</v>
       </c>
       <c r="C17" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D17" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>2027</v>
       </c>
       <c r="B18" t="s">
-        <v>504</v>
+        <v>2174</v>
       </c>
       <c r="C18" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D18" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>2028</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>2175</v>
       </c>
       <c r="C19" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D19" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>2029</v>
       </c>
       <c r="B20" t="s">
-        <v>506</v>
+        <v>2176</v>
       </c>
       <c r="C20" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D20" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>2030</v>
       </c>
       <c r="B21" t="s">
-        <v>507</v>
+        <v>2177</v>
       </c>
       <c r="C21" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D21" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>2031</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>2178</v>
       </c>
       <c r="C22" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D22" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>2032</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>2179</v>
       </c>
       <c r="C23" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D23" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>2033</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>2180</v>
       </c>
       <c r="C24" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D24" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>2034</v>
       </c>
       <c r="B25" t="s">
-        <v>511</v>
+        <v>2181</v>
       </c>
       <c r="C25" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D25" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>2035</v>
       </c>
       <c r="B26" t="s">
-        <v>512</v>
+        <v>2182</v>
       </c>
       <c r="C26" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D26" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>2036</v>
       </c>
       <c r="B27" t="s">
-        <v>513</v>
+        <v>2183</v>
       </c>
       <c r="C27" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D27" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>2037</v>
       </c>
       <c r="B28" t="s">
-        <v>514</v>
+        <v>2184</v>
       </c>
       <c r="C28" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D28" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>2038</v>
       </c>
       <c r="B29" t="s">
-        <v>515</v>
+        <v>2185</v>
       </c>
       <c r="C29" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D29" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>2039</v>
       </c>
       <c r="B30" t="s">
-        <v>516</v>
+        <v>2186</v>
       </c>
       <c r="C30" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D30" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>2040</v>
       </c>
       <c r="B31" t="s">
-        <v>517</v>
+        <v>2187</v>
       </c>
       <c r="C31" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>2041</v>
       </c>
       <c r="B32" t="s">
-        <v>518</v>
+        <v>2188</v>
       </c>
       <c r="C32" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D32" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>371</v>
+        <v>2042</v>
       </c>
       <c r="B33" t="s">
-        <v>519</v>
+        <v>2189</v>
       </c>
       <c r="C33" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D33" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>2043</v>
       </c>
       <c r="B34" t="s">
-        <v>520</v>
+        <v>2190</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D34" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>2044</v>
       </c>
       <c r="B35" t="s">
-        <v>521</v>
+        <v>2191</v>
       </c>
       <c r="C35" t="s">
-        <v>634</v>
+        <v>2303</v>
       </c>
       <c r="D35" t="s">
-        <v>687</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>374</v>
+        <v>2045</v>
       </c>
       <c r="B36" t="s">
-        <v>522</v>
+        <v>2192</v>
       </c>
       <c r="C36" t="s">
-        <v>635</v>
+        <v>2304</v>
       </c>
       <c r="D36" t="s">
-        <v>688</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>2046</v>
       </c>
       <c r="B37" t="s">
-        <v>523</v>
+        <v>2193</v>
       </c>
       <c r="C37" t="s">
-        <v>635</v>
+        <v>2304</v>
       </c>
       <c r="D37" t="s">
-        <v>689</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>2047</v>
       </c>
       <c r="B38" t="s">
-        <v>524</v>
+        <v>2194</v>
       </c>
       <c r="C38" t="s">
-        <v>636</v>
+        <v>2305</v>
       </c>
       <c r="D38" t="s">
-        <v>690</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>377</v>
+        <v>2048</v>
       </c>
       <c r="B39" t="s">
-        <v>525</v>
+        <v>2195</v>
       </c>
       <c r="C39" t="s">
-        <v>637</v>
+        <v>2306</v>
       </c>
       <c r="D39" t="s">
-        <v>691</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>378</v>
+        <v>2049</v>
       </c>
       <c r="B40" t="s">
-        <v>526</v>
+        <v>2196</v>
       </c>
       <c r="C40" t="s">
-        <v>637</v>
+        <v>2306</v>
       </c>
       <c r="D40" t="s">
-        <v>692</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>379</v>
+        <v>2050</v>
       </c>
       <c r="B41" t="s">
-        <v>527</v>
+        <v>2197</v>
       </c>
       <c r="C41" t="s">
-        <v>638</v>
+        <v>2307</v>
       </c>
       <c r="D41" t="s">
-        <v>693</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>380</v>
+        <v>2051</v>
       </c>
       <c r="B42" t="s">
-        <v>528</v>
+        <v>2198</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>2307</v>
       </c>
       <c r="D42" t="s">
-        <v>694</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>381</v>
+        <v>2052</v>
       </c>
       <c r="B43" t="s">
-        <v>529</v>
+        <v>2199</v>
       </c>
       <c r="C43" t="s">
-        <v>639</v>
+        <v>2308</v>
       </c>
       <c r="D43" t="s">
-        <v>695</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>2053</v>
       </c>
       <c r="B44" t="s">
-        <v>530</v>
+        <v>2200</v>
       </c>
       <c r="C44" t="s">
-        <v>639</v>
+        <v>2308</v>
       </c>
       <c r="D44" t="s">
-        <v>696</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>383</v>
+        <v>2054</v>
       </c>
       <c r="B45" t="s">
-        <v>531</v>
+        <v>2201</v>
       </c>
       <c r="C45" t="s">
-        <v>639</v>
+        <v>2308</v>
       </c>
       <c r="D45" t="s">
-        <v>697</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>384</v>
+        <v>2055</v>
       </c>
       <c r="B46" t="s">
-        <v>532</v>
+        <v>2202</v>
       </c>
       <c r="C46" t="s">
-        <v>639</v>
+        <v>2308</v>
       </c>
       <c r="D46" t="s">
-        <v>698</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>385</v>
+        <v>2056</v>
       </c>
       <c r="B47" t="s">
-        <v>533</v>
+        <v>2203</v>
       </c>
       <c r="C47" t="s">
-        <v>639</v>
+        <v>2308</v>
       </c>
       <c r="D47" t="s">
-        <v>699</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>386</v>
+        <v>2057</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>2204</v>
       </c>
       <c r="C48" t="s">
-        <v>640</v>
+        <v>2309</v>
       </c>
       <c r="D48" t="s">
-        <v>700</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>2058</v>
       </c>
       <c r="B49" t="s">
-        <v>535</v>
+        <v>2205</v>
       </c>
       <c r="C49" t="s">
-        <v>640</v>
+        <v>2309</v>
       </c>
       <c r="D49" t="s">
-        <v>701</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>388</v>
+        <v>2059</v>
       </c>
       <c r="B50" t="s">
-        <v>536</v>
+        <v>2206</v>
       </c>
       <c r="C50" t="s">
-        <v>640</v>
+        <v>2309</v>
       </c>
       <c r="D50" t="s">
-        <v>702</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>389</v>
+        <v>2060</v>
       </c>
       <c r="B51" t="s">
-        <v>537</v>
+        <v>2207</v>
       </c>
       <c r="C51" t="s">
-        <v>640</v>
+        <v>2309</v>
       </c>
       <c r="D51" t="s">
-        <v>703</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>390</v>
+        <v>2061</v>
       </c>
       <c r="B52" t="s">
-        <v>538</v>
+        <v>2208</v>
       </c>
       <c r="C52" t="s">
-        <v>640</v>
+        <v>2309</v>
       </c>
       <c r="D52" t="s">
-        <v>704</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>391</v>
+        <v>2062</v>
       </c>
       <c r="B53" t="s">
-        <v>539</v>
+        <v>2209</v>
       </c>
       <c r="C53" t="s">
-        <v>640</v>
+        <v>2309</v>
       </c>
       <c r="D53" t="s">
-        <v>705</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>392</v>
+        <v>2063</v>
       </c>
       <c r="B54" t="s">
-        <v>540</v>
+        <v>2210</v>
       </c>
       <c r="C54" t="s">
-        <v>641</v>
+        <v>2310</v>
       </c>
       <c r="D54" t="s">
-        <v>706</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>393</v>
+        <v>2064</v>
       </c>
       <c r="B55" t="s">
-        <v>541</v>
+        <v>2211</v>
       </c>
       <c r="C55" t="s">
-        <v>642</v>
+        <v>2311</v>
       </c>
       <c r="D55" t="s">
-        <v>707</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>394</v>
+        <v>2065</v>
       </c>
       <c r="B56" t="s">
-        <v>542</v>
+        <v>2212</v>
       </c>
       <c r="C56" t="s">
-        <v>642</v>
+        <v>2311</v>
       </c>
       <c r="D56" t="s">
-        <v>708</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>395</v>
+        <v>2066</v>
       </c>
       <c r="B57" t="s">
-        <v>543</v>
+        <v>2213</v>
       </c>
       <c r="C57" t="s">
-        <v>643</v>
+        <v>2312</v>
       </c>
       <c r="D57" t="s">
-        <v>709</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>396</v>
+        <v>2067</v>
       </c>
       <c r="B58" t="s">
-        <v>544</v>
+        <v>2214</v>
       </c>
       <c r="C58" t="s">
-        <v>643</v>
+        <v>2312</v>
       </c>
       <c r="D58" t="s">
-        <v>710</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>397</v>
+        <v>2068</v>
       </c>
       <c r="B59" t="s">
-        <v>545</v>
+        <v>2215</v>
       </c>
       <c r="C59" t="s">
-        <v>644</v>
+        <v>2313</v>
       </c>
       <c r="D59" t="s">
-        <v>711</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>2069</v>
       </c>
       <c r="B60" t="s">
-        <v>546</v>
+        <v>2216</v>
       </c>
       <c r="C60" t="s">
-        <v>645</v>
+        <v>2314</v>
       </c>
       <c r="D60" t="s">
-        <v>712</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>399</v>
+        <v>2070</v>
       </c>
       <c r="B61" t="s">
-        <v>547</v>
+        <v>2217</v>
       </c>
       <c r="C61" t="s">
-        <v>645</v>
+        <v>2314</v>
       </c>
       <c r="D61" t="s">
-        <v>712</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>400</v>
+        <v>2071</v>
       </c>
       <c r="B62" t="s">
-        <v>548</v>
+        <v>2218</v>
       </c>
       <c r="C62" t="s">
-        <v>646</v>
+        <v>2315</v>
       </c>
       <c r="D62" t="s">
-        <v>713</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>2072</v>
       </c>
       <c r="B63" t="s">
-        <v>549</v>
+        <v>2219</v>
       </c>
       <c r="C63" t="s">
-        <v>647</v>
+        <v>2316</v>
       </c>
       <c r="D63" t="s">
-        <v>714</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>402</v>
+        <v>2073</v>
       </c>
       <c r="B64" t="s">
-        <v>550</v>
+        <v>2220</v>
       </c>
       <c r="C64" t="s">
-        <v>647</v>
+        <v>2316</v>
       </c>
       <c r="D64" t="s">
-        <v>714</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>403</v>
+        <v>2074</v>
       </c>
       <c r="B65" t="s">
-        <v>551</v>
+        <v>2221</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
+        <v>2317</v>
       </c>
       <c r="D65" t="s">
-        <v>715</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>2075</v>
       </c>
       <c r="B66" t="s">
-        <v>552</v>
+        <v>2222</v>
       </c>
       <c r="C66" t="s">
-        <v>648</v>
+        <v>2318</v>
       </c>
       <c r="D66" t="s">
-        <v>716</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>2076</v>
       </c>
       <c r="B67" t="s">
-        <v>553</v>
+        <v>2223</v>
       </c>
       <c r="C67" t="s">
-        <v>649</v>
+        <v>2318</v>
       </c>
       <c r="D67" t="s">
-        <v>717</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>2077</v>
       </c>
       <c r="B68" t="s">
-        <v>554</v>
+        <v>2223</v>
       </c>
       <c r="C68" t="s">
-        <v>649</v>
+        <v>2318</v>
       </c>
       <c r="D68" t="s">
-        <v>718</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>407</v>
+        <v>2078</v>
       </c>
       <c r="B69" t="s">
-        <v>554</v>
+        <v>2224</v>
       </c>
       <c r="C69" t="s">
-        <v>649</v>
+        <v>2319</v>
       </c>
       <c r="D69" t="s">
-        <v>719</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>408</v>
+        <v>2079</v>
       </c>
       <c r="B70" t="s">
-        <v>555</v>
+        <v>2225</v>
       </c>
       <c r="C70" t="s">
-        <v>650</v>
+        <v>2320</v>
       </c>
       <c r="D70" t="s">
-        <v>720</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>409</v>
+        <v>2080</v>
       </c>
       <c r="B71" t="s">
-        <v>556</v>
+        <v>2226</v>
       </c>
       <c r="C71" t="s">
-        <v>651</v>
+        <v>2320</v>
       </c>
       <c r="D71" t="s">
-        <v>721</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>410</v>
+        <v>2081</v>
       </c>
       <c r="B72" t="s">
-        <v>557</v>
+        <v>2227</v>
       </c>
       <c r="C72" t="s">
-        <v>651</v>
+        <v>2320</v>
       </c>
       <c r="D72" t="s">
-        <v>722</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>411</v>
+        <v>2082</v>
       </c>
       <c r="B73" t="s">
-        <v>558</v>
+        <v>2228</v>
       </c>
       <c r="C73" t="s">
-        <v>651</v>
+        <v>2321</v>
       </c>
       <c r="D73" t="s">
-        <v>722</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>412</v>
+        <v>2083</v>
       </c>
       <c r="B74" t="s">
-        <v>559</v>
+        <v>2229</v>
       </c>
       <c r="C74" t="s">
-        <v>652</v>
+        <v>2322</v>
       </c>
       <c r="D74" t="s">
-        <v>723</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>413</v>
+        <v>2084</v>
       </c>
       <c r="B75" t="s">
-        <v>560</v>
+        <v>2230</v>
       </c>
       <c r="C75" t="s">
-        <v>653</v>
+        <v>2322</v>
       </c>
       <c r="D75" t="s">
-        <v>724</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>414</v>
+        <v>2085</v>
       </c>
       <c r="B76" t="s">
-        <v>561</v>
+        <v>2231</v>
       </c>
       <c r="C76" t="s">
-        <v>653</v>
+        <v>2322</v>
       </c>
       <c r="D76" t="s">
-        <v>725</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>415</v>
+        <v>2086</v>
       </c>
       <c r="B77" t="s">
-        <v>562</v>
+        <v>2232</v>
       </c>
       <c r="C77" t="s">
-        <v>653</v>
+        <v>2322</v>
       </c>
       <c r="D77" t="s">
-        <v>726</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>2087</v>
       </c>
       <c r="B78" t="s">
-        <v>563</v>
+        <v>2233</v>
       </c>
       <c r="C78" t="s">
-        <v>653</v>
+        <v>2322</v>
       </c>
       <c r="D78" t="s">
-        <v>727</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>417</v>
+        <v>2088</v>
       </c>
       <c r="B79" t="s">
-        <v>564</v>
+        <v>2234</v>
       </c>
       <c r="C79" t="s">
-        <v>653</v>
+        <v>2323</v>
       </c>
       <c r="D79" t="s">
-        <v>728</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>418</v>
+        <v>2089</v>
       </c>
       <c r="B80" t="s">
-        <v>565</v>
+        <v>2235</v>
       </c>
       <c r="C80" t="s">
-        <v>654</v>
+        <v>2323</v>
       </c>
       <c r="D80" t="s">
-        <v>729</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>419</v>
+        <v>2090</v>
       </c>
       <c r="B81" t="s">
-        <v>566</v>
+        <v>2236</v>
       </c>
       <c r="C81" t="s">
-        <v>654</v>
+        <v>2324</v>
       </c>
       <c r="D81" t="s">
-        <v>730</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>420</v>
+        <v>2091</v>
       </c>
       <c r="B82" t="s">
-        <v>567</v>
+        <v>2237</v>
       </c>
       <c r="C82" t="s">
-        <v>655</v>
+        <v>2325</v>
       </c>
       <c r="D82" t="s">
-        <v>731</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>421</v>
+        <v>2092</v>
       </c>
       <c r="B83" t="s">
-        <v>568</v>
+        <v>2238</v>
       </c>
       <c r="C83" t="s">
-        <v>656</v>
+        <v>2326</v>
       </c>
       <c r="D83" t="s">
-        <v>732</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>422</v>
+        <v>2093</v>
       </c>
       <c r="B84" t="s">
-        <v>569</v>
+        <v>2239</v>
       </c>
       <c r="C84" t="s">
-        <v>657</v>
+        <v>2327</v>
       </c>
       <c r="D84" t="s">
-        <v>733</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>423</v>
+        <v>2094</v>
       </c>
       <c r="B85" t="s">
-        <v>570</v>
+        <v>2240</v>
       </c>
       <c r="C85" t="s">
-        <v>658</v>
+        <v>2327</v>
       </c>
       <c r="D85" t="s">
-        <v>734</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>424</v>
+        <v>2095</v>
       </c>
       <c r="B86" t="s">
-        <v>571</v>
+        <v>2241</v>
       </c>
       <c r="C86" t="s">
-        <v>658</v>
+        <v>2328</v>
       </c>
       <c r="D86" t="s">
-        <v>735</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>425</v>
+        <v>2096</v>
       </c>
       <c r="B87" t="s">
-        <v>572</v>
+        <v>2242</v>
       </c>
       <c r="C87" t="s">
-        <v>659</v>
+        <v>2329</v>
       </c>
       <c r="D87" t="s">
-        <v>736</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>426</v>
+        <v>2097</v>
       </c>
       <c r="B88" t="s">
-        <v>573</v>
+        <v>2243</v>
       </c>
       <c r="C88" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D88" t="s">
-        <v>737</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>427</v>
+        <v>2098</v>
       </c>
       <c r="B89" t="s">
-        <v>574</v>
+        <v>2244</v>
       </c>
       <c r="C89" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D89" t="s">
-        <v>738</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>428</v>
+        <v>2099</v>
       </c>
       <c r="B90" t="s">
-        <v>575</v>
+        <v>2245</v>
       </c>
       <c r="C90" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D90" t="s">
-        <v>739</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>429</v>
+        <v>2100</v>
       </c>
       <c r="B91" t="s">
-        <v>576</v>
+        <v>2246</v>
       </c>
       <c r="C91" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D91" t="s">
-        <v>740</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>430</v>
+        <v>2101</v>
       </c>
       <c r="B92" t="s">
-        <v>577</v>
+        <v>2247</v>
       </c>
       <c r="C92" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D92" t="s">
-        <v>741</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>431</v>
+        <v>2102</v>
       </c>
       <c r="B93" t="s">
-        <v>578</v>
+        <v>2248</v>
       </c>
       <c r="C93" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D93" t="s">
-        <v>742</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>432</v>
+        <v>2103</v>
       </c>
       <c r="B94" t="s">
-        <v>579</v>
+        <v>2249</v>
       </c>
       <c r="C94" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D94" t="s">
-        <v>743</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>433</v>
+        <v>2104</v>
       </c>
       <c r="B95" t="s">
-        <v>580</v>
+        <v>2250</v>
       </c>
       <c r="C95" t="s">
-        <v>660</v>
+        <v>2329</v>
       </c>
       <c r="D95" t="s">
-        <v>744</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>434</v>
+        <v>2105</v>
       </c>
       <c r="B96" t="s">
-        <v>581</v>
+        <v>2251</v>
       </c>
       <c r="C96" t="s">
-        <v>660</v>
+        <v>2330</v>
       </c>
       <c r="D96" t="s">
-        <v>745</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>2106</v>
       </c>
       <c r="B97" t="s">
-        <v>582</v>
+        <v>2252</v>
       </c>
       <c r="C97" t="s">
-        <v>661</v>
+        <v>2330</v>
       </c>
       <c r="D97" t="s">
-        <v>746</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>436</v>
+        <v>2107</v>
       </c>
       <c r="B98" t="s">
-        <v>583</v>
+        <v>2253</v>
       </c>
       <c r="C98" t="s">
-        <v>661</v>
+        <v>2331</v>
       </c>
       <c r="D98" t="s">
-        <v>747</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>437</v>
+        <v>2108</v>
       </c>
       <c r="B99" t="s">
-        <v>584</v>
+        <v>2254</v>
       </c>
       <c r="C99" t="s">
-        <v>662</v>
+        <v>2332</v>
       </c>
       <c r="D99" t="s">
-        <v>748</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>438</v>
+        <v>2109</v>
       </c>
       <c r="B100" t="s">
-        <v>585</v>
+        <v>2255</v>
       </c>
       <c r="C100" t="s">
-        <v>663</v>
+        <v>2332</v>
       </c>
       <c r="D100" t="s">
-        <v>749</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>2110</v>
       </c>
       <c r="B101" t="s">
-        <v>586</v>
+        <v>2256</v>
       </c>
       <c r="C101" t="s">
-        <v>663</v>
+        <v>2333</v>
       </c>
       <c r="D101" t="s">
-        <v>750</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>440</v>
+        <v>2111</v>
       </c>
       <c r="B102" t="s">
-        <v>587</v>
+        <v>2257</v>
       </c>
       <c r="C102" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D102" t="s">
-        <v>751</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>441</v>
+        <v>2112</v>
       </c>
       <c r="B103" t="s">
-        <v>588</v>
+        <v>2258</v>
       </c>
       <c r="C103" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D103" t="s">
-        <v>752</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>442</v>
+        <v>2113</v>
       </c>
       <c r="B104" t="s">
-        <v>589</v>
+        <v>2259</v>
       </c>
       <c r="C104" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D104" t="s">
-        <v>753</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>443</v>
+        <v>2114</v>
       </c>
       <c r="B105" t="s">
-        <v>590</v>
+        <v>2260</v>
       </c>
       <c r="C105" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D105" t="s">
-        <v>754</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>444</v>
+        <v>2115</v>
       </c>
       <c r="B106" t="s">
-        <v>591</v>
+        <v>2261</v>
       </c>
       <c r="C106" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D106" t="s">
-        <v>755</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>445</v>
+        <v>2116</v>
       </c>
       <c r="B107" t="s">
-        <v>592</v>
+        <v>2262</v>
       </c>
       <c r="C107" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D107" t="s">
-        <v>756</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>446</v>
+        <v>2117</v>
       </c>
       <c r="B108" t="s">
-        <v>593</v>
+        <v>2262</v>
       </c>
       <c r="C108" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D108" t="s">
-        <v>757</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>447</v>
+        <v>2118</v>
       </c>
       <c r="B109" t="s">
-        <v>593</v>
+        <v>2263</v>
       </c>
       <c r="C109" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D109" t="s">
-        <v>758</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>448</v>
+        <v>2119</v>
       </c>
       <c r="B110" t="s">
-        <v>594</v>
+        <v>2263</v>
       </c>
       <c r="C110" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D110" t="s">
-        <v>759</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>449</v>
+        <v>2120</v>
       </c>
       <c r="B111" t="s">
-        <v>594</v>
+        <v>2264</v>
       </c>
       <c r="C111" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D111" t="s">
-        <v>760</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>450</v>
+        <v>2121</v>
       </c>
       <c r="B112" t="s">
-        <v>595</v>
+        <v>2264</v>
       </c>
       <c r="C112" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D112" t="s">
-        <v>761</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>451</v>
+        <v>2122</v>
       </c>
       <c r="B113" t="s">
-        <v>595</v>
+        <v>2265</v>
       </c>
       <c r="C113" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D113" t="s">
-        <v>762</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>2123</v>
       </c>
       <c r="B114" t="s">
-        <v>596</v>
+        <v>2265</v>
       </c>
       <c r="C114" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D114" t="s">
-        <v>763</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>453</v>
+        <v>2124</v>
       </c>
       <c r="B115" t="s">
-        <v>596</v>
+        <v>2266</v>
       </c>
       <c r="C115" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D115" t="s">
-        <v>764</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>454</v>
+        <v>2125</v>
       </c>
       <c r="B116" t="s">
-        <v>597</v>
+        <v>2267</v>
       </c>
       <c r="C116" t="s">
-        <v>664</v>
+        <v>2333</v>
       </c>
       <c r="D116" t="s">
-        <v>765</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>455</v>
+        <v>2126</v>
       </c>
       <c r="B117" t="s">
-        <v>598</v>
+        <v>2268</v>
       </c>
       <c r="C117" t="s">
-        <v>664</v>
+        <v>2334</v>
       </c>
       <c r="D117" t="s">
-        <v>766</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>456</v>
+        <v>2127</v>
       </c>
       <c r="B118" t="s">
-        <v>599</v>
+        <v>2269</v>
       </c>
       <c r="C118" t="s">
-        <v>665</v>
+        <v>2334</v>
       </c>
       <c r="D118" t="s">
-        <v>767</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>457</v>
+        <v>2128</v>
       </c>
       <c r="B119" t="s">
-        <v>600</v>
+        <v>2270</v>
       </c>
       <c r="C119" t="s">
-        <v>665</v>
+        <v>2334</v>
       </c>
       <c r="D119" t="s">
-        <v>768</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>458</v>
+        <v>2129</v>
       </c>
       <c r="B120" t="s">
-        <v>601</v>
+        <v>2271</v>
       </c>
       <c r="C120" t="s">
-        <v>665</v>
+        <v>2334</v>
       </c>
       <c r="D120" t="s">
-        <v>769</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>459</v>
+        <v>2130</v>
       </c>
       <c r="B121" t="s">
-        <v>602</v>
+        <v>2272</v>
       </c>
       <c r="C121" t="s">
-        <v>665</v>
+        <v>2335</v>
       </c>
       <c r="D121" t="s">
-        <v>770</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>460</v>
+        <v>2131</v>
       </c>
       <c r="B122" t="s">
-        <v>603</v>
+        <v>2273</v>
       </c>
       <c r="C122" t="s">
-        <v>666</v>
+        <v>2335</v>
       </c>
       <c r="D122" t="s">
-        <v>771</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>461</v>
+        <v>2132</v>
       </c>
       <c r="B123" t="s">
-        <v>604</v>
+        <v>2274</v>
       </c>
       <c r="C123" t="s">
-        <v>666</v>
+        <v>2336</v>
       </c>
       <c r="D123" t="s">
-        <v>772</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>462</v>
+        <v>2133</v>
       </c>
       <c r="B124" t="s">
-        <v>605</v>
+        <v>2275</v>
       </c>
       <c r="C124" t="s">
-        <v>667</v>
+        <v>2337</v>
       </c>
       <c r="D124" t="s">
-        <v>773</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>463</v>
+        <v>2134</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>2276</v>
       </c>
       <c r="C125" t="s">
-        <v>668</v>
+        <v>2337</v>
       </c>
       <c r="D125" t="s">
-        <v>774</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>464</v>
+        <v>2135</v>
       </c>
       <c r="B126" t="s">
-        <v>607</v>
+        <v>2277</v>
       </c>
       <c r="C126" t="s">
-        <v>668</v>
+        <v>2337</v>
       </c>
       <c r="D126" t="s">
-        <v>775</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>465</v>
+        <v>2136</v>
       </c>
       <c r="B127" t="s">
-        <v>608</v>
+        <v>2278</v>
       </c>
       <c r="C127" t="s">
-        <v>668</v>
+        <v>2337</v>
       </c>
       <c r="D127" t="s">
-        <v>776</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>466</v>
+        <v>2137</v>
       </c>
       <c r="B128" t="s">
-        <v>609</v>
+        <v>2279</v>
       </c>
       <c r="C128" t="s">
-        <v>668</v>
+        <v>2337</v>
       </c>
       <c r="D128" t="s">
-        <v>777</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>467</v>
+        <v>2138</v>
       </c>
       <c r="B129" t="s">
-        <v>610</v>
+        <v>2280</v>
       </c>
       <c r="C129" t="s">
-        <v>668</v>
+        <v>2337</v>
       </c>
       <c r="D129" t="s">
-        <v>778</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>468</v>
+        <v>2139</v>
       </c>
       <c r="B130" t="s">
-        <v>611</v>
+        <v>2281</v>
       </c>
       <c r="C130" t="s">
-        <v>668</v>
+        <v>2337</v>
       </c>
       <c r="D130" t="s">
-        <v>779</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>469</v>
+        <v>2140</v>
       </c>
       <c r="B131" t="s">
-        <v>612</v>
+        <v>2282</v>
       </c>
       <c r="C131" t="s">
-        <v>668</v>
+        <v>2338</v>
       </c>
       <c r="D131" t="s">
-        <v>780</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>470</v>
+        <v>2141</v>
       </c>
       <c r="B132" t="s">
-        <v>613</v>
+        <v>2283</v>
       </c>
       <c r="C132" t="s">
-        <v>669</v>
+        <v>2339</v>
       </c>
       <c r="D132" t="s">
-        <v>781</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>471</v>
+        <v>2142</v>
       </c>
       <c r="B133" t="s">
-        <v>614</v>
+        <v>2284</v>
       </c>
       <c r="C133" t="s">
-        <v>670</v>
+        <v>2340</v>
       </c>
       <c r="D133" t="s">
-        <v>782</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>472</v>
+        <v>2143</v>
       </c>
       <c r="B134" t="s">
-        <v>615</v>
+        <v>2285</v>
       </c>
       <c r="C134" t="s">
-        <v>671</v>
+        <v>2340</v>
       </c>
       <c r="D134" t="s">
-        <v>783</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>473</v>
+        <v>2144</v>
       </c>
       <c r="B135" t="s">
-        <v>616</v>
+        <v>2286</v>
       </c>
       <c r="C135" t="s">
-        <v>671</v>
+        <v>2340</v>
       </c>
       <c r="D135" t="s">
-        <v>784</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>474</v>
+        <v>2145</v>
       </c>
       <c r="B136" t="s">
-        <v>617</v>
+        <v>2287</v>
       </c>
       <c r="C136" t="s">
-        <v>671</v>
+        <v>2340</v>
       </c>
       <c r="D136" t="s">
-        <v>785</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>475</v>
+        <v>2146</v>
       </c>
       <c r="B137" t="s">
-        <v>618</v>
+        <v>2288</v>
       </c>
       <c r="C137" t="s">
-        <v>671</v>
+        <v>2340</v>
       </c>
       <c r="D137" t="s">
-        <v>786</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>476</v>
+        <v>2147</v>
       </c>
       <c r="B138" t="s">
-        <v>619</v>
+        <v>2289</v>
       </c>
       <c r="C138" t="s">
-        <v>671</v>
+        <v>2340</v>
       </c>
       <c r="D138" t="s">
-        <v>787</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>477</v>
+        <v>2148</v>
       </c>
       <c r="B139" t="s">
-        <v>620</v>
+        <v>2290</v>
       </c>
       <c r="C139" t="s">
-        <v>671</v>
+        <v>2340</v>
       </c>
       <c r="D139" t="s">
-        <v>788</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>478</v>
+        <v>2149</v>
       </c>
       <c r="B140" t="s">
-        <v>621</v>
+        <v>2291</v>
       </c>
       <c r="C140" t="s">
-        <v>671</v>
+        <v>2340</v>
       </c>
       <c r="D140" t="s">
-        <v>789</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>479</v>
+        <v>2150</v>
       </c>
       <c r="B141" t="s">
-        <v>622</v>
+        <v>2292</v>
       </c>
       <c r="C141" t="s">
-        <v>671</v>
+        <v>2341</v>
       </c>
       <c r="D141" t="s">
-        <v>790</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>480</v>
+        <v>2151</v>
       </c>
       <c r="B142" t="s">
-        <v>623</v>
+        <v>2293</v>
       </c>
       <c r="C142" t="s">
-        <v>672</v>
+        <v>2342</v>
       </c>
       <c r="D142" t="s">
-        <v>791</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>481</v>
+        <v>2152</v>
       </c>
       <c r="B143" t="s">
-        <v>624</v>
+        <v>2294</v>
       </c>
       <c r="C143" t="s">
-        <v>673</v>
+        <v>2342</v>
       </c>
       <c r="D143" t="s">
-        <v>792</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>482</v>
+        <v>2153</v>
       </c>
       <c r="B144" t="s">
-        <v>625</v>
+        <v>2295</v>
       </c>
       <c r="C144" t="s">
-        <v>673</v>
+        <v>2342</v>
       </c>
       <c r="D144" t="s">
-        <v>793</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>483</v>
+        <v>2154</v>
       </c>
       <c r="B145" t="s">
-        <v>626</v>
+        <v>2296</v>
       </c>
       <c r="C145" t="s">
-        <v>673</v>
+        <v>2342</v>
       </c>
       <c r="D145" t="s">
-        <v>794</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>484</v>
+        <v>2155</v>
       </c>
       <c r="B146" t="s">
-        <v>627</v>
+        <v>2297</v>
       </c>
       <c r="C146" t="s">
-        <v>673</v>
+        <v>2343</v>
       </c>
       <c r="D146" t="s">
-        <v>795</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>485</v>
+        <v>2156</v>
       </c>
       <c r="B147" t="s">
-        <v>628</v>
+        <v>2298</v>
       </c>
       <c r="C147" t="s">
-        <v>674</v>
+        <v>2344</v>
       </c>
       <c r="D147" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>486</v>
-      </c>
-      <c r="B148" t="s">
-        <v>629</v>
-      </c>
-      <c r="C148" t="s">
-        <v>675</v>
-      </c>
-      <c r="D148" t="s">
-        <v>797</v>
+        <v>2465</v>
       </c>
     </row>
   </sheetData>
@@ -4840,475 +9830,475 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>798</v>
+        <v>2466</v>
       </c>
       <c r="B1" t="s">
-        <v>814</v>
+        <v>2482</v>
       </c>
       <c r="C1" t="s">
-        <v>856</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>2467</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>2483</v>
       </c>
       <c r="C2" t="s">
-        <v>857</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>799</v>
+        <v>2467</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>2484</v>
       </c>
       <c r="C3" t="s">
-        <v>858</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>799</v>
+        <v>2467</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>2485</v>
       </c>
       <c r="C4" t="s">
-        <v>859</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>799</v>
+        <v>2467</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>2486</v>
       </c>
       <c r="C5" t="s">
-        <v>860</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>800</v>
+        <v>2468</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>2487</v>
       </c>
       <c r="C6" t="s">
-        <v>861</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>800</v>
+        <v>2468</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>2488</v>
       </c>
       <c r="C7" t="s">
-        <v>862</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>801</v>
+        <v>2469</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>2489</v>
       </c>
       <c r="C8" t="s">
-        <v>863</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>801</v>
+        <v>2469</v>
       </c>
       <c r="B9" t="s">
-        <v>822</v>
+        <v>2490</v>
       </c>
       <c r="C9" t="s">
-        <v>864</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>801</v>
+        <v>2469</v>
       </c>
       <c r="B10" t="s">
-        <v>823</v>
+        <v>2491</v>
       </c>
       <c r="C10" t="s">
-        <v>865</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>802</v>
+        <v>2470</v>
       </c>
       <c r="B11" t="s">
-        <v>824</v>
+        <v>2492</v>
       </c>
       <c r="C11" t="s">
-        <v>866</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>802</v>
+        <v>2470</v>
       </c>
       <c r="B12" t="s">
-        <v>825</v>
+        <v>2493</v>
       </c>
       <c r="C12" t="s">
-        <v>867</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>802</v>
+        <v>2470</v>
       </c>
       <c r="B13" t="s">
-        <v>826</v>
+        <v>2494</v>
       </c>
       <c r="C13" t="s">
-        <v>868</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>802</v>
+        <v>2470</v>
       </c>
       <c r="B14" t="s">
-        <v>827</v>
+        <v>2495</v>
       </c>
       <c r="C14" t="s">
-        <v>869</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>802</v>
+        <v>2470</v>
       </c>
       <c r="B15" t="s">
-        <v>828</v>
+        <v>2496</v>
       </c>
       <c r="C15" t="s">
-        <v>870</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>802</v>
+        <v>2470</v>
       </c>
       <c r="B16" t="s">
-        <v>829</v>
+        <v>2497</v>
       </c>
       <c r="C16" t="s">
-        <v>871</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>803</v>
+        <v>2471</v>
       </c>
       <c r="B17" t="s">
-        <v>830</v>
+        <v>2498</v>
       </c>
       <c r="C17" t="s">
-        <v>872</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>803</v>
+        <v>2471</v>
       </c>
       <c r="B18" t="s">
-        <v>831</v>
+        <v>2499</v>
       </c>
       <c r="C18" t="s">
-        <v>873</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>804</v>
+        <v>2472</v>
       </c>
       <c r="B19" t="s">
-        <v>832</v>
+        <v>2500</v>
       </c>
       <c r="C19" t="s">
-        <v>874</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>804</v>
+        <v>2472</v>
       </c>
       <c r="B20" t="s">
-        <v>833</v>
+        <v>2501</v>
       </c>
       <c r="C20" t="s">
-        <v>875</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>805</v>
+        <v>2473</v>
       </c>
       <c r="B21" t="s">
-        <v>834</v>
+        <v>2502</v>
       </c>
       <c r="C21" t="s">
-        <v>876</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>805</v>
+        <v>2473</v>
       </c>
       <c r="B22" t="s">
-        <v>835</v>
+        <v>2503</v>
       </c>
       <c r="C22" t="s">
-        <v>877</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>806</v>
+        <v>2474</v>
       </c>
       <c r="B23" t="s">
-        <v>835</v>
+        <v>2503</v>
       </c>
       <c r="C23" t="s">
-        <v>878</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>806</v>
+        <v>2474</v>
       </c>
       <c r="B24" t="s">
-        <v>836</v>
+        <v>2504</v>
       </c>
       <c r="C24" t="s">
-        <v>879</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>806</v>
+        <v>2474</v>
       </c>
       <c r="B25" t="s">
-        <v>837</v>
+        <v>2505</v>
       </c>
       <c r="C25" t="s">
-        <v>880</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>807</v>
+        <v>2475</v>
       </c>
       <c r="B26" t="s">
-        <v>838</v>
+        <v>2506</v>
       </c>
       <c r="C26" t="s">
-        <v>881</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>807</v>
+        <v>2475</v>
       </c>
       <c r="B27" t="s">
-        <v>839</v>
+        <v>2507</v>
       </c>
       <c r="C27" t="s">
-        <v>882</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>807</v>
+        <v>2475</v>
       </c>
       <c r="B28" t="s">
-        <v>840</v>
+        <v>2508</v>
       </c>
       <c r="C28" t="s">
-        <v>883</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>808</v>
+        <v>2476</v>
       </c>
       <c r="B29" t="s">
-        <v>841</v>
+        <v>2509</v>
       </c>
       <c r="C29" t="s">
-        <v>884</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>808</v>
+        <v>2476</v>
       </c>
       <c r="B30" t="s">
-        <v>842</v>
+        <v>2510</v>
       </c>
       <c r="C30" t="s">
-        <v>885</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>809</v>
+        <v>2477</v>
       </c>
       <c r="B31" t="s">
-        <v>843</v>
+        <v>2511</v>
       </c>
       <c r="C31" t="s">
-        <v>886</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>809</v>
+        <v>2477</v>
       </c>
       <c r="B32" t="s">
-        <v>844</v>
+        <v>2512</v>
       </c>
       <c r="C32" t="s">
-        <v>887</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>810</v>
+        <v>2478</v>
       </c>
       <c r="B33" t="s">
-        <v>845</v>
+        <v>2513</v>
       </c>
       <c r="C33" t="s">
-        <v>888</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>810</v>
+        <v>2478</v>
       </c>
       <c r="B34" t="s">
-        <v>846</v>
+        <v>2514</v>
       </c>
       <c r="C34" t="s">
-        <v>889</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>811</v>
+        <v>2479</v>
       </c>
       <c r="B35" t="s">
-        <v>847</v>
+        <v>2515</v>
       </c>
       <c r="C35" t="s">
-        <v>890</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>811</v>
+        <v>2479</v>
       </c>
       <c r="B36" t="s">
-        <v>848</v>
+        <v>2516</v>
       </c>
       <c r="C36" t="s">
-        <v>891</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>812</v>
+        <v>2480</v>
       </c>
       <c r="B37" t="s">
-        <v>849</v>
+        <v>2517</v>
       </c>
       <c r="C37" t="s">
-        <v>892</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>812</v>
+        <v>2480</v>
       </c>
       <c r="B38" t="s">
-        <v>850</v>
+        <v>2518</v>
       </c>
       <c r="C38" t="s">
-        <v>893</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>812</v>
+        <v>2480</v>
       </c>
       <c r="B39" t="s">
-        <v>851</v>
+        <v>2519</v>
       </c>
       <c r="C39" t="s">
-        <v>894</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>812</v>
+        <v>2480</v>
       </c>
       <c r="B40" t="s">
-        <v>852</v>
+        <v>2520</v>
       </c>
       <c r="C40" t="s">
-        <v>895</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>812</v>
+        <v>2480</v>
       </c>
       <c r="B41" t="s">
-        <v>853</v>
+        <v>2521</v>
       </c>
       <c r="C41" t="s">
-        <v>896</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>813</v>
+        <v>2481</v>
       </c>
       <c r="B42" t="s">
-        <v>854</v>
+        <v>2522</v>
       </c>
       <c r="C42" t="s">
-        <v>897</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>813</v>
+        <v>2481</v>
       </c>
       <c r="B43" t="s">
-        <v>855</v>
+        <v>2523</v>
       </c>
       <c r="C43" t="s">
-        <v>898</v>
+        <v>2566</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="2567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5724" uniqueCount="3666">
   <si>
     <t>name</t>
   </si>
@@ -7328,6 +7328,3303 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
   <si>
     <t/>
@@ -7758,2065 +11055,2037 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D145"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2010</v>
+        <v>3115</v>
       </c>
       <c r="B1" t="s">
-        <v>2157</v>
+        <v>3260</v>
       </c>
       <c r="C1" t="s">
-        <v>2299</v>
+        <v>3400</v>
       </c>
       <c r="D1" t="s">
-        <v>2345</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2011</v>
+        <v>3116</v>
       </c>
       <c r="B2" t="s">
-        <v>2158</v>
+        <v>3261</v>
       </c>
       <c r="C2" t="s">
-        <v>2300</v>
+        <v>3401</v>
       </c>
       <c r="D2" t="s">
-        <v>2346</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2012</v>
+        <v>3117</v>
       </c>
       <c r="B3" t="s">
-        <v>2159</v>
+        <v>3262</v>
       </c>
       <c r="C3" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D3" t="s">
-        <v>2347</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2013</v>
+        <v>3118</v>
       </c>
       <c r="B4" t="s">
-        <v>2160</v>
+        <v>3263</v>
       </c>
       <c r="C4" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D4" t="s">
-        <v>2348</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2014</v>
+        <v>3119</v>
       </c>
       <c r="B5" t="s">
-        <v>2161</v>
+        <v>3264</v>
       </c>
       <c r="C5" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D5" t="s">
-        <v>2349</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2015</v>
+        <v>3120</v>
       </c>
       <c r="B6" t="s">
-        <v>2162</v>
+        <v>3265</v>
       </c>
       <c r="C6" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D6" t="s">
-        <v>2350</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2016</v>
+        <v>3121</v>
       </c>
       <c r="B7" t="s">
-        <v>2163</v>
+        <v>3266</v>
       </c>
       <c r="C7" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D7" t="s">
-        <v>2351</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2017</v>
+        <v>3122</v>
       </c>
       <c r="B8" t="s">
-        <v>2164</v>
+        <v>3267</v>
       </c>
       <c r="C8" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D8" t="s">
-        <v>2352</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2018</v>
+        <v>3123</v>
       </c>
       <c r="B9" t="s">
-        <v>2165</v>
+        <v>3268</v>
       </c>
       <c r="C9" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D9" t="s">
-        <v>2353</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2019</v>
+        <v>3124</v>
       </c>
       <c r="B10" t="s">
-        <v>2166</v>
+        <v>3269</v>
       </c>
       <c r="C10" t="s">
-        <v>2301</v>
+        <v>3402</v>
       </c>
       <c r="D10" t="s">
-        <v>2354</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2020</v>
+        <v>3125</v>
       </c>
       <c r="B11" t="s">
-        <v>2167</v>
+        <v>3270</v>
       </c>
       <c r="C11" t="s">
-        <v>2302</v>
+        <v>3403</v>
       </c>
       <c r="D11" t="s">
-        <v>2355</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2021</v>
+        <v>3126</v>
       </c>
       <c r="B12" t="s">
-        <v>2168</v>
+        <v>3271</v>
       </c>
       <c r="C12" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D12" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2022</v>
+        <v>3127</v>
       </c>
       <c r="B13" t="s">
-        <v>2169</v>
+        <v>3272</v>
       </c>
       <c r="C13" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D13" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2023</v>
+        <v>3128</v>
       </c>
       <c r="B14" t="s">
-        <v>2170</v>
+        <v>3273</v>
       </c>
       <c r="C14" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D14" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2024</v>
+        <v>3129</v>
       </c>
       <c r="B15" t="s">
-        <v>2171</v>
+        <v>3274</v>
       </c>
       <c r="C15" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D15" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2025</v>
+        <v>3130</v>
       </c>
       <c r="B16" t="s">
-        <v>2172</v>
+        <v>3275</v>
       </c>
       <c r="C16" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D16" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2026</v>
+        <v>3131</v>
       </c>
       <c r="B17" t="s">
-        <v>2173</v>
+        <v>3276</v>
       </c>
       <c r="C17" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D17" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2027</v>
+        <v>3132</v>
       </c>
       <c r="B18" t="s">
-        <v>2174</v>
+        <v>3277</v>
       </c>
       <c r="C18" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D18" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2028</v>
+        <v>3133</v>
       </c>
       <c r="B19" t="s">
-        <v>2175</v>
+        <v>3278</v>
       </c>
       <c r="C19" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D19" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2029</v>
+        <v>3134</v>
       </c>
       <c r="B20" t="s">
-        <v>2176</v>
+        <v>3279</v>
       </c>
       <c r="C20" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D20" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2030</v>
+        <v>3135</v>
       </c>
       <c r="B21" t="s">
-        <v>2177</v>
+        <v>3280</v>
       </c>
       <c r="C21" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D21" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2031</v>
+        <v>3136</v>
       </c>
       <c r="B22" t="s">
-        <v>2178</v>
+        <v>3281</v>
       </c>
       <c r="C22" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D22" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2032</v>
+        <v>3137</v>
       </c>
       <c r="B23" t="s">
-        <v>2179</v>
+        <v>3282</v>
       </c>
       <c r="C23" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D23" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2033</v>
+        <v>3138</v>
       </c>
       <c r="B24" t="s">
-        <v>2180</v>
+        <v>3283</v>
       </c>
       <c r="C24" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D24" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2034</v>
+        <v>3139</v>
       </c>
       <c r="B25" t="s">
-        <v>2181</v>
+        <v>3284</v>
       </c>
       <c r="C25" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D25" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2035</v>
+        <v>3140</v>
       </c>
       <c r="B26" t="s">
-        <v>2182</v>
+        <v>3285</v>
       </c>
       <c r="C26" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D26" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2036</v>
+        <v>3141</v>
       </c>
       <c r="B27" t="s">
-        <v>2183</v>
+        <v>3286</v>
       </c>
       <c r="C27" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D27" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2037</v>
+        <v>3142</v>
       </c>
       <c r="B28" t="s">
-        <v>2184</v>
+        <v>3287</v>
       </c>
       <c r="C28" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D28" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2038</v>
+        <v>3143</v>
       </c>
       <c r="B29" t="s">
-        <v>2185</v>
+        <v>3288</v>
       </c>
       <c r="C29" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D29" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2039</v>
+        <v>3144</v>
       </c>
       <c r="B30" t="s">
-        <v>2186</v>
+        <v>3289</v>
       </c>
       <c r="C30" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D30" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2040</v>
+        <v>3145</v>
       </c>
       <c r="B31" t="s">
-        <v>2187</v>
+        <v>3290</v>
       </c>
       <c r="C31" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D31" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2041</v>
+        <v>3146</v>
       </c>
       <c r="B32" t="s">
-        <v>2188</v>
+        <v>3291</v>
       </c>
       <c r="C32" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D32" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2042</v>
+        <v>3147</v>
       </c>
       <c r="B33" t="s">
-        <v>2189</v>
+        <v>3292</v>
       </c>
       <c r="C33" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D33" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2043</v>
+        <v>3148</v>
       </c>
       <c r="B34" t="s">
-        <v>2190</v>
+        <v>3293</v>
       </c>
       <c r="C34" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D34" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2044</v>
+        <v>3149</v>
       </c>
       <c r="B35" t="s">
-        <v>2191</v>
+        <v>3294</v>
       </c>
       <c r="C35" t="s">
-        <v>2303</v>
+        <v>3404</v>
       </c>
       <c r="D35" t="s">
-        <v>2356</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2045</v>
+        <v>3150</v>
       </c>
       <c r="B36" t="s">
-        <v>2192</v>
+        <v>3295</v>
       </c>
       <c r="C36" t="s">
-        <v>2304</v>
+        <v>3405</v>
       </c>
       <c r="D36" t="s">
-        <v>2357</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2046</v>
+        <v>3151</v>
       </c>
       <c r="B37" t="s">
-        <v>2193</v>
+        <v>3296</v>
       </c>
       <c r="C37" t="s">
-        <v>2304</v>
+        <v>3405</v>
       </c>
       <c r="D37" t="s">
-        <v>2358</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2047</v>
+        <v>3152</v>
       </c>
       <c r="B38" t="s">
-        <v>2194</v>
+        <v>3297</v>
       </c>
       <c r="C38" t="s">
-        <v>2305</v>
+        <v>3406</v>
       </c>
       <c r="D38" t="s">
-        <v>2359</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2048</v>
+        <v>3153</v>
       </c>
       <c r="B39" t="s">
-        <v>2195</v>
+        <v>3298</v>
       </c>
       <c r="C39" t="s">
-        <v>2306</v>
+        <v>3407</v>
       </c>
       <c r="D39" t="s">
-        <v>2360</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2049</v>
+        <v>3154</v>
       </c>
       <c r="B40" t="s">
-        <v>2196</v>
+        <v>3299</v>
       </c>
       <c r="C40" t="s">
-        <v>2306</v>
+        <v>3407</v>
       </c>
       <c r="D40" t="s">
-        <v>2361</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2050</v>
+        <v>3155</v>
       </c>
       <c r="B41" t="s">
-        <v>2197</v>
+        <v>3300</v>
       </c>
       <c r="C41" t="s">
-        <v>2307</v>
+        <v>3408</v>
       </c>
       <c r="D41" t="s">
-        <v>2362</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2051</v>
+        <v>3156</v>
       </c>
       <c r="B42" t="s">
-        <v>2198</v>
+        <v>3301</v>
       </c>
       <c r="C42" t="s">
-        <v>2307</v>
+        <v>3408</v>
       </c>
       <c r="D42" t="s">
-        <v>2363</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2052</v>
+        <v>3157</v>
       </c>
       <c r="B43" t="s">
-        <v>2199</v>
+        <v>3302</v>
       </c>
       <c r="C43" t="s">
-        <v>2308</v>
+        <v>3409</v>
       </c>
       <c r="D43" t="s">
-        <v>2364</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2053</v>
+        <v>3158</v>
       </c>
       <c r="B44" t="s">
-        <v>2200</v>
+        <v>3303</v>
       </c>
       <c r="C44" t="s">
-        <v>2308</v>
+        <v>3409</v>
       </c>
       <c r="D44" t="s">
-        <v>2365</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2054</v>
+        <v>3159</v>
       </c>
       <c r="B45" t="s">
-        <v>2201</v>
+        <v>3304</v>
       </c>
       <c r="C45" t="s">
-        <v>2308</v>
+        <v>3409</v>
       </c>
       <c r="D45" t="s">
-        <v>2366</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2055</v>
+        <v>3160</v>
       </c>
       <c r="B46" t="s">
-        <v>2202</v>
+        <v>3305</v>
       </c>
       <c r="C46" t="s">
-        <v>2308</v>
+        <v>3409</v>
       </c>
       <c r="D46" t="s">
-        <v>2367</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2056</v>
+        <v>3161</v>
       </c>
       <c r="B47" t="s">
-        <v>2203</v>
+        <v>3306</v>
       </c>
       <c r="C47" t="s">
-        <v>2308</v>
+        <v>3409</v>
       </c>
       <c r="D47" t="s">
-        <v>2368</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2057</v>
+        <v>3162</v>
       </c>
       <c r="B48" t="s">
-        <v>2204</v>
+        <v>3307</v>
       </c>
       <c r="C48" t="s">
-        <v>2309</v>
+        <v>3410</v>
       </c>
       <c r="D48" t="s">
-        <v>2369</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2058</v>
+        <v>3163</v>
       </c>
       <c r="B49" t="s">
-        <v>2205</v>
+        <v>3308</v>
       </c>
       <c r="C49" t="s">
-        <v>2309</v>
+        <v>3410</v>
       </c>
       <c r="D49" t="s">
-        <v>2370</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2059</v>
+        <v>3164</v>
       </c>
       <c r="B50" t="s">
-        <v>2206</v>
+        <v>3309</v>
       </c>
       <c r="C50" t="s">
-        <v>2309</v>
+        <v>3410</v>
       </c>
       <c r="D50" t="s">
-        <v>2371</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2060</v>
+        <v>3165</v>
       </c>
       <c r="B51" t="s">
-        <v>2207</v>
+        <v>3310</v>
       </c>
       <c r="C51" t="s">
-        <v>2309</v>
+        <v>3410</v>
       </c>
       <c r="D51" t="s">
-        <v>2372</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2061</v>
+        <v>3166</v>
       </c>
       <c r="B52" t="s">
-        <v>2208</v>
+        <v>3311</v>
       </c>
       <c r="C52" t="s">
-        <v>2309</v>
+        <v>3410</v>
       </c>
       <c r="D52" t="s">
-        <v>2373</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2062</v>
+        <v>3167</v>
       </c>
       <c r="B53" t="s">
-        <v>2209</v>
+        <v>3312</v>
       </c>
       <c r="C53" t="s">
-        <v>2309</v>
+        <v>3410</v>
       </c>
       <c r="D53" t="s">
-        <v>2374</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2063</v>
+        <v>3168</v>
       </c>
       <c r="B54" t="s">
-        <v>2210</v>
+        <v>3313</v>
       </c>
       <c r="C54" t="s">
-        <v>2310</v>
+        <v>3411</v>
       </c>
       <c r="D54" t="s">
-        <v>2375</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2064</v>
+        <v>3169</v>
       </c>
       <c r="B55" t="s">
-        <v>2211</v>
+        <v>3314</v>
       </c>
       <c r="C55" t="s">
-        <v>2311</v>
+        <v>3412</v>
       </c>
       <c r="D55" t="s">
-        <v>2376</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2065</v>
+        <v>3170</v>
       </c>
       <c r="B56" t="s">
-        <v>2212</v>
+        <v>3315</v>
       </c>
       <c r="C56" t="s">
-        <v>2311</v>
+        <v>3412</v>
       </c>
       <c r="D56" t="s">
-        <v>2377</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2066</v>
+        <v>3171</v>
       </c>
       <c r="B57" t="s">
-        <v>2213</v>
+        <v>3316</v>
       </c>
       <c r="C57" t="s">
-        <v>2312</v>
+        <v>3413</v>
       </c>
       <c r="D57" t="s">
-        <v>2378</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2067</v>
+        <v>3172</v>
       </c>
       <c r="B58" t="s">
-        <v>2214</v>
+        <v>3317</v>
       </c>
       <c r="C58" t="s">
-        <v>2312</v>
+        <v>3413</v>
       </c>
       <c r="D58" t="s">
-        <v>2379</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2068</v>
+        <v>3173</v>
       </c>
       <c r="B59" t="s">
-        <v>2215</v>
+        <v>3318</v>
       </c>
       <c r="C59" t="s">
-        <v>2313</v>
+        <v>3414</v>
       </c>
       <c r="D59" t="s">
-        <v>2380</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2069</v>
+        <v>3174</v>
       </c>
       <c r="B60" t="s">
-        <v>2216</v>
+        <v>3319</v>
       </c>
       <c r="C60" t="s">
-        <v>2314</v>
+        <v>3415</v>
       </c>
       <c r="D60" t="s">
-        <v>2381</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2070</v>
+        <v>3175</v>
       </c>
       <c r="B61" t="s">
-        <v>2217</v>
+        <v>3320</v>
       </c>
       <c r="C61" t="s">
-        <v>2314</v>
+        <v>3415</v>
       </c>
       <c r="D61" t="s">
-        <v>2381</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2071</v>
+        <v>3176</v>
       </c>
       <c r="B62" t="s">
-        <v>2218</v>
+        <v>3321</v>
       </c>
       <c r="C62" t="s">
-        <v>2315</v>
+        <v>3416</v>
       </c>
       <c r="D62" t="s">
-        <v>2382</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2072</v>
+        <v>3177</v>
       </c>
       <c r="B63" t="s">
-        <v>2219</v>
+        <v>3322</v>
       </c>
       <c r="C63" t="s">
-        <v>2316</v>
+        <v>3417</v>
       </c>
       <c r="D63" t="s">
-        <v>2383</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2073</v>
+        <v>3178</v>
       </c>
       <c r="B64" t="s">
-        <v>2220</v>
+        <v>3323</v>
       </c>
       <c r="C64" t="s">
-        <v>2316</v>
+        <v>3417</v>
       </c>
       <c r="D64" t="s">
-        <v>2383</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2074</v>
+        <v>3179</v>
       </c>
       <c r="B65" t="s">
-        <v>2221</v>
+        <v>3324</v>
       </c>
       <c r="C65" t="s">
-        <v>2317</v>
+        <v>3418</v>
       </c>
       <c r="D65" t="s">
-        <v>2384</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2075</v>
+        <v>3180</v>
       </c>
       <c r="B66" t="s">
-        <v>2222</v>
+        <v>3325</v>
       </c>
       <c r="C66" t="s">
-        <v>2318</v>
+        <v>3418</v>
       </c>
       <c r="D66" t="s">
-        <v>2385</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2076</v>
+        <v>3181</v>
       </c>
       <c r="B67" t="s">
-        <v>2223</v>
+        <v>3326</v>
       </c>
       <c r="C67" t="s">
-        <v>2318</v>
+        <v>3419</v>
       </c>
       <c r="D67" t="s">
-        <v>2386</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2077</v>
+        <v>3182</v>
       </c>
       <c r="B68" t="s">
-        <v>2223</v>
+        <v>3327</v>
       </c>
       <c r="C68" t="s">
-        <v>2318</v>
+        <v>3419</v>
       </c>
       <c r="D68" t="s">
-        <v>2387</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2078</v>
+        <v>3183</v>
       </c>
       <c r="B69" t="s">
-        <v>2224</v>
+        <v>3327</v>
       </c>
       <c r="C69" t="s">
-        <v>2319</v>
+        <v>3419</v>
       </c>
       <c r="D69" t="s">
-        <v>2388</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2079</v>
+        <v>3184</v>
       </c>
       <c r="B70" t="s">
-        <v>2225</v>
+        <v>3328</v>
       </c>
       <c r="C70" t="s">
-        <v>2320</v>
+        <v>3420</v>
       </c>
       <c r="D70" t="s">
-        <v>2389</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2080</v>
+        <v>3185</v>
       </c>
       <c r="B71" t="s">
-        <v>2226</v>
+        <v>3329</v>
       </c>
       <c r="C71" t="s">
-        <v>2320</v>
+        <v>3421</v>
       </c>
       <c r="D71" t="s">
-        <v>2390</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2081</v>
+        <v>3186</v>
       </c>
       <c r="B72" t="s">
-        <v>2227</v>
+        <v>3330</v>
       </c>
       <c r="C72" t="s">
-        <v>2320</v>
+        <v>3421</v>
       </c>
       <c r="D72" t="s">
-        <v>2390</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2082</v>
+        <v>3187</v>
       </c>
       <c r="B73" t="s">
-        <v>2228</v>
+        <v>3331</v>
       </c>
       <c r="C73" t="s">
-        <v>2321</v>
+        <v>3421</v>
       </c>
       <c r="D73" t="s">
-        <v>2391</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2083</v>
+        <v>3188</v>
       </c>
       <c r="B74" t="s">
-        <v>2229</v>
+        <v>3332</v>
       </c>
       <c r="C74" t="s">
-        <v>2322</v>
+        <v>3422</v>
       </c>
       <c r="D74" t="s">
-        <v>2392</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2084</v>
+        <v>3189</v>
       </c>
       <c r="B75" t="s">
-        <v>2230</v>
+        <v>3333</v>
       </c>
       <c r="C75" t="s">
-        <v>2322</v>
+        <v>3423</v>
       </c>
       <c r="D75" t="s">
-        <v>2393</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2085</v>
+        <v>3190</v>
       </c>
       <c r="B76" t="s">
-        <v>2231</v>
+        <v>3334</v>
       </c>
       <c r="C76" t="s">
-        <v>2322</v>
+        <v>3423</v>
       </c>
       <c r="D76" t="s">
-        <v>2394</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2086</v>
+        <v>3191</v>
       </c>
       <c r="B77" t="s">
-        <v>2232</v>
+        <v>3335</v>
       </c>
       <c r="C77" t="s">
-        <v>2322</v>
+        <v>3423</v>
       </c>
       <c r="D77" t="s">
-        <v>2395</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2087</v>
+        <v>3192</v>
       </c>
       <c r="B78" t="s">
-        <v>2233</v>
+        <v>3336</v>
       </c>
       <c r="C78" t="s">
-        <v>2322</v>
+        <v>3423</v>
       </c>
       <c r="D78" t="s">
-        <v>2396</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2088</v>
+        <v>3193</v>
       </c>
       <c r="B79" t="s">
-        <v>2234</v>
+        <v>3337</v>
       </c>
       <c r="C79" t="s">
-        <v>2323</v>
+        <v>3423</v>
       </c>
       <c r="D79" t="s">
-        <v>2397</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2089</v>
+        <v>3194</v>
       </c>
       <c r="B80" t="s">
-        <v>2235</v>
+        <v>3338</v>
       </c>
       <c r="C80" t="s">
-        <v>2323</v>
+        <v>3424</v>
       </c>
       <c r="D80" t="s">
-        <v>2398</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2090</v>
+        <v>3195</v>
       </c>
       <c r="B81" t="s">
-        <v>2236</v>
+        <v>3339</v>
       </c>
       <c r="C81" t="s">
-        <v>2324</v>
+        <v>3424</v>
       </c>
       <c r="D81" t="s">
-        <v>2399</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2091</v>
+        <v>3196</v>
       </c>
       <c r="B82" t="s">
-        <v>2237</v>
+        <v>3340</v>
       </c>
       <c r="C82" t="s">
-        <v>2325</v>
+        <v>3425</v>
       </c>
       <c r="D82" t="s">
-        <v>2400</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2092</v>
+        <v>3197</v>
       </c>
       <c r="B83" t="s">
-        <v>2238</v>
+        <v>3341</v>
       </c>
       <c r="C83" t="s">
-        <v>2326</v>
+        <v>3426</v>
       </c>
       <c r="D83" t="s">
-        <v>2401</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2093</v>
+        <v>3198</v>
       </c>
       <c r="B84" t="s">
-        <v>2239</v>
+        <v>3342</v>
       </c>
       <c r="C84" t="s">
-        <v>2327</v>
+        <v>3427</v>
       </c>
       <c r="D84" t="s">
-        <v>2402</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2094</v>
+        <v>3199</v>
       </c>
       <c r="B85" t="s">
-        <v>2240</v>
+        <v>3343</v>
       </c>
       <c r="C85" t="s">
-        <v>2327</v>
+        <v>3428</v>
       </c>
       <c r="D85" t="s">
-        <v>2403</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2095</v>
+        <v>3200</v>
       </c>
       <c r="B86" t="s">
-        <v>2241</v>
+        <v>3344</v>
       </c>
       <c r="C86" t="s">
-        <v>2328</v>
+        <v>3428</v>
       </c>
       <c r="D86" t="s">
-        <v>2404</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2096</v>
+        <v>3201</v>
       </c>
       <c r="B87" t="s">
-        <v>2242</v>
+        <v>3345</v>
       </c>
       <c r="C87" t="s">
-        <v>2329</v>
+        <v>3429</v>
       </c>
       <c r="D87" t="s">
-        <v>2405</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2097</v>
+        <v>3202</v>
       </c>
       <c r="B88" t="s">
-        <v>2243</v>
+        <v>3346</v>
       </c>
       <c r="C88" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D88" t="s">
-        <v>2406</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2098</v>
+        <v>3203</v>
       </c>
       <c r="B89" t="s">
-        <v>2244</v>
+        <v>3347</v>
       </c>
       <c r="C89" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D89" t="s">
-        <v>2407</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2099</v>
+        <v>3204</v>
       </c>
       <c r="B90" t="s">
-        <v>2245</v>
+        <v>3348</v>
       </c>
       <c r="C90" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D90" t="s">
-        <v>2408</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2100</v>
+        <v>3205</v>
       </c>
       <c r="B91" t="s">
-        <v>2246</v>
+        <v>3349</v>
       </c>
       <c r="C91" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D91" t="s">
-        <v>2409</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2101</v>
+        <v>3206</v>
       </c>
       <c r="B92" t="s">
-        <v>2247</v>
+        <v>3350</v>
       </c>
       <c r="C92" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D92" t="s">
-        <v>2410</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2102</v>
+        <v>3207</v>
       </c>
       <c r="B93" t="s">
-        <v>2248</v>
+        <v>3351</v>
       </c>
       <c r="C93" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D93" t="s">
-        <v>2411</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2103</v>
+        <v>3208</v>
       </c>
       <c r="B94" t="s">
-        <v>2249</v>
+        <v>3352</v>
       </c>
       <c r="C94" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D94" t="s">
-        <v>2412</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2104</v>
+        <v>3209</v>
       </c>
       <c r="B95" t="s">
-        <v>2250</v>
+        <v>3353</v>
       </c>
       <c r="C95" t="s">
-        <v>2329</v>
+        <v>3430</v>
       </c>
       <c r="D95" t="s">
-        <v>2413</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2105</v>
+        <v>3210</v>
       </c>
       <c r="B96" t="s">
-        <v>2251</v>
+        <v>3354</v>
       </c>
       <c r="C96" t="s">
-        <v>2330</v>
+        <v>3430</v>
       </c>
       <c r="D96" t="s">
-        <v>2414</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2106</v>
+        <v>3211</v>
       </c>
       <c r="B97" t="s">
-        <v>2252</v>
+        <v>3355</v>
       </c>
       <c r="C97" t="s">
-        <v>2330</v>
+        <v>3431</v>
       </c>
       <c r="D97" t="s">
-        <v>2415</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2107</v>
+        <v>3212</v>
       </c>
       <c r="B98" t="s">
-        <v>2253</v>
+        <v>3356</v>
       </c>
       <c r="C98" t="s">
-        <v>2331</v>
+        <v>3431</v>
       </c>
       <c r="D98" t="s">
-        <v>2416</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2108</v>
+        <v>3213</v>
       </c>
       <c r="B99" t="s">
-        <v>2254</v>
+        <v>3357</v>
       </c>
       <c r="C99" t="s">
-        <v>2332</v>
+        <v>3432</v>
       </c>
       <c r="D99" t="s">
-        <v>2417</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2109</v>
+        <v>3214</v>
       </c>
       <c r="B100" t="s">
-        <v>2255</v>
+        <v>3358</v>
       </c>
       <c r="C100" t="s">
-        <v>2332</v>
+        <v>3433</v>
       </c>
       <c r="D100" t="s">
-        <v>2418</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2110</v>
+        <v>3215</v>
       </c>
       <c r="B101" t="s">
-        <v>2256</v>
+        <v>3359</v>
       </c>
       <c r="C101" t="s">
-        <v>2333</v>
+        <v>3433</v>
       </c>
       <c r="D101" t="s">
-        <v>2419</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2111</v>
+        <v>3216</v>
       </c>
       <c r="B102" t="s">
-        <v>2257</v>
+        <v>3360</v>
       </c>
       <c r="C102" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D102" t="s">
-        <v>2420</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2112</v>
+        <v>3217</v>
       </c>
       <c r="B103" t="s">
-        <v>2258</v>
+        <v>3361</v>
       </c>
       <c r="C103" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D103" t="s">
-        <v>2421</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2113</v>
+        <v>3218</v>
       </c>
       <c r="B104" t="s">
-        <v>2259</v>
+        <v>3362</v>
       </c>
       <c r="C104" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D104" t="s">
-        <v>2422</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>2114</v>
+        <v>3219</v>
       </c>
       <c r="B105" t="s">
-        <v>2260</v>
+        <v>3363</v>
       </c>
       <c r="C105" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D105" t="s">
-        <v>2423</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>2115</v>
+        <v>3220</v>
       </c>
       <c r="B106" t="s">
-        <v>2261</v>
+        <v>3364</v>
       </c>
       <c r="C106" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D106" t="s">
-        <v>2424</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>2116</v>
+        <v>3221</v>
       </c>
       <c r="B107" t="s">
-        <v>2262</v>
+        <v>3365</v>
       </c>
       <c r="C107" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D107" t="s">
-        <v>2425</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>2117</v>
+        <v>3222</v>
       </c>
       <c r="B108" t="s">
-        <v>2262</v>
+        <v>3366</v>
       </c>
       <c r="C108" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D108" t="s">
-        <v>2426</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>2118</v>
+        <v>3223</v>
       </c>
       <c r="B109" t="s">
-        <v>2263</v>
+        <v>3366</v>
       </c>
       <c r="C109" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D109" t="s">
-        <v>2427</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>2119</v>
+        <v>3224</v>
       </c>
       <c r="B110" t="s">
-        <v>2263</v>
+        <v>3367</v>
       </c>
       <c r="C110" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D110" t="s">
-        <v>2428</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>2120</v>
+        <v>3225</v>
       </c>
       <c r="B111" t="s">
-        <v>2264</v>
+        <v>3367</v>
       </c>
       <c r="C111" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D111" t="s">
-        <v>2429</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>2121</v>
+        <v>3226</v>
       </c>
       <c r="B112" t="s">
-        <v>2264</v>
+        <v>3368</v>
       </c>
       <c r="C112" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D112" t="s">
-        <v>2430</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>2122</v>
+        <v>3227</v>
       </c>
       <c r="B113" t="s">
-        <v>2265</v>
+        <v>3368</v>
       </c>
       <c r="C113" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D113" t="s">
-        <v>2431</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>2123</v>
+        <v>3228</v>
       </c>
       <c r="B114" t="s">
-        <v>2265</v>
+        <v>3369</v>
       </c>
       <c r="C114" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D114" t="s">
-        <v>2432</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>2124</v>
+        <v>3229</v>
       </c>
       <c r="B115" t="s">
-        <v>2266</v>
+        <v>3369</v>
       </c>
       <c r="C115" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D115" t="s">
-        <v>2433</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>2125</v>
+        <v>3230</v>
       </c>
       <c r="B116" t="s">
-        <v>2267</v>
+        <v>3370</v>
       </c>
       <c r="C116" t="s">
-        <v>2333</v>
+        <v>3434</v>
       </c>
       <c r="D116" t="s">
-        <v>2434</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>2126</v>
+        <v>3231</v>
       </c>
       <c r="B117" t="s">
-        <v>2268</v>
+        <v>3371</v>
       </c>
       <c r="C117" t="s">
-        <v>2334</v>
+        <v>3434</v>
       </c>
       <c r="D117" t="s">
-        <v>2435</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>2127</v>
+        <v>3232</v>
       </c>
       <c r="B118" t="s">
-        <v>2269</v>
+        <v>3372</v>
       </c>
       <c r="C118" t="s">
-        <v>2334</v>
+        <v>3435</v>
       </c>
       <c r="D118" t="s">
-        <v>2436</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>2128</v>
+        <v>3233</v>
       </c>
       <c r="B119" t="s">
-        <v>2270</v>
+        <v>3373</v>
       </c>
       <c r="C119" t="s">
-        <v>2334</v>
+        <v>3436</v>
       </c>
       <c r="D119" t="s">
-        <v>2437</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>2129</v>
+        <v>3234</v>
       </c>
       <c r="B120" t="s">
-        <v>2271</v>
+        <v>3374</v>
       </c>
       <c r="C120" t="s">
-        <v>2334</v>
+        <v>3436</v>
       </c>
       <c r="D120" t="s">
-        <v>2438</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>2130</v>
+        <v>3235</v>
       </c>
       <c r="B121" t="s">
-        <v>2272</v>
+        <v>3375</v>
       </c>
       <c r="C121" t="s">
-        <v>2335</v>
+        <v>3437</v>
       </c>
       <c r="D121" t="s">
-        <v>2439</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>2131</v>
+        <v>3236</v>
       </c>
       <c r="B122" t="s">
-        <v>2273</v>
+        <v>3376</v>
       </c>
       <c r="C122" t="s">
-        <v>2335</v>
+        <v>3438</v>
       </c>
       <c r="D122" t="s">
-        <v>2440</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>2132</v>
+        <v>3237</v>
       </c>
       <c r="B123" t="s">
-        <v>2274</v>
+        <v>3377</v>
       </c>
       <c r="C123" t="s">
-        <v>2336</v>
+        <v>3438</v>
       </c>
       <c r="D123" t="s">
-        <v>2441</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>2133</v>
+        <v>3238</v>
       </c>
       <c r="B124" t="s">
-        <v>2275</v>
+        <v>3378</v>
       </c>
       <c r="C124" t="s">
-        <v>2337</v>
+        <v>3438</v>
       </c>
       <c r="D124" t="s">
-        <v>2442</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>2134</v>
+        <v>3239</v>
       </c>
       <c r="B125" t="s">
-        <v>2276</v>
+        <v>3379</v>
       </c>
       <c r="C125" t="s">
-        <v>2337</v>
+        <v>3438</v>
       </c>
       <c r="D125" t="s">
-        <v>2443</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>2135</v>
+        <v>3240</v>
       </c>
       <c r="B126" t="s">
-        <v>2277</v>
+        <v>3380</v>
       </c>
       <c r="C126" t="s">
-        <v>2337</v>
+        <v>3438</v>
       </c>
       <c r="D126" t="s">
-        <v>2444</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>2136</v>
+        <v>3241</v>
       </c>
       <c r="B127" t="s">
-        <v>2278</v>
+        <v>3381</v>
       </c>
       <c r="C127" t="s">
-        <v>2337</v>
+        <v>3438</v>
       </c>
       <c r="D127" t="s">
-        <v>2445</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>2137</v>
+        <v>3242</v>
       </c>
       <c r="B128" t="s">
-        <v>2279</v>
+        <v>3382</v>
       </c>
       <c r="C128" t="s">
-        <v>2337</v>
+        <v>3438</v>
       </c>
       <c r="D128" t="s">
-        <v>2446</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>2138</v>
+        <v>3243</v>
       </c>
       <c r="B129" t="s">
-        <v>2280</v>
+        <v>3383</v>
       </c>
       <c r="C129" t="s">
-        <v>2337</v>
+        <v>3439</v>
       </c>
       <c r="D129" t="s">
-        <v>2447</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>2139</v>
+        <v>3244</v>
       </c>
       <c r="B130" t="s">
-        <v>2281</v>
+        <v>3384</v>
       </c>
       <c r="C130" t="s">
-        <v>2337</v>
+        <v>3440</v>
       </c>
       <c r="D130" t="s">
-        <v>2448</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>2140</v>
+        <v>3245</v>
       </c>
       <c r="B131" t="s">
-        <v>2282</v>
+        <v>3385</v>
       </c>
       <c r="C131" t="s">
-        <v>2338</v>
+        <v>3441</v>
       </c>
       <c r="D131" t="s">
-        <v>2449</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>2141</v>
+        <v>3246</v>
       </c>
       <c r="B132" t="s">
-        <v>2283</v>
+        <v>3386</v>
       </c>
       <c r="C132" t="s">
-        <v>2339</v>
+        <v>3441</v>
       </c>
       <c r="D132" t="s">
-        <v>2450</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>2142</v>
+        <v>3247</v>
       </c>
       <c r="B133" t="s">
-        <v>2284</v>
+        <v>3387</v>
       </c>
       <c r="C133" t="s">
-        <v>2340</v>
+        <v>3441</v>
       </c>
       <c r="D133" t="s">
-        <v>2451</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>2143</v>
+        <v>3248</v>
       </c>
       <c r="B134" t="s">
-        <v>2285</v>
+        <v>3388</v>
       </c>
       <c r="C134" t="s">
-        <v>2340</v>
+        <v>3441</v>
       </c>
       <c r="D134" t="s">
-        <v>2452</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>2144</v>
+        <v>3249</v>
       </c>
       <c r="B135" t="s">
-        <v>2286</v>
+        <v>3389</v>
       </c>
       <c r="C135" t="s">
-        <v>2340</v>
+        <v>3441</v>
       </c>
       <c r="D135" t="s">
-        <v>2453</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>2145</v>
+        <v>3250</v>
       </c>
       <c r="B136" t="s">
-        <v>2287</v>
+        <v>3390</v>
       </c>
       <c r="C136" t="s">
-        <v>2340</v>
+        <v>3441</v>
       </c>
       <c r="D136" t="s">
-        <v>2454</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>2146</v>
+        <v>3251</v>
       </c>
       <c r="B137" t="s">
-        <v>2288</v>
+        <v>3391</v>
       </c>
       <c r="C137" t="s">
-        <v>2340</v>
+        <v>3441</v>
       </c>
       <c r="D137" t="s">
-        <v>2455</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>2147</v>
+        <v>3252</v>
       </c>
       <c r="B138" t="s">
-        <v>2289</v>
+        <v>3392</v>
       </c>
       <c r="C138" t="s">
-        <v>2340</v>
+        <v>3441</v>
       </c>
       <c r="D138" t="s">
-        <v>2456</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>2148</v>
+        <v>3253</v>
       </c>
       <c r="B139" t="s">
-        <v>2290</v>
+        <v>3393</v>
       </c>
       <c r="C139" t="s">
-        <v>2340</v>
+        <v>3442</v>
       </c>
       <c r="D139" t="s">
-        <v>2457</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>2149</v>
+        <v>3254</v>
       </c>
       <c r="B140" t="s">
-        <v>2291</v>
+        <v>3394</v>
       </c>
       <c r="C140" t="s">
-        <v>2340</v>
+        <v>3443</v>
       </c>
       <c r="D140" t="s">
-        <v>2458</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>2150</v>
+        <v>3255</v>
       </c>
       <c r="B141" t="s">
-        <v>2292</v>
+        <v>3395</v>
       </c>
       <c r="C141" t="s">
-        <v>2341</v>
+        <v>3443</v>
       </c>
       <c r="D141" t="s">
-        <v>2459</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>2151</v>
+        <v>3256</v>
       </c>
       <c r="B142" t="s">
-        <v>2293</v>
+        <v>3396</v>
       </c>
       <c r="C142" t="s">
-        <v>2342</v>
+        <v>3443</v>
       </c>
       <c r="D142" t="s">
-        <v>2460</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>2152</v>
+        <v>3257</v>
       </c>
       <c r="B143" t="s">
-        <v>2294</v>
+        <v>3397</v>
       </c>
       <c r="C143" t="s">
-        <v>2342</v>
+        <v>3443</v>
       </c>
       <c r="D143" t="s">
-        <v>2461</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>2153</v>
+        <v>3258</v>
       </c>
       <c r="B144" t="s">
-        <v>2295</v>
+        <v>3398</v>
       </c>
       <c r="C144" t="s">
-        <v>2342</v>
+        <v>3444</v>
       </c>
       <c r="D144" t="s">
-        <v>2462</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>2154</v>
+        <v>3259</v>
       </c>
       <c r="B145" t="s">
-        <v>2296</v>
+        <v>3399</v>
       </c>
       <c r="C145" t="s">
-        <v>2342</v>
+        <v>3445</v>
       </c>
       <c r="D145" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D146" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D147" t="s">
-        <v>2465</v>
+        <v>3564</v>
       </c>
     </row>
   </sheetData>
@@ -9830,475 +13099,475 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2466</v>
+        <v>3565</v>
       </c>
       <c r="B1" t="s">
-        <v>2482</v>
+        <v>3581</v>
       </c>
       <c r="C1" t="s">
-        <v>2524</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2467</v>
+        <v>3566</v>
       </c>
       <c r="B2" t="s">
-        <v>2483</v>
+        <v>3582</v>
       </c>
       <c r="C2" t="s">
-        <v>2525</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2467</v>
+        <v>3566</v>
       </c>
       <c r="B3" t="s">
-        <v>2484</v>
+        <v>3583</v>
       </c>
       <c r="C3" t="s">
-        <v>2526</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2467</v>
+        <v>3566</v>
       </c>
       <c r="B4" t="s">
-        <v>2485</v>
+        <v>3584</v>
       </c>
       <c r="C4" t="s">
-        <v>2527</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2467</v>
+        <v>3566</v>
       </c>
       <c r="B5" t="s">
-        <v>2486</v>
+        <v>3585</v>
       </c>
       <c r="C5" t="s">
-        <v>2528</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2468</v>
+        <v>3567</v>
       </c>
       <c r="B6" t="s">
-        <v>2487</v>
+        <v>3586</v>
       </c>
       <c r="C6" t="s">
-        <v>2529</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2468</v>
+        <v>3567</v>
       </c>
       <c r="B7" t="s">
-        <v>2488</v>
+        <v>3587</v>
       </c>
       <c r="C7" t="s">
-        <v>2530</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2469</v>
+        <v>3568</v>
       </c>
       <c r="B8" t="s">
-        <v>2489</v>
+        <v>3588</v>
       </c>
       <c r="C8" t="s">
-        <v>2531</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2469</v>
+        <v>3568</v>
       </c>
       <c r="B9" t="s">
-        <v>2490</v>
+        <v>3589</v>
       </c>
       <c r="C9" t="s">
-        <v>2532</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2469</v>
+        <v>3568</v>
       </c>
       <c r="B10" t="s">
-        <v>2491</v>
+        <v>3590</v>
       </c>
       <c r="C10" t="s">
-        <v>2533</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2470</v>
+        <v>3569</v>
       </c>
       <c r="B11" t="s">
-        <v>2492</v>
+        <v>3591</v>
       </c>
       <c r="C11" t="s">
-        <v>2534</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2470</v>
+        <v>3569</v>
       </c>
       <c r="B12" t="s">
-        <v>2493</v>
+        <v>3592</v>
       </c>
       <c r="C12" t="s">
-        <v>2535</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2470</v>
+        <v>3569</v>
       </c>
       <c r="B13" t="s">
-        <v>2494</v>
+        <v>3593</v>
       </c>
       <c r="C13" t="s">
-        <v>2536</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2470</v>
+        <v>3569</v>
       </c>
       <c r="B14" t="s">
-        <v>2495</v>
+        <v>3594</v>
       </c>
       <c r="C14" t="s">
-        <v>2537</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2470</v>
+        <v>3569</v>
       </c>
       <c r="B15" t="s">
-        <v>2496</v>
+        <v>3595</v>
       </c>
       <c r="C15" t="s">
-        <v>2538</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2470</v>
+        <v>3569</v>
       </c>
       <c r="B16" t="s">
-        <v>2497</v>
+        <v>3596</v>
       </c>
       <c r="C16" t="s">
-        <v>2539</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2471</v>
+        <v>3570</v>
       </c>
       <c r="B17" t="s">
-        <v>2498</v>
+        <v>3597</v>
       </c>
       <c r="C17" t="s">
-        <v>2540</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2471</v>
+        <v>3570</v>
       </c>
       <c r="B18" t="s">
-        <v>2499</v>
+        <v>3598</v>
       </c>
       <c r="C18" t="s">
-        <v>2541</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2472</v>
+        <v>3571</v>
       </c>
       <c r="B19" t="s">
-        <v>2500</v>
+        <v>3599</v>
       </c>
       <c r="C19" t="s">
-        <v>2542</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2472</v>
+        <v>3571</v>
       </c>
       <c r="B20" t="s">
-        <v>2501</v>
+        <v>3600</v>
       </c>
       <c r="C20" t="s">
-        <v>2543</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2473</v>
+        <v>3572</v>
       </c>
       <c r="B21" t="s">
-        <v>2502</v>
+        <v>3601</v>
       </c>
       <c r="C21" t="s">
-        <v>2544</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2473</v>
+        <v>3572</v>
       </c>
       <c r="B22" t="s">
-        <v>2503</v>
+        <v>3602</v>
       </c>
       <c r="C22" t="s">
-        <v>2545</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2474</v>
+        <v>3573</v>
       </c>
       <c r="B23" t="s">
-        <v>2503</v>
+        <v>3602</v>
       </c>
       <c r="C23" t="s">
-        <v>2546</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2474</v>
+        <v>3573</v>
       </c>
       <c r="B24" t="s">
-        <v>2504</v>
+        <v>3603</v>
       </c>
       <c r="C24" t="s">
-        <v>2547</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2474</v>
+        <v>3573</v>
       </c>
       <c r="B25" t="s">
-        <v>2505</v>
+        <v>3604</v>
       </c>
       <c r="C25" t="s">
-        <v>2548</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2475</v>
+        <v>3574</v>
       </c>
       <c r="B26" t="s">
-        <v>2506</v>
+        <v>3605</v>
       </c>
       <c r="C26" t="s">
-        <v>2549</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2475</v>
+        <v>3574</v>
       </c>
       <c r="B27" t="s">
-        <v>2507</v>
+        <v>3606</v>
       </c>
       <c r="C27" t="s">
-        <v>2550</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2475</v>
+        <v>3574</v>
       </c>
       <c r="B28" t="s">
-        <v>2508</v>
+        <v>3607</v>
       </c>
       <c r="C28" t="s">
-        <v>2551</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2476</v>
+        <v>3575</v>
       </c>
       <c r="B29" t="s">
-        <v>2509</v>
+        <v>3608</v>
       </c>
       <c r="C29" t="s">
-        <v>2552</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2476</v>
+        <v>3575</v>
       </c>
       <c r="B30" t="s">
-        <v>2510</v>
+        <v>3609</v>
       </c>
       <c r="C30" t="s">
-        <v>2553</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2477</v>
+        <v>3576</v>
       </c>
       <c r="B31" t="s">
-        <v>2511</v>
+        <v>3610</v>
       </c>
       <c r="C31" t="s">
-        <v>2554</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2477</v>
+        <v>3576</v>
       </c>
       <c r="B32" t="s">
-        <v>2512</v>
+        <v>3611</v>
       </c>
       <c r="C32" t="s">
-        <v>2555</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2478</v>
+        <v>3577</v>
       </c>
       <c r="B33" t="s">
-        <v>2513</v>
+        <v>3612</v>
       </c>
       <c r="C33" t="s">
-        <v>2556</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2478</v>
+        <v>3577</v>
       </c>
       <c r="B34" t="s">
-        <v>2514</v>
+        <v>3613</v>
       </c>
       <c r="C34" t="s">
-        <v>2557</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2479</v>
+        <v>3578</v>
       </c>
       <c r="B35" t="s">
-        <v>2515</v>
+        <v>3614</v>
       </c>
       <c r="C35" t="s">
-        <v>2558</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2479</v>
+        <v>3578</v>
       </c>
       <c r="B36" t="s">
-        <v>2516</v>
+        <v>3615</v>
       </c>
       <c r="C36" t="s">
-        <v>2559</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2480</v>
+        <v>3579</v>
       </c>
       <c r="B37" t="s">
-        <v>2517</v>
+        <v>3616</v>
       </c>
       <c r="C37" t="s">
-        <v>2560</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2480</v>
+        <v>3579</v>
       </c>
       <c r="B38" t="s">
-        <v>2518</v>
+        <v>3617</v>
       </c>
       <c r="C38" t="s">
-        <v>2561</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2480</v>
+        <v>3579</v>
       </c>
       <c r="B39" t="s">
-        <v>2519</v>
+        <v>3618</v>
       </c>
       <c r="C39" t="s">
-        <v>2562</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2480</v>
+        <v>3579</v>
       </c>
       <c r="B40" t="s">
-        <v>2520</v>
+        <v>3619</v>
       </c>
       <c r="C40" t="s">
-        <v>2563</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2480</v>
+        <v>3579</v>
       </c>
       <c r="B41" t="s">
-        <v>2521</v>
+        <v>3620</v>
       </c>
       <c r="C41" t="s">
-        <v>2564</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2481</v>
+        <v>3580</v>
       </c>
       <c r="B42" t="s">
-        <v>2522</v>
+        <v>3621</v>
       </c>
       <c r="C42" t="s">
-        <v>2565</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2481</v>
+        <v>3580</v>
       </c>
       <c r="B43" t="s">
-        <v>2523</v>
+        <v>3622</v>
       </c>
       <c r="C43" t="s">
-        <v>2566</v>
+        <v>3665</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5724" uniqueCount="3666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6433" uniqueCount="4217">
   <si>
     <t>name</t>
   </si>
@@ -8819,6 +8819,1659 @@
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -11060,2032 +12713,2032 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3115</v>
+        <v>3666</v>
       </c>
       <c r="B1" t="s">
-        <v>3260</v>
+        <v>3811</v>
       </c>
       <c r="C1" t="s">
-        <v>3400</v>
+        <v>3951</v>
       </c>
       <c r="D1" t="s">
-        <v>3446</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3116</v>
+        <v>3667</v>
       </c>
       <c r="B2" t="s">
-        <v>3261</v>
+        <v>3812</v>
       </c>
       <c r="C2" t="s">
-        <v>3401</v>
+        <v>3952</v>
       </c>
       <c r="D2" t="s">
-        <v>3447</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3117</v>
+        <v>3668</v>
       </c>
       <c r="B3" t="s">
-        <v>3262</v>
+        <v>3813</v>
       </c>
       <c r="C3" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D3" t="s">
-        <v>3448</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3118</v>
+        <v>3669</v>
       </c>
       <c r="B4" t="s">
-        <v>3263</v>
+        <v>3814</v>
       </c>
       <c r="C4" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D4" t="s">
-        <v>3449</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3119</v>
+        <v>3670</v>
       </c>
       <c r="B5" t="s">
-        <v>3264</v>
+        <v>3815</v>
       </c>
       <c r="C5" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D5" t="s">
-        <v>3450</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3120</v>
+        <v>3671</v>
       </c>
       <c r="B6" t="s">
-        <v>3265</v>
+        <v>3816</v>
       </c>
       <c r="C6" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D6" t="s">
-        <v>3451</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3121</v>
+        <v>3672</v>
       </c>
       <c r="B7" t="s">
-        <v>3266</v>
+        <v>3817</v>
       </c>
       <c r="C7" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D7" t="s">
-        <v>3452</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3122</v>
+        <v>3673</v>
       </c>
       <c r="B8" t="s">
-        <v>3267</v>
+        <v>3818</v>
       </c>
       <c r="C8" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D8" t="s">
-        <v>3453</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3123</v>
+        <v>3674</v>
       </c>
       <c r="B9" t="s">
-        <v>3268</v>
+        <v>3819</v>
       </c>
       <c r="C9" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D9" t="s">
-        <v>3454</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3124</v>
+        <v>3675</v>
       </c>
       <c r="B10" t="s">
-        <v>3269</v>
+        <v>3820</v>
       </c>
       <c r="C10" t="s">
-        <v>3402</v>
+        <v>3953</v>
       </c>
       <c r="D10" t="s">
-        <v>3455</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3125</v>
+        <v>3676</v>
       </c>
       <c r="B11" t="s">
-        <v>3270</v>
+        <v>3821</v>
       </c>
       <c r="C11" t="s">
-        <v>3403</v>
+        <v>3954</v>
       </c>
       <c r="D11" t="s">
-        <v>3456</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3126</v>
+        <v>3677</v>
       </c>
       <c r="B12" t="s">
-        <v>3271</v>
+        <v>3822</v>
       </c>
       <c r="C12" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D12" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3127</v>
+        <v>3678</v>
       </c>
       <c r="B13" t="s">
-        <v>3272</v>
+        <v>3823</v>
       </c>
       <c r="C13" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D13" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3128</v>
+        <v>3679</v>
       </c>
       <c r="B14" t="s">
-        <v>3273</v>
+        <v>3824</v>
       </c>
       <c r="C14" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D14" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3129</v>
+        <v>3680</v>
       </c>
       <c r="B15" t="s">
-        <v>3274</v>
+        <v>3825</v>
       </c>
       <c r="C15" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D15" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3130</v>
+        <v>3681</v>
       </c>
       <c r="B16" t="s">
-        <v>3275</v>
+        <v>3826</v>
       </c>
       <c r="C16" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D16" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3131</v>
+        <v>3682</v>
       </c>
       <c r="B17" t="s">
-        <v>3276</v>
+        <v>3827</v>
       </c>
       <c r="C17" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D17" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3132</v>
+        <v>3683</v>
       </c>
       <c r="B18" t="s">
-        <v>3277</v>
+        <v>3828</v>
       </c>
       <c r="C18" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D18" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3133</v>
+        <v>3684</v>
       </c>
       <c r="B19" t="s">
-        <v>3278</v>
+        <v>3829</v>
       </c>
       <c r="C19" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D19" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3134</v>
+        <v>3685</v>
       </c>
       <c r="B20" t="s">
-        <v>3279</v>
+        <v>3830</v>
       </c>
       <c r="C20" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D20" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3135</v>
+        <v>3686</v>
       </c>
       <c r="B21" t="s">
-        <v>3280</v>
+        <v>3831</v>
       </c>
       <c r="C21" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D21" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3136</v>
+        <v>3687</v>
       </c>
       <c r="B22" t="s">
-        <v>3281</v>
+        <v>3832</v>
       </c>
       <c r="C22" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D22" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3137</v>
+        <v>3688</v>
       </c>
       <c r="B23" t="s">
-        <v>3282</v>
+        <v>3833</v>
       </c>
       <c r="C23" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D23" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3138</v>
+        <v>3689</v>
       </c>
       <c r="B24" t="s">
-        <v>3283</v>
+        <v>3834</v>
       </c>
       <c r="C24" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D24" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3139</v>
+        <v>3690</v>
       </c>
       <c r="B25" t="s">
-        <v>3284</v>
+        <v>3835</v>
       </c>
       <c r="C25" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D25" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3140</v>
+        <v>3691</v>
       </c>
       <c r="B26" t="s">
-        <v>3285</v>
+        <v>3836</v>
       </c>
       <c r="C26" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D26" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3141</v>
+        <v>3692</v>
       </c>
       <c r="B27" t="s">
-        <v>3286</v>
+        <v>3837</v>
       </c>
       <c r="C27" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D27" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3142</v>
+        <v>3693</v>
       </c>
       <c r="B28" t="s">
-        <v>3287</v>
+        <v>3838</v>
       </c>
       <c r="C28" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D28" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3143</v>
+        <v>3694</v>
       </c>
       <c r="B29" t="s">
-        <v>3288</v>
+        <v>3839</v>
       </c>
       <c r="C29" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D29" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3144</v>
+        <v>3695</v>
       </c>
       <c r="B30" t="s">
-        <v>3289</v>
+        <v>3840</v>
       </c>
       <c r="C30" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D30" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3145</v>
+        <v>3696</v>
       </c>
       <c r="B31" t="s">
-        <v>3290</v>
+        <v>3841</v>
       </c>
       <c r="C31" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D31" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3146</v>
+        <v>3697</v>
       </c>
       <c r="B32" t="s">
-        <v>3291</v>
+        <v>3842</v>
       </c>
       <c r="C32" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D32" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3147</v>
+        <v>3698</v>
       </c>
       <c r="B33" t="s">
-        <v>3292</v>
+        <v>3843</v>
       </c>
       <c r="C33" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D33" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3148</v>
+        <v>3699</v>
       </c>
       <c r="B34" t="s">
-        <v>3293</v>
+        <v>3844</v>
       </c>
       <c r="C34" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D34" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3149</v>
+        <v>3700</v>
       </c>
       <c r="B35" t="s">
-        <v>3294</v>
+        <v>3845</v>
       </c>
       <c r="C35" t="s">
-        <v>3404</v>
+        <v>3955</v>
       </c>
       <c r="D35" t="s">
-        <v>3457</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3150</v>
+        <v>3701</v>
       </c>
       <c r="B36" t="s">
-        <v>3295</v>
+        <v>3846</v>
       </c>
       <c r="C36" t="s">
-        <v>3405</v>
+        <v>3956</v>
       </c>
       <c r="D36" t="s">
-        <v>3458</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3151</v>
+        <v>3702</v>
       </c>
       <c r="B37" t="s">
-        <v>3296</v>
+        <v>3847</v>
       </c>
       <c r="C37" t="s">
-        <v>3405</v>
+        <v>3956</v>
       </c>
       <c r="D37" t="s">
-        <v>3459</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3152</v>
+        <v>3703</v>
       </c>
       <c r="B38" t="s">
-        <v>3297</v>
+        <v>3848</v>
       </c>
       <c r="C38" t="s">
-        <v>3406</v>
+        <v>3957</v>
       </c>
       <c r="D38" t="s">
-        <v>3460</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3153</v>
+        <v>3704</v>
       </c>
       <c r="B39" t="s">
-        <v>3298</v>
+        <v>3849</v>
       </c>
       <c r="C39" t="s">
-        <v>3407</v>
+        <v>3958</v>
       </c>
       <c r="D39" t="s">
-        <v>3461</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3154</v>
+        <v>3705</v>
       </c>
       <c r="B40" t="s">
-        <v>3299</v>
+        <v>3850</v>
       </c>
       <c r="C40" t="s">
-        <v>3407</v>
+        <v>3958</v>
       </c>
       <c r="D40" t="s">
-        <v>3462</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3155</v>
+        <v>3706</v>
       </c>
       <c r="B41" t="s">
-        <v>3300</v>
+        <v>3851</v>
       </c>
       <c r="C41" t="s">
-        <v>3408</v>
+        <v>3959</v>
       </c>
       <c r="D41" t="s">
-        <v>3463</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3156</v>
+        <v>3707</v>
       </c>
       <c r="B42" t="s">
-        <v>3301</v>
+        <v>3852</v>
       </c>
       <c r="C42" t="s">
-        <v>3408</v>
+        <v>3959</v>
       </c>
       <c r="D42" t="s">
-        <v>3464</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3157</v>
+        <v>3708</v>
       </c>
       <c r="B43" t="s">
-        <v>3302</v>
+        <v>3853</v>
       </c>
       <c r="C43" t="s">
-        <v>3409</v>
+        <v>3960</v>
       </c>
       <c r="D43" t="s">
-        <v>3465</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3158</v>
+        <v>3709</v>
       </c>
       <c r="B44" t="s">
-        <v>3303</v>
+        <v>3854</v>
       </c>
       <c r="C44" t="s">
-        <v>3409</v>
+        <v>3960</v>
       </c>
       <c r="D44" t="s">
-        <v>3466</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>3159</v>
+        <v>3710</v>
       </c>
       <c r="B45" t="s">
-        <v>3304</v>
+        <v>3855</v>
       </c>
       <c r="C45" t="s">
-        <v>3409</v>
+        <v>3960</v>
       </c>
       <c r="D45" t="s">
-        <v>3467</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3160</v>
+        <v>3711</v>
       </c>
       <c r="B46" t="s">
-        <v>3305</v>
+        <v>3856</v>
       </c>
       <c r="C46" t="s">
-        <v>3409</v>
+        <v>3960</v>
       </c>
       <c r="D46" t="s">
-        <v>3468</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3161</v>
+        <v>3712</v>
       </c>
       <c r="B47" t="s">
-        <v>3306</v>
+        <v>3857</v>
       </c>
       <c r="C47" t="s">
-        <v>3409</v>
+        <v>3960</v>
       </c>
       <c r="D47" t="s">
-        <v>3469</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3162</v>
+        <v>3713</v>
       </c>
       <c r="B48" t="s">
-        <v>3307</v>
+        <v>3858</v>
       </c>
       <c r="C48" t="s">
-        <v>3410</v>
+        <v>3961</v>
       </c>
       <c r="D48" t="s">
-        <v>3470</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3163</v>
+        <v>3714</v>
       </c>
       <c r="B49" t="s">
-        <v>3308</v>
+        <v>3859</v>
       </c>
       <c r="C49" t="s">
-        <v>3410</v>
+        <v>3961</v>
       </c>
       <c r="D49" t="s">
-        <v>3471</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3164</v>
+        <v>3715</v>
       </c>
       <c r="B50" t="s">
-        <v>3309</v>
+        <v>3860</v>
       </c>
       <c r="C50" t="s">
-        <v>3410</v>
+        <v>3961</v>
       </c>
       <c r="D50" t="s">
-        <v>3472</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3165</v>
+        <v>3716</v>
       </c>
       <c r="B51" t="s">
-        <v>3310</v>
+        <v>3861</v>
       </c>
       <c r="C51" t="s">
-        <v>3410</v>
+        <v>3961</v>
       </c>
       <c r="D51" t="s">
-        <v>3473</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>3166</v>
+        <v>3717</v>
       </c>
       <c r="B52" t="s">
-        <v>3311</v>
+        <v>3862</v>
       </c>
       <c r="C52" t="s">
-        <v>3410</v>
+        <v>3961</v>
       </c>
       <c r="D52" t="s">
-        <v>3474</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3167</v>
+        <v>3718</v>
       </c>
       <c r="B53" t="s">
-        <v>3312</v>
+        <v>3863</v>
       </c>
       <c r="C53" t="s">
-        <v>3410</v>
+        <v>3961</v>
       </c>
       <c r="D53" t="s">
-        <v>3475</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3168</v>
+        <v>3719</v>
       </c>
       <c r="B54" t="s">
-        <v>3313</v>
+        <v>3864</v>
       </c>
       <c r="C54" t="s">
-        <v>3411</v>
+        <v>3962</v>
       </c>
       <c r="D54" t="s">
-        <v>3476</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3169</v>
+        <v>3720</v>
       </c>
       <c r="B55" t="s">
-        <v>3314</v>
+        <v>3865</v>
       </c>
       <c r="C55" t="s">
-        <v>3412</v>
+        <v>3963</v>
       </c>
       <c r="D55" t="s">
-        <v>3477</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3170</v>
+        <v>3721</v>
       </c>
       <c r="B56" t="s">
-        <v>3315</v>
+        <v>3866</v>
       </c>
       <c r="C56" t="s">
-        <v>3412</v>
+        <v>3963</v>
       </c>
       <c r="D56" t="s">
-        <v>3478</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>3171</v>
+        <v>3722</v>
       </c>
       <c r="B57" t="s">
-        <v>3316</v>
+        <v>3867</v>
       </c>
       <c r="C57" t="s">
-        <v>3413</v>
+        <v>3964</v>
       </c>
       <c r="D57" t="s">
-        <v>3479</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3172</v>
+        <v>3723</v>
       </c>
       <c r="B58" t="s">
-        <v>3317</v>
+        <v>3868</v>
       </c>
       <c r="C58" t="s">
-        <v>3413</v>
+        <v>3964</v>
       </c>
       <c r="D58" t="s">
-        <v>3480</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3173</v>
+        <v>3724</v>
       </c>
       <c r="B59" t="s">
-        <v>3318</v>
+        <v>3869</v>
       </c>
       <c r="C59" t="s">
-        <v>3414</v>
+        <v>3965</v>
       </c>
       <c r="D59" t="s">
-        <v>3481</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3174</v>
+        <v>3725</v>
       </c>
       <c r="B60" t="s">
-        <v>3319</v>
+        <v>3870</v>
       </c>
       <c r="C60" t="s">
-        <v>3415</v>
+        <v>3966</v>
       </c>
       <c r="D60" t="s">
-        <v>3482</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>3175</v>
+        <v>3726</v>
       </c>
       <c r="B61" t="s">
-        <v>3320</v>
+        <v>3871</v>
       </c>
       <c r="C61" t="s">
-        <v>3415</v>
+        <v>3966</v>
       </c>
       <c r="D61" t="s">
-        <v>3482</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3176</v>
+        <v>3727</v>
       </c>
       <c r="B62" t="s">
-        <v>3321</v>
+        <v>3872</v>
       </c>
       <c r="C62" t="s">
-        <v>3416</v>
+        <v>3967</v>
       </c>
       <c r="D62" t="s">
-        <v>3483</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>3177</v>
+        <v>3728</v>
       </c>
       <c r="B63" t="s">
-        <v>3322</v>
+        <v>3873</v>
       </c>
       <c r="C63" t="s">
-        <v>3417</v>
+        <v>3968</v>
       </c>
       <c r="D63" t="s">
-        <v>3484</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>3178</v>
+        <v>3729</v>
       </c>
       <c r="B64" t="s">
-        <v>3323</v>
+        <v>3874</v>
       </c>
       <c r="C64" t="s">
-        <v>3417</v>
+        <v>3968</v>
       </c>
       <c r="D64" t="s">
-        <v>3484</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3179</v>
+        <v>3730</v>
       </c>
       <c r="B65" t="s">
-        <v>3324</v>
+        <v>3875</v>
       </c>
       <c r="C65" t="s">
-        <v>3418</v>
+        <v>3969</v>
       </c>
       <c r="D65" t="s">
-        <v>3485</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>3180</v>
+        <v>3731</v>
       </c>
       <c r="B66" t="s">
-        <v>3325</v>
+        <v>3876</v>
       </c>
       <c r="C66" t="s">
-        <v>3418</v>
+        <v>3969</v>
       </c>
       <c r="D66" t="s">
-        <v>3486</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>3181</v>
+        <v>3732</v>
       </c>
       <c r="B67" t="s">
-        <v>3326</v>
+        <v>3877</v>
       </c>
       <c r="C67" t="s">
-        <v>3419</v>
+        <v>3970</v>
       </c>
       <c r="D67" t="s">
-        <v>3487</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3182</v>
+        <v>3733</v>
       </c>
       <c r="B68" t="s">
-        <v>3327</v>
+        <v>3878</v>
       </c>
       <c r="C68" t="s">
-        <v>3419</v>
+        <v>3970</v>
       </c>
       <c r="D68" t="s">
-        <v>3488</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>3183</v>
+        <v>3734</v>
       </c>
       <c r="B69" t="s">
-        <v>3327</v>
+        <v>3878</v>
       </c>
       <c r="C69" t="s">
-        <v>3419</v>
+        <v>3970</v>
       </c>
       <c r="D69" t="s">
-        <v>3489</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3184</v>
+        <v>3735</v>
       </c>
       <c r="B70" t="s">
-        <v>3328</v>
+        <v>3879</v>
       </c>
       <c r="C70" t="s">
-        <v>3420</v>
+        <v>3971</v>
       </c>
       <c r="D70" t="s">
-        <v>3490</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>3185</v>
+        <v>3736</v>
       </c>
       <c r="B71" t="s">
-        <v>3329</v>
+        <v>3880</v>
       </c>
       <c r="C71" t="s">
-        <v>3421</v>
+        <v>3972</v>
       </c>
       <c r="D71" t="s">
-        <v>3491</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>3186</v>
+        <v>3737</v>
       </c>
       <c r="B72" t="s">
-        <v>3330</v>
+        <v>3881</v>
       </c>
       <c r="C72" t="s">
-        <v>3421</v>
+        <v>3972</v>
       </c>
       <c r="D72" t="s">
-        <v>3492</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>3187</v>
+        <v>3738</v>
       </c>
       <c r="B73" t="s">
-        <v>3331</v>
+        <v>3882</v>
       </c>
       <c r="C73" t="s">
-        <v>3421</v>
+        <v>3972</v>
       </c>
       <c r="D73" t="s">
-        <v>3492</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3188</v>
+        <v>3739</v>
       </c>
       <c r="B74" t="s">
-        <v>3332</v>
+        <v>3883</v>
       </c>
       <c r="C74" t="s">
-        <v>3422</v>
+        <v>3973</v>
       </c>
       <c r="D74" t="s">
-        <v>3493</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3189</v>
+        <v>3740</v>
       </c>
       <c r="B75" t="s">
-        <v>3333</v>
+        <v>3884</v>
       </c>
       <c r="C75" t="s">
-        <v>3423</v>
+        <v>3974</v>
       </c>
       <c r="D75" t="s">
-        <v>3494</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3190</v>
+        <v>3741</v>
       </c>
       <c r="B76" t="s">
-        <v>3334</v>
+        <v>3885</v>
       </c>
       <c r="C76" t="s">
-        <v>3423</v>
+        <v>3974</v>
       </c>
       <c r="D76" t="s">
-        <v>3495</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>3191</v>
+        <v>3742</v>
       </c>
       <c r="B77" t="s">
-        <v>3335</v>
+        <v>3886</v>
       </c>
       <c r="C77" t="s">
-        <v>3423</v>
+        <v>3974</v>
       </c>
       <c r="D77" t="s">
-        <v>3496</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>3192</v>
+        <v>3743</v>
       </c>
       <c r="B78" t="s">
-        <v>3336</v>
+        <v>3887</v>
       </c>
       <c r="C78" t="s">
-        <v>3423</v>
+        <v>3974</v>
       </c>
       <c r="D78" t="s">
-        <v>3497</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3193</v>
+        <v>3744</v>
       </c>
       <c r="B79" t="s">
-        <v>3337</v>
+        <v>3888</v>
       </c>
       <c r="C79" t="s">
-        <v>3423</v>
+        <v>3974</v>
       </c>
       <c r="D79" t="s">
-        <v>3498</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>3194</v>
+        <v>3745</v>
       </c>
       <c r="B80" t="s">
-        <v>3338</v>
+        <v>3889</v>
       </c>
       <c r="C80" t="s">
-        <v>3424</v>
+        <v>3975</v>
       </c>
       <c r="D80" t="s">
-        <v>3499</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>3195</v>
+        <v>3746</v>
       </c>
       <c r="B81" t="s">
-        <v>3339</v>
+        <v>3890</v>
       </c>
       <c r="C81" t="s">
-        <v>3424</v>
+        <v>3975</v>
       </c>
       <c r="D81" t="s">
-        <v>3500</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3196</v>
+        <v>3747</v>
       </c>
       <c r="B82" t="s">
-        <v>3340</v>
+        <v>3891</v>
       </c>
       <c r="C82" t="s">
-        <v>3425</v>
+        <v>3976</v>
       </c>
       <c r="D82" t="s">
-        <v>3501</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>3197</v>
+        <v>3748</v>
       </c>
       <c r="B83" t="s">
-        <v>3341</v>
+        <v>3892</v>
       </c>
       <c r="C83" t="s">
-        <v>3426</v>
+        <v>3977</v>
       </c>
       <c r="D83" t="s">
-        <v>3502</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3198</v>
+        <v>3749</v>
       </c>
       <c r="B84" t="s">
-        <v>3342</v>
+        <v>3893</v>
       </c>
       <c r="C84" t="s">
-        <v>3427</v>
+        <v>3978</v>
       </c>
       <c r="D84" t="s">
-        <v>3503</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3199</v>
+        <v>3750</v>
       </c>
       <c r="B85" t="s">
-        <v>3343</v>
+        <v>3894</v>
       </c>
       <c r="C85" t="s">
-        <v>3428</v>
+        <v>3979</v>
       </c>
       <c r="D85" t="s">
-        <v>3504</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>3200</v>
+        <v>3751</v>
       </c>
       <c r="B86" t="s">
-        <v>3344</v>
+        <v>3895</v>
       </c>
       <c r="C86" t="s">
-        <v>3428</v>
+        <v>3979</v>
       </c>
       <c r="D86" t="s">
-        <v>3505</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3201</v>
+        <v>3752</v>
       </c>
       <c r="B87" t="s">
-        <v>3345</v>
+        <v>3896</v>
       </c>
       <c r="C87" t="s">
-        <v>3429</v>
+        <v>3980</v>
       </c>
       <c r="D87" t="s">
-        <v>3506</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3202</v>
+        <v>3753</v>
       </c>
       <c r="B88" t="s">
-        <v>3346</v>
+        <v>3897</v>
       </c>
       <c r="C88" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D88" t="s">
-        <v>3507</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>3203</v>
+        <v>3754</v>
       </c>
       <c r="B89" t="s">
-        <v>3347</v>
+        <v>3898</v>
       </c>
       <c r="C89" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D89" t="s">
-        <v>3508</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>3204</v>
+        <v>3755</v>
       </c>
       <c r="B90" t="s">
-        <v>3348</v>
+        <v>3899</v>
       </c>
       <c r="C90" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D90" t="s">
-        <v>3509</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>3205</v>
+        <v>3756</v>
       </c>
       <c r="B91" t="s">
-        <v>3349</v>
+        <v>3900</v>
       </c>
       <c r="C91" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D91" t="s">
-        <v>3510</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>3206</v>
+        <v>3757</v>
       </c>
       <c r="B92" t="s">
-        <v>3350</v>
+        <v>3901</v>
       </c>
       <c r="C92" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D92" t="s">
-        <v>3511</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>3207</v>
+        <v>3758</v>
       </c>
       <c r="B93" t="s">
-        <v>3351</v>
+        <v>3902</v>
       </c>
       <c r="C93" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D93" t="s">
-        <v>3512</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>3208</v>
+        <v>3759</v>
       </c>
       <c r="B94" t="s">
-        <v>3352</v>
+        <v>3903</v>
       </c>
       <c r="C94" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D94" t="s">
-        <v>3513</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>3209</v>
+        <v>3760</v>
       </c>
       <c r="B95" t="s">
-        <v>3353</v>
+        <v>3904</v>
       </c>
       <c r="C95" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D95" t="s">
-        <v>3514</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>3210</v>
+        <v>3761</v>
       </c>
       <c r="B96" t="s">
-        <v>3354</v>
+        <v>3905</v>
       </c>
       <c r="C96" t="s">
-        <v>3430</v>
+        <v>3981</v>
       </c>
       <c r="D96" t="s">
-        <v>3515</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>3211</v>
+        <v>3762</v>
       </c>
       <c r="B97" t="s">
-        <v>3355</v>
+        <v>3906</v>
       </c>
       <c r="C97" t="s">
-        <v>3431</v>
+        <v>3982</v>
       </c>
       <c r="D97" t="s">
-        <v>3516</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>3212</v>
+        <v>3763</v>
       </c>
       <c r="B98" t="s">
-        <v>3356</v>
+        <v>3907</v>
       </c>
       <c r="C98" t="s">
-        <v>3431</v>
+        <v>3982</v>
       </c>
       <c r="D98" t="s">
-        <v>3517</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>3213</v>
+        <v>3764</v>
       </c>
       <c r="B99" t="s">
-        <v>3357</v>
+        <v>3908</v>
       </c>
       <c r="C99" t="s">
-        <v>3432</v>
+        <v>3983</v>
       </c>
       <c r="D99" t="s">
-        <v>3518</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>3214</v>
+        <v>3765</v>
       </c>
       <c r="B100" t="s">
-        <v>3358</v>
+        <v>3909</v>
       </c>
       <c r="C100" t="s">
-        <v>3433</v>
+        <v>3984</v>
       </c>
       <c r="D100" t="s">
-        <v>3519</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>3215</v>
+        <v>3766</v>
       </c>
       <c r="B101" t="s">
-        <v>3359</v>
+        <v>3910</v>
       </c>
       <c r="C101" t="s">
-        <v>3433</v>
+        <v>3984</v>
       </c>
       <c r="D101" t="s">
-        <v>3520</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>3216</v>
+        <v>3767</v>
       </c>
       <c r="B102" t="s">
-        <v>3360</v>
+        <v>3911</v>
       </c>
       <c r="C102" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D102" t="s">
-        <v>3521</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>3217</v>
+        <v>3768</v>
       </c>
       <c r="B103" t="s">
-        <v>3361</v>
+        <v>3912</v>
       </c>
       <c r="C103" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D103" t="s">
-        <v>3522</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>3218</v>
+        <v>3769</v>
       </c>
       <c r="B104" t="s">
-        <v>3362</v>
+        <v>3913</v>
       </c>
       <c r="C104" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D104" t="s">
-        <v>3523</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>3219</v>
+        <v>3770</v>
       </c>
       <c r="B105" t="s">
-        <v>3363</v>
+        <v>3914</v>
       </c>
       <c r="C105" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D105" t="s">
-        <v>3524</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>3220</v>
+        <v>3771</v>
       </c>
       <c r="B106" t="s">
-        <v>3364</v>
+        <v>3915</v>
       </c>
       <c r="C106" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D106" t="s">
-        <v>3525</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>3221</v>
+        <v>3772</v>
       </c>
       <c r="B107" t="s">
-        <v>3365</v>
+        <v>3916</v>
       </c>
       <c r="C107" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D107" t="s">
-        <v>3526</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>3222</v>
+        <v>3773</v>
       </c>
       <c r="B108" t="s">
-        <v>3366</v>
+        <v>3917</v>
       </c>
       <c r="C108" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D108" t="s">
-        <v>3527</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>3223</v>
+        <v>3774</v>
       </c>
       <c r="B109" t="s">
-        <v>3366</v>
+        <v>3917</v>
       </c>
       <c r="C109" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D109" t="s">
-        <v>3528</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>3224</v>
+        <v>3775</v>
       </c>
       <c r="B110" t="s">
-        <v>3367</v>
+        <v>3918</v>
       </c>
       <c r="C110" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D110" t="s">
-        <v>3529</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>3225</v>
+        <v>3776</v>
       </c>
       <c r="B111" t="s">
-        <v>3367</v>
+        <v>3918</v>
       </c>
       <c r="C111" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D111" t="s">
-        <v>3530</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>3226</v>
+        <v>3777</v>
       </c>
       <c r="B112" t="s">
-        <v>3368</v>
+        <v>3919</v>
       </c>
       <c r="C112" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D112" t="s">
-        <v>3531</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>3227</v>
+        <v>3778</v>
       </c>
       <c r="B113" t="s">
-        <v>3368</v>
+        <v>3919</v>
       </c>
       <c r="C113" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D113" t="s">
-        <v>3532</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>3228</v>
+        <v>3779</v>
       </c>
       <c r="B114" t="s">
-        <v>3369</v>
+        <v>3920</v>
       </c>
       <c r="C114" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D114" t="s">
-        <v>3533</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>3229</v>
+        <v>3780</v>
       </c>
       <c r="B115" t="s">
-        <v>3369</v>
+        <v>3920</v>
       </c>
       <c r="C115" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D115" t="s">
-        <v>3534</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>3230</v>
+        <v>3781</v>
       </c>
       <c r="B116" t="s">
-        <v>3370</v>
+        <v>3921</v>
       </c>
       <c r="C116" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D116" t="s">
-        <v>3535</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>3231</v>
+        <v>3782</v>
       </c>
       <c r="B117" t="s">
-        <v>3371</v>
+        <v>3922</v>
       </c>
       <c r="C117" t="s">
-        <v>3434</v>
+        <v>3985</v>
       </c>
       <c r="D117" t="s">
-        <v>3536</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>3232</v>
+        <v>3783</v>
       </c>
       <c r="B118" t="s">
-        <v>3372</v>
+        <v>3923</v>
       </c>
       <c r="C118" t="s">
-        <v>3435</v>
+        <v>3986</v>
       </c>
       <c r="D118" t="s">
-        <v>3537</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>3233</v>
+        <v>3784</v>
       </c>
       <c r="B119" t="s">
-        <v>3373</v>
+        <v>3924</v>
       </c>
       <c r="C119" t="s">
-        <v>3436</v>
+        <v>3987</v>
       </c>
       <c r="D119" t="s">
-        <v>3538</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>3234</v>
+        <v>3785</v>
       </c>
       <c r="B120" t="s">
-        <v>3374</v>
+        <v>3925</v>
       </c>
       <c r="C120" t="s">
-        <v>3436</v>
+        <v>3987</v>
       </c>
       <c r="D120" t="s">
-        <v>3539</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>3235</v>
+        <v>3786</v>
       </c>
       <c r="B121" t="s">
-        <v>3375</v>
+        <v>3926</v>
       </c>
       <c r="C121" t="s">
-        <v>3437</v>
+        <v>3988</v>
       </c>
       <c r="D121" t="s">
-        <v>3540</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>3236</v>
+        <v>3787</v>
       </c>
       <c r="B122" t="s">
-        <v>3376</v>
+        <v>3927</v>
       </c>
       <c r="C122" t="s">
-        <v>3438</v>
+        <v>3989</v>
       </c>
       <c r="D122" t="s">
-        <v>3541</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>3237</v>
+        <v>3788</v>
       </c>
       <c r="B123" t="s">
-        <v>3377</v>
+        <v>3928</v>
       </c>
       <c r="C123" t="s">
-        <v>3438</v>
+        <v>3989</v>
       </c>
       <c r="D123" t="s">
-        <v>3542</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>3238</v>
+        <v>3789</v>
       </c>
       <c r="B124" t="s">
-        <v>3378</v>
+        <v>3929</v>
       </c>
       <c r="C124" t="s">
-        <v>3438</v>
+        <v>3989</v>
       </c>
       <c r="D124" t="s">
-        <v>3543</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>3239</v>
+        <v>3790</v>
       </c>
       <c r="B125" t="s">
-        <v>3379</v>
+        <v>3930</v>
       </c>
       <c r="C125" t="s">
-        <v>3438</v>
+        <v>3989</v>
       </c>
       <c r="D125" t="s">
-        <v>3544</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>3240</v>
+        <v>3791</v>
       </c>
       <c r="B126" t="s">
-        <v>3380</v>
+        <v>3931</v>
       </c>
       <c r="C126" t="s">
-        <v>3438</v>
+        <v>3989</v>
       </c>
       <c r="D126" t="s">
-        <v>3545</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>3241</v>
+        <v>3792</v>
       </c>
       <c r="B127" t="s">
-        <v>3381</v>
+        <v>3932</v>
       </c>
       <c r="C127" t="s">
-        <v>3438</v>
+        <v>3989</v>
       </c>
       <c r="D127" t="s">
-        <v>3546</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>3242</v>
+        <v>3793</v>
       </c>
       <c r="B128" t="s">
-        <v>3382</v>
+        <v>3933</v>
       </c>
       <c r="C128" t="s">
-        <v>3438</v>
+        <v>3989</v>
       </c>
       <c r="D128" t="s">
-        <v>3547</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>3243</v>
+        <v>3794</v>
       </c>
       <c r="B129" t="s">
-        <v>3383</v>
+        <v>3934</v>
       </c>
       <c r="C129" t="s">
-        <v>3439</v>
+        <v>3990</v>
       </c>
       <c r="D129" t="s">
-        <v>3548</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>3244</v>
+        <v>3795</v>
       </c>
       <c r="B130" t="s">
-        <v>3384</v>
+        <v>3935</v>
       </c>
       <c r="C130" t="s">
-        <v>3440</v>
+        <v>3991</v>
       </c>
       <c r="D130" t="s">
-        <v>3549</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>3245</v>
+        <v>3796</v>
       </c>
       <c r="B131" t="s">
-        <v>3385</v>
+        <v>3936</v>
       </c>
       <c r="C131" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D131" t="s">
-        <v>3550</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>3246</v>
+        <v>3797</v>
       </c>
       <c r="B132" t="s">
-        <v>3386</v>
+        <v>3937</v>
       </c>
       <c r="C132" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D132" t="s">
-        <v>3551</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>3247</v>
+        <v>3798</v>
       </c>
       <c r="B133" t="s">
-        <v>3387</v>
+        <v>3938</v>
       </c>
       <c r="C133" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D133" t="s">
-        <v>3552</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>3248</v>
+        <v>3799</v>
       </c>
       <c r="B134" t="s">
-        <v>3388</v>
+        <v>3939</v>
       </c>
       <c r="C134" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D134" t="s">
-        <v>3553</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>3249</v>
+        <v>3800</v>
       </c>
       <c r="B135" t="s">
-        <v>3389</v>
+        <v>3940</v>
       </c>
       <c r="C135" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D135" t="s">
-        <v>3554</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>3250</v>
+        <v>3801</v>
       </c>
       <c r="B136" t="s">
-        <v>3390</v>
+        <v>3941</v>
       </c>
       <c r="C136" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D136" t="s">
-        <v>3555</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>3251</v>
+        <v>3802</v>
       </c>
       <c r="B137" t="s">
-        <v>3391</v>
+        <v>3942</v>
       </c>
       <c r="C137" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D137" t="s">
-        <v>3556</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>3252</v>
+        <v>3803</v>
       </c>
       <c r="B138" t="s">
-        <v>3392</v>
+        <v>3943</v>
       </c>
       <c r="C138" t="s">
-        <v>3441</v>
+        <v>3992</v>
       </c>
       <c r="D138" t="s">
-        <v>3557</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>3253</v>
+        <v>3804</v>
       </c>
       <c r="B139" t="s">
-        <v>3393</v>
+        <v>3944</v>
       </c>
       <c r="C139" t="s">
-        <v>3442</v>
+        <v>3993</v>
       </c>
       <c r="D139" t="s">
-        <v>3558</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>3254</v>
+        <v>3805</v>
       </c>
       <c r="B140" t="s">
-        <v>3394</v>
+        <v>3945</v>
       </c>
       <c r="C140" t="s">
-        <v>3443</v>
+        <v>3994</v>
       </c>
       <c r="D140" t="s">
-        <v>3559</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>3255</v>
+        <v>3806</v>
       </c>
       <c r="B141" t="s">
-        <v>3395</v>
+        <v>3946</v>
       </c>
       <c r="C141" t="s">
-        <v>3443</v>
+        <v>3994</v>
       </c>
       <c r="D141" t="s">
-        <v>3560</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>3256</v>
+        <v>3807</v>
       </c>
       <c r="B142" t="s">
-        <v>3396</v>
+        <v>3947</v>
       </c>
       <c r="C142" t="s">
-        <v>3443</v>
+        <v>3994</v>
       </c>
       <c r="D142" t="s">
-        <v>3561</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>3257</v>
+        <v>3808</v>
       </c>
       <c r="B143" t="s">
-        <v>3397</v>
+        <v>3948</v>
       </c>
       <c r="C143" t="s">
-        <v>3443</v>
+        <v>3994</v>
       </c>
       <c r="D143" t="s">
-        <v>3562</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>3258</v>
+        <v>3809</v>
       </c>
       <c r="B144" t="s">
-        <v>3398</v>
+        <v>3949</v>
       </c>
       <c r="C144" t="s">
-        <v>3444</v>
+        <v>3995</v>
       </c>
       <c r="D144" t="s">
-        <v>3563</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>3259</v>
+        <v>3810</v>
       </c>
       <c r="B145" t="s">
-        <v>3399</v>
+        <v>3950</v>
       </c>
       <c r="C145" t="s">
-        <v>3445</v>
+        <v>3996</v>
       </c>
       <c r="D145" t="s">
-        <v>3564</v>
+        <v>4115</v>
       </c>
     </row>
   </sheetData>
@@ -13099,475 +14752,475 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3565</v>
+        <v>4116</v>
       </c>
       <c r="B1" t="s">
-        <v>3581</v>
+        <v>4132</v>
       </c>
       <c r="C1" t="s">
-        <v>3623</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3566</v>
+        <v>4117</v>
       </c>
       <c r="B2" t="s">
-        <v>3582</v>
+        <v>4133</v>
       </c>
       <c r="C2" t="s">
-        <v>3624</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3566</v>
+        <v>4117</v>
       </c>
       <c r="B3" t="s">
-        <v>3583</v>
+        <v>4134</v>
       </c>
       <c r="C3" t="s">
-        <v>3625</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3566</v>
+        <v>4117</v>
       </c>
       <c r="B4" t="s">
-        <v>3584</v>
+        <v>4135</v>
       </c>
       <c r="C4" t="s">
-        <v>3626</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3566</v>
+        <v>4117</v>
       </c>
       <c r="B5" t="s">
-        <v>3585</v>
+        <v>4136</v>
       </c>
       <c r="C5" t="s">
-        <v>3627</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3567</v>
+        <v>4118</v>
       </c>
       <c r="B6" t="s">
-        <v>3586</v>
+        <v>4137</v>
       </c>
       <c r="C6" t="s">
-        <v>3628</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3567</v>
+        <v>4118</v>
       </c>
       <c r="B7" t="s">
-        <v>3587</v>
+        <v>4138</v>
       </c>
       <c r="C7" t="s">
-        <v>3629</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3568</v>
+        <v>4119</v>
       </c>
       <c r="B8" t="s">
-        <v>3588</v>
+        <v>4139</v>
       </c>
       <c r="C8" t="s">
-        <v>3630</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3568</v>
+        <v>4119</v>
       </c>
       <c r="B9" t="s">
-        <v>3589</v>
+        <v>4140</v>
       </c>
       <c r="C9" t="s">
-        <v>3631</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3568</v>
+        <v>4119</v>
       </c>
       <c r="B10" t="s">
-        <v>3590</v>
+        <v>4141</v>
       </c>
       <c r="C10" t="s">
-        <v>3632</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3569</v>
+        <v>4120</v>
       </c>
       <c r="B11" t="s">
-        <v>3591</v>
+        <v>4142</v>
       </c>
       <c r="C11" t="s">
-        <v>3633</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3569</v>
+        <v>4120</v>
       </c>
       <c r="B12" t="s">
-        <v>3592</v>
+        <v>4143</v>
       </c>
       <c r="C12" t="s">
-        <v>3634</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3569</v>
+        <v>4120</v>
       </c>
       <c r="B13" t="s">
-        <v>3593</v>
+        <v>4144</v>
       </c>
       <c r="C13" t="s">
-        <v>3635</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3569</v>
+        <v>4120</v>
       </c>
       <c r="B14" t="s">
-        <v>3594</v>
+        <v>4145</v>
       </c>
       <c r="C14" t="s">
-        <v>3636</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3569</v>
+        <v>4120</v>
       </c>
       <c r="B15" t="s">
-        <v>3595</v>
+        <v>4146</v>
       </c>
       <c r="C15" t="s">
-        <v>3637</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3569</v>
+        <v>4120</v>
       </c>
       <c r="B16" t="s">
-        <v>3596</v>
+        <v>4147</v>
       </c>
       <c r="C16" t="s">
-        <v>3638</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3570</v>
+        <v>4121</v>
       </c>
       <c r="B17" t="s">
-        <v>3597</v>
+        <v>4148</v>
       </c>
       <c r="C17" t="s">
-        <v>3639</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3570</v>
+        <v>4121</v>
       </c>
       <c r="B18" t="s">
-        <v>3598</v>
+        <v>4149</v>
       </c>
       <c r="C18" t="s">
-        <v>3640</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3571</v>
+        <v>4122</v>
       </c>
       <c r="B19" t="s">
-        <v>3599</v>
+        <v>4150</v>
       </c>
       <c r="C19" t="s">
-        <v>3641</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3571</v>
+        <v>4122</v>
       </c>
       <c r="B20" t="s">
-        <v>3600</v>
+        <v>4151</v>
       </c>
       <c r="C20" t="s">
-        <v>3642</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3572</v>
+        <v>4123</v>
       </c>
       <c r="B21" t="s">
-        <v>3601</v>
+        <v>4152</v>
       </c>
       <c r="C21" t="s">
-        <v>3643</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3572</v>
+        <v>4123</v>
       </c>
       <c r="B22" t="s">
-        <v>3602</v>
+        <v>4153</v>
       </c>
       <c r="C22" t="s">
-        <v>3644</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3573</v>
+        <v>4124</v>
       </c>
       <c r="B23" t="s">
-        <v>3602</v>
+        <v>4153</v>
       </c>
       <c r="C23" t="s">
-        <v>3645</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3573</v>
+        <v>4124</v>
       </c>
       <c r="B24" t="s">
-        <v>3603</v>
+        <v>4154</v>
       </c>
       <c r="C24" t="s">
-        <v>3646</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3573</v>
+        <v>4124</v>
       </c>
       <c r="B25" t="s">
-        <v>3604</v>
+        <v>4155</v>
       </c>
       <c r="C25" t="s">
-        <v>3647</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3574</v>
+        <v>4125</v>
       </c>
       <c r="B26" t="s">
-        <v>3605</v>
+        <v>4156</v>
       </c>
       <c r="C26" t="s">
-        <v>3648</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3574</v>
+        <v>4125</v>
       </c>
       <c r="B27" t="s">
-        <v>3606</v>
+        <v>4157</v>
       </c>
       <c r="C27" t="s">
-        <v>3649</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3574</v>
+        <v>4125</v>
       </c>
       <c r="B28" t="s">
-        <v>3607</v>
+        <v>4158</v>
       </c>
       <c r="C28" t="s">
-        <v>3650</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3575</v>
+        <v>4126</v>
       </c>
       <c r="B29" t="s">
-        <v>3608</v>
+        <v>4159</v>
       </c>
       <c r="C29" t="s">
-        <v>3651</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3575</v>
+        <v>4126</v>
       </c>
       <c r="B30" t="s">
-        <v>3609</v>
+        <v>4160</v>
       </c>
       <c r="C30" t="s">
-        <v>3652</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3576</v>
+        <v>4127</v>
       </c>
       <c r="B31" t="s">
-        <v>3610</v>
+        <v>4161</v>
       </c>
       <c r="C31" t="s">
-        <v>3653</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3576</v>
+        <v>4127</v>
       </c>
       <c r="B32" t="s">
-        <v>3611</v>
+        <v>4162</v>
       </c>
       <c r="C32" t="s">
-        <v>3654</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3577</v>
+        <v>4128</v>
       </c>
       <c r="B33" t="s">
-        <v>3612</v>
+        <v>4163</v>
       </c>
       <c r="C33" t="s">
-        <v>3655</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3577</v>
+        <v>4128</v>
       </c>
       <c r="B34" t="s">
-        <v>3613</v>
+        <v>4164</v>
       </c>
       <c r="C34" t="s">
-        <v>3656</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3578</v>
+        <v>4129</v>
       </c>
       <c r="B35" t="s">
-        <v>3614</v>
+        <v>4165</v>
       </c>
       <c r="C35" t="s">
-        <v>3657</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3578</v>
+        <v>4129</v>
       </c>
       <c r="B36" t="s">
-        <v>3615</v>
+        <v>4166</v>
       </c>
       <c r="C36" t="s">
-        <v>3658</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3579</v>
+        <v>4130</v>
       </c>
       <c r="B37" t="s">
-        <v>3616</v>
+        <v>4167</v>
       </c>
       <c r="C37" t="s">
-        <v>3659</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3579</v>
+        <v>4130</v>
       </c>
       <c r="B38" t="s">
-        <v>3617</v>
+        <v>4168</v>
       </c>
       <c r="C38" t="s">
-        <v>3660</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3579</v>
+        <v>4130</v>
       </c>
       <c r="B39" t="s">
-        <v>3618</v>
+        <v>4169</v>
       </c>
       <c r="C39" t="s">
-        <v>3661</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3579</v>
+        <v>4130</v>
       </c>
       <c r="B40" t="s">
-        <v>3619</v>
+        <v>4170</v>
       </c>
       <c r="C40" t="s">
-        <v>3662</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3579</v>
+        <v>4130</v>
       </c>
       <c r="B41" t="s">
-        <v>3620</v>
+        <v>4171</v>
       </c>
       <c r="C41" t="s">
-        <v>3663</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3580</v>
+        <v>4131</v>
       </c>
       <c r="B42" t="s">
-        <v>3621</v>
+        <v>4172</v>
       </c>
       <c r="C42" t="s">
-        <v>3664</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3580</v>
+        <v>4131</v>
       </c>
       <c r="B43" t="s">
-        <v>3622</v>
+        <v>4173</v>
       </c>
       <c r="C43" t="s">
-        <v>3665</v>
+        <v>4216</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6433" uniqueCount="4217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8001" uniqueCount="5423">
   <si>
     <t>name</t>
   </si>
@@ -12611,6 +12611,3624 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Age 3+</t>
@@ -12708,2037 +16326,2065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D147"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3666</v>
+        <v>4801</v>
       </c>
       <c r="B1" t="s">
-        <v>3811</v>
+        <v>4948</v>
       </c>
       <c r="C1" t="s">
-        <v>3951</v>
+        <v>5090</v>
       </c>
       <c r="D1" t="s">
-        <v>3997</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3667</v>
+        <v>4802</v>
       </c>
       <c r="B2" t="s">
-        <v>3812</v>
+        <v>4949</v>
       </c>
       <c r="C2" t="s">
-        <v>3952</v>
+        <v>5091</v>
       </c>
       <c r="D2" t="s">
-        <v>3998</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3668</v>
+        <v>4803</v>
       </c>
       <c r="B3" t="s">
-        <v>3813</v>
+        <v>4950</v>
       </c>
       <c r="C3" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D3" t="s">
-        <v>3999</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3669</v>
+        <v>4804</v>
       </c>
       <c r="B4" t="s">
-        <v>3814</v>
+        <v>4951</v>
       </c>
       <c r="C4" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D4" t="s">
-        <v>4000</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3670</v>
+        <v>4805</v>
       </c>
       <c r="B5" t="s">
-        <v>3815</v>
+        <v>4952</v>
       </c>
       <c r="C5" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D5" t="s">
-        <v>4001</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3671</v>
+        <v>4806</v>
       </c>
       <c r="B6" t="s">
-        <v>3816</v>
+        <v>4953</v>
       </c>
       <c r="C6" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D6" t="s">
-        <v>4002</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3672</v>
+        <v>4807</v>
       </c>
       <c r="B7" t="s">
-        <v>3817</v>
+        <v>4954</v>
       </c>
       <c r="C7" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D7" t="s">
-        <v>4003</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3673</v>
+        <v>4808</v>
       </c>
       <c r="B8" t="s">
-        <v>3818</v>
+        <v>4955</v>
       </c>
       <c r="C8" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D8" t="s">
-        <v>4004</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3674</v>
+        <v>4809</v>
       </c>
       <c r="B9" t="s">
-        <v>3819</v>
+        <v>4956</v>
       </c>
       <c r="C9" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D9" t="s">
-        <v>4005</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3675</v>
+        <v>4810</v>
       </c>
       <c r="B10" t="s">
-        <v>3820</v>
+        <v>4957</v>
       </c>
       <c r="C10" t="s">
-        <v>3953</v>
+        <v>5092</v>
       </c>
       <c r="D10" t="s">
-        <v>4006</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3676</v>
+        <v>4811</v>
       </c>
       <c r="B11" t="s">
-        <v>3821</v>
+        <v>4958</v>
       </c>
       <c r="C11" t="s">
-        <v>3954</v>
+        <v>5093</v>
       </c>
       <c r="D11" t="s">
-        <v>4007</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3677</v>
+        <v>4812</v>
       </c>
       <c r="B12" t="s">
-        <v>3822</v>
+        <v>4959</v>
       </c>
       <c r="C12" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D12" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3678</v>
+        <v>4813</v>
       </c>
       <c r="B13" t="s">
-        <v>3823</v>
+        <v>4960</v>
       </c>
       <c r="C13" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D13" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3679</v>
+        <v>4814</v>
       </c>
       <c r="B14" t="s">
-        <v>3824</v>
+        <v>4961</v>
       </c>
       <c r="C14" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D14" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3680</v>
+        <v>4815</v>
       </c>
       <c r="B15" t="s">
-        <v>3825</v>
+        <v>4962</v>
       </c>
       <c r="C15" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D15" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3681</v>
+        <v>4816</v>
       </c>
       <c r="B16" t="s">
-        <v>3826</v>
+        <v>4963</v>
       </c>
       <c r="C16" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D16" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3682</v>
+        <v>4817</v>
       </c>
       <c r="B17" t="s">
-        <v>3827</v>
+        <v>4964</v>
       </c>
       <c r="C17" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D17" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3683</v>
+        <v>4818</v>
       </c>
       <c r="B18" t="s">
-        <v>3828</v>
+        <v>4965</v>
       </c>
       <c r="C18" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D18" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3684</v>
+        <v>4819</v>
       </c>
       <c r="B19" t="s">
-        <v>3829</v>
+        <v>4966</v>
       </c>
       <c r="C19" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D19" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3685</v>
+        <v>4820</v>
       </c>
       <c r="B20" t="s">
-        <v>3830</v>
+        <v>4967</v>
       </c>
       <c r="C20" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D20" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3686</v>
+        <v>4821</v>
       </c>
       <c r="B21" t="s">
-        <v>3831</v>
+        <v>4968</v>
       </c>
       <c r="C21" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D21" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3687</v>
+        <v>4822</v>
       </c>
       <c r="B22" t="s">
-        <v>3832</v>
+        <v>4969</v>
       </c>
       <c r="C22" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D22" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3688</v>
+        <v>4823</v>
       </c>
       <c r="B23" t="s">
-        <v>3833</v>
+        <v>4970</v>
       </c>
       <c r="C23" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D23" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3689</v>
+        <v>4824</v>
       </c>
       <c r="B24" t="s">
-        <v>3834</v>
+        <v>4971</v>
       </c>
       <c r="C24" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D24" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3690</v>
+        <v>4825</v>
       </c>
       <c r="B25" t="s">
-        <v>3835</v>
+        <v>4972</v>
       </c>
       <c r="C25" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D25" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3691</v>
+        <v>4826</v>
       </c>
       <c r="B26" t="s">
-        <v>3836</v>
+        <v>4973</v>
       </c>
       <c r="C26" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D26" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3692</v>
+        <v>4827</v>
       </c>
       <c r="B27" t="s">
-        <v>3837</v>
+        <v>4974</v>
       </c>
       <c r="C27" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D27" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3693</v>
+        <v>4828</v>
       </c>
       <c r="B28" t="s">
-        <v>3838</v>
+        <v>4975</v>
       </c>
       <c r="C28" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D28" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3694</v>
+        <v>4829</v>
       </c>
       <c r="B29" t="s">
-        <v>3839</v>
+        <v>4976</v>
       </c>
       <c r="C29" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D29" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3695</v>
+        <v>4830</v>
       </c>
       <c r="B30" t="s">
-        <v>3840</v>
+        <v>4977</v>
       </c>
       <c r="C30" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D30" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3696</v>
+        <v>4831</v>
       </c>
       <c r="B31" t="s">
-        <v>3841</v>
+        <v>4978</v>
       </c>
       <c r="C31" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D31" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3697</v>
+        <v>4832</v>
       </c>
       <c r="B32" t="s">
-        <v>3842</v>
+        <v>4979</v>
       </c>
       <c r="C32" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D32" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3698</v>
+        <v>4833</v>
       </c>
       <c r="B33" t="s">
-        <v>3843</v>
+        <v>4980</v>
       </c>
       <c r="C33" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D33" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3699</v>
+        <v>4834</v>
       </c>
       <c r="B34" t="s">
-        <v>3844</v>
+        <v>4981</v>
       </c>
       <c r="C34" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D34" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3700</v>
+        <v>4835</v>
       </c>
       <c r="B35" t="s">
-        <v>3845</v>
+        <v>4982</v>
       </c>
       <c r="C35" t="s">
-        <v>3955</v>
+        <v>5094</v>
       </c>
       <c r="D35" t="s">
-        <v>4008</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3701</v>
+        <v>4836</v>
       </c>
       <c r="B36" t="s">
-        <v>3846</v>
+        <v>4983</v>
       </c>
       <c r="C36" t="s">
-        <v>3956</v>
+        <v>5095</v>
       </c>
       <c r="D36" t="s">
-        <v>4009</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3702</v>
+        <v>4837</v>
       </c>
       <c r="B37" t="s">
-        <v>3847</v>
+        <v>4984</v>
       </c>
       <c r="C37" t="s">
-        <v>3956</v>
+        <v>5095</v>
       </c>
       <c r="D37" t="s">
-        <v>4010</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3703</v>
+        <v>4838</v>
       </c>
       <c r="B38" t="s">
-        <v>3848</v>
+        <v>4985</v>
       </c>
       <c r="C38" t="s">
-        <v>3957</v>
+        <v>5096</v>
       </c>
       <c r="D38" t="s">
-        <v>4011</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3704</v>
+        <v>4839</v>
       </c>
       <c r="B39" t="s">
-        <v>3849</v>
+        <v>4986</v>
       </c>
       <c r="C39" t="s">
-        <v>3958</v>
+        <v>5097</v>
       </c>
       <c r="D39" t="s">
-        <v>4012</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3705</v>
+        <v>4840</v>
       </c>
       <c r="B40" t="s">
-        <v>3850</v>
+        <v>4987</v>
       </c>
       <c r="C40" t="s">
-        <v>3958</v>
+        <v>5097</v>
       </c>
       <c r="D40" t="s">
-        <v>4013</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3706</v>
+        <v>4841</v>
       </c>
       <c r="B41" t="s">
-        <v>3851</v>
+        <v>4988</v>
       </c>
       <c r="C41" t="s">
-        <v>3959</v>
+        <v>5098</v>
       </c>
       <c r="D41" t="s">
-        <v>4014</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3707</v>
+        <v>4842</v>
       </c>
       <c r="B42" t="s">
-        <v>3852</v>
+        <v>4989</v>
       </c>
       <c r="C42" t="s">
-        <v>3959</v>
+        <v>5098</v>
       </c>
       <c r="D42" t="s">
-        <v>4015</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3708</v>
+        <v>4843</v>
       </c>
       <c r="B43" t="s">
-        <v>3853</v>
+        <v>4990</v>
       </c>
       <c r="C43" t="s">
-        <v>3960</v>
+        <v>5099</v>
       </c>
       <c r="D43" t="s">
-        <v>4016</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3709</v>
+        <v>4844</v>
       </c>
       <c r="B44" t="s">
-        <v>3854</v>
+        <v>4991</v>
       </c>
       <c r="C44" t="s">
-        <v>3960</v>
+        <v>5099</v>
       </c>
       <c r="D44" t="s">
-        <v>4017</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>3710</v>
+        <v>4845</v>
       </c>
       <c r="B45" t="s">
-        <v>3855</v>
+        <v>4992</v>
       </c>
       <c r="C45" t="s">
-        <v>3960</v>
+        <v>5099</v>
       </c>
       <c r="D45" t="s">
-        <v>4018</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3711</v>
+        <v>4846</v>
       </c>
       <c r="B46" t="s">
-        <v>3856</v>
+        <v>4993</v>
       </c>
       <c r="C46" t="s">
-        <v>3960</v>
+        <v>5099</v>
       </c>
       <c r="D46" t="s">
-        <v>4019</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3712</v>
+        <v>4847</v>
       </c>
       <c r="B47" t="s">
-        <v>3857</v>
+        <v>4994</v>
       </c>
       <c r="C47" t="s">
-        <v>3960</v>
+        <v>5099</v>
       </c>
       <c r="D47" t="s">
-        <v>4020</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3713</v>
+        <v>4848</v>
       </c>
       <c r="B48" t="s">
-        <v>3858</v>
+        <v>4995</v>
       </c>
       <c r="C48" t="s">
-        <v>3961</v>
+        <v>5100</v>
       </c>
       <c r="D48" t="s">
-        <v>4021</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3714</v>
+        <v>4849</v>
       </c>
       <c r="B49" t="s">
-        <v>3859</v>
+        <v>4996</v>
       </c>
       <c r="C49" t="s">
-        <v>3961</v>
+        <v>5100</v>
       </c>
       <c r="D49" t="s">
-        <v>4022</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3715</v>
+        <v>4850</v>
       </c>
       <c r="B50" t="s">
-        <v>3860</v>
+        <v>4997</v>
       </c>
       <c r="C50" t="s">
-        <v>3961</v>
+        <v>5100</v>
       </c>
       <c r="D50" t="s">
-        <v>4023</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3716</v>
+        <v>4851</v>
       </c>
       <c r="B51" t="s">
-        <v>3861</v>
+        <v>4998</v>
       </c>
       <c r="C51" t="s">
-        <v>3961</v>
+        <v>5100</v>
       </c>
       <c r="D51" t="s">
-        <v>4024</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>3717</v>
+        <v>4852</v>
       </c>
       <c r="B52" t="s">
-        <v>3862</v>
+        <v>4999</v>
       </c>
       <c r="C52" t="s">
-        <v>3961</v>
+        <v>5100</v>
       </c>
       <c r="D52" t="s">
-        <v>4025</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3718</v>
+        <v>4853</v>
       </c>
       <c r="B53" t="s">
-        <v>3863</v>
+        <v>5000</v>
       </c>
       <c r="C53" t="s">
-        <v>3961</v>
+        <v>5100</v>
       </c>
       <c r="D53" t="s">
-        <v>4026</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3719</v>
+        <v>4854</v>
       </c>
       <c r="B54" t="s">
-        <v>3864</v>
+        <v>5001</v>
       </c>
       <c r="C54" t="s">
-        <v>3962</v>
+        <v>5101</v>
       </c>
       <c r="D54" t="s">
-        <v>4027</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3720</v>
+        <v>4855</v>
       </c>
       <c r="B55" t="s">
-        <v>3865</v>
+        <v>5002</v>
       </c>
       <c r="C55" t="s">
-        <v>3963</v>
+        <v>5102</v>
       </c>
       <c r="D55" t="s">
-        <v>4028</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3721</v>
+        <v>4856</v>
       </c>
       <c r="B56" t="s">
-        <v>3866</v>
+        <v>5003</v>
       </c>
       <c r="C56" t="s">
-        <v>3963</v>
+        <v>5102</v>
       </c>
       <c r="D56" t="s">
-        <v>4029</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>3722</v>
+        <v>4857</v>
       </c>
       <c r="B57" t="s">
-        <v>3867</v>
+        <v>5004</v>
       </c>
       <c r="C57" t="s">
-        <v>3964</v>
+        <v>5103</v>
       </c>
       <c r="D57" t="s">
-        <v>4030</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3723</v>
+        <v>4858</v>
       </c>
       <c r="B58" t="s">
-        <v>3868</v>
+        <v>5005</v>
       </c>
       <c r="C58" t="s">
-        <v>3964</v>
+        <v>5103</v>
       </c>
       <c r="D58" t="s">
-        <v>4031</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3724</v>
+        <v>4859</v>
       </c>
       <c r="B59" t="s">
-        <v>3869</v>
+        <v>5006</v>
       </c>
       <c r="C59" t="s">
-        <v>3965</v>
+        <v>5104</v>
       </c>
       <c r="D59" t="s">
-        <v>4032</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3725</v>
+        <v>4860</v>
       </c>
       <c r="B60" t="s">
-        <v>3870</v>
+        <v>5007</v>
       </c>
       <c r="C60" t="s">
-        <v>3966</v>
+        <v>5105</v>
       </c>
       <c r="D60" t="s">
-        <v>4033</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>3726</v>
+        <v>4861</v>
       </c>
       <c r="B61" t="s">
-        <v>3871</v>
+        <v>5008</v>
       </c>
       <c r="C61" t="s">
-        <v>3966</v>
+        <v>5105</v>
       </c>
       <c r="D61" t="s">
-        <v>4033</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3727</v>
+        <v>4862</v>
       </c>
       <c r="B62" t="s">
-        <v>3872</v>
+        <v>5009</v>
       </c>
       <c r="C62" t="s">
-        <v>3967</v>
+        <v>5106</v>
       </c>
       <c r="D62" t="s">
-        <v>4034</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>3728</v>
+        <v>4863</v>
       </c>
       <c r="B63" t="s">
-        <v>3873</v>
+        <v>5010</v>
       </c>
       <c r="C63" t="s">
-        <v>3968</v>
+        <v>5107</v>
       </c>
       <c r="D63" t="s">
-        <v>4035</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>3729</v>
+        <v>4864</v>
       </c>
       <c r="B64" t="s">
-        <v>3874</v>
+        <v>5011</v>
       </c>
       <c r="C64" t="s">
-        <v>3968</v>
+        <v>5107</v>
       </c>
       <c r="D64" t="s">
-        <v>4035</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3730</v>
+        <v>4865</v>
       </c>
       <c r="B65" t="s">
-        <v>3875</v>
+        <v>5012</v>
       </c>
       <c r="C65" t="s">
-        <v>3969</v>
+        <v>5108</v>
       </c>
       <c r="D65" t="s">
-        <v>4036</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>3731</v>
+        <v>4866</v>
       </c>
       <c r="B66" t="s">
-        <v>3876</v>
+        <v>5013</v>
       </c>
       <c r="C66" t="s">
-        <v>3969</v>
+        <v>5108</v>
       </c>
       <c r="D66" t="s">
-        <v>4037</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>3732</v>
+        <v>4867</v>
       </c>
       <c r="B67" t="s">
-        <v>3877</v>
+        <v>5014</v>
       </c>
       <c r="C67" t="s">
-        <v>3970</v>
+        <v>5109</v>
       </c>
       <c r="D67" t="s">
-        <v>4038</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3733</v>
+        <v>4868</v>
       </c>
       <c r="B68" t="s">
-        <v>3878</v>
+        <v>5015</v>
       </c>
       <c r="C68" t="s">
-        <v>3970</v>
+        <v>5109</v>
       </c>
       <c r="D68" t="s">
-        <v>4039</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>3734</v>
+        <v>4869</v>
       </c>
       <c r="B69" t="s">
-        <v>3878</v>
+        <v>5015</v>
       </c>
       <c r="C69" t="s">
-        <v>3970</v>
+        <v>5109</v>
       </c>
       <c r="D69" t="s">
-        <v>4040</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3735</v>
+        <v>4870</v>
       </c>
       <c r="B70" t="s">
-        <v>3879</v>
+        <v>5016</v>
       </c>
       <c r="C70" t="s">
-        <v>3971</v>
+        <v>5110</v>
       </c>
       <c r="D70" t="s">
-        <v>4041</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>3736</v>
+        <v>4871</v>
       </c>
       <c r="B71" t="s">
-        <v>3880</v>
+        <v>5017</v>
       </c>
       <c r="C71" t="s">
-        <v>3972</v>
+        <v>5111</v>
       </c>
       <c r="D71" t="s">
-        <v>4042</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>3737</v>
+        <v>4872</v>
       </c>
       <c r="B72" t="s">
-        <v>3881</v>
+        <v>5018</v>
       </c>
       <c r="C72" t="s">
-        <v>3972</v>
+        <v>5111</v>
       </c>
       <c r="D72" t="s">
-        <v>4043</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>3738</v>
+        <v>4873</v>
       </c>
       <c r="B73" t="s">
-        <v>3882</v>
+        <v>5019</v>
       </c>
       <c r="C73" t="s">
-        <v>3972</v>
+        <v>5111</v>
       </c>
       <c r="D73" t="s">
-        <v>4043</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3739</v>
+        <v>4874</v>
       </c>
       <c r="B74" t="s">
-        <v>3883</v>
+        <v>5020</v>
       </c>
       <c r="C74" t="s">
-        <v>3973</v>
+        <v>5112</v>
       </c>
       <c r="D74" t="s">
-        <v>4044</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3740</v>
+        <v>4875</v>
       </c>
       <c r="B75" t="s">
-        <v>3884</v>
+        <v>5021</v>
       </c>
       <c r="C75" t="s">
-        <v>3974</v>
+        <v>5113</v>
       </c>
       <c r="D75" t="s">
-        <v>4045</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3741</v>
+        <v>4876</v>
       </c>
       <c r="B76" t="s">
-        <v>3885</v>
+        <v>5022</v>
       </c>
       <c r="C76" t="s">
-        <v>3974</v>
+        <v>5113</v>
       </c>
       <c r="D76" t="s">
-        <v>4046</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>3742</v>
+        <v>4877</v>
       </c>
       <c r="B77" t="s">
-        <v>3886</v>
+        <v>5023</v>
       </c>
       <c r="C77" t="s">
-        <v>3974</v>
+        <v>5113</v>
       </c>
       <c r="D77" t="s">
-        <v>4047</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>3743</v>
+        <v>4878</v>
       </c>
       <c r="B78" t="s">
-        <v>3887</v>
+        <v>5024</v>
       </c>
       <c r="C78" t="s">
-        <v>3974</v>
+        <v>5113</v>
       </c>
       <c r="D78" t="s">
-        <v>4048</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3744</v>
+        <v>4879</v>
       </c>
       <c r="B79" t="s">
-        <v>3888</v>
+        <v>5025</v>
       </c>
       <c r="C79" t="s">
-        <v>3974</v>
+        <v>5113</v>
       </c>
       <c r="D79" t="s">
-        <v>4049</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>3745</v>
+        <v>4880</v>
       </c>
       <c r="B80" t="s">
-        <v>3889</v>
+        <v>5026</v>
       </c>
       <c r="C80" t="s">
-        <v>3975</v>
+        <v>5114</v>
       </c>
       <c r="D80" t="s">
-        <v>4050</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>3746</v>
+        <v>4881</v>
       </c>
       <c r="B81" t="s">
-        <v>3890</v>
+        <v>5027</v>
       </c>
       <c r="C81" t="s">
-        <v>3975</v>
+        <v>5114</v>
       </c>
       <c r="D81" t="s">
-        <v>4051</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3747</v>
+        <v>4882</v>
       </c>
       <c r="B82" t="s">
-        <v>3891</v>
+        <v>5028</v>
       </c>
       <c r="C82" t="s">
-        <v>3976</v>
+        <v>5115</v>
       </c>
       <c r="D82" t="s">
-        <v>4052</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>3748</v>
+        <v>4883</v>
       </c>
       <c r="B83" t="s">
-        <v>3892</v>
+        <v>5029</v>
       </c>
       <c r="C83" t="s">
-        <v>3977</v>
+        <v>5116</v>
       </c>
       <c r="D83" t="s">
-        <v>4053</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3749</v>
+        <v>4884</v>
       </c>
       <c r="B84" t="s">
-        <v>3893</v>
+        <v>5030</v>
       </c>
       <c r="C84" t="s">
-        <v>3978</v>
+        <v>5117</v>
       </c>
       <c r="D84" t="s">
-        <v>4054</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3750</v>
+        <v>4885</v>
       </c>
       <c r="B85" t="s">
-        <v>3894</v>
+        <v>5031</v>
       </c>
       <c r="C85" t="s">
-        <v>3979</v>
+        <v>5118</v>
       </c>
       <c r="D85" t="s">
-        <v>4055</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>3751</v>
+        <v>4886</v>
       </c>
       <c r="B86" t="s">
-        <v>3895</v>
+        <v>5032</v>
       </c>
       <c r="C86" t="s">
-        <v>3979</v>
+        <v>5118</v>
       </c>
       <c r="D86" t="s">
-        <v>4056</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3752</v>
+        <v>4887</v>
       </c>
       <c r="B87" t="s">
-        <v>3896</v>
+        <v>5033</v>
       </c>
       <c r="C87" t="s">
-        <v>3980</v>
+        <v>5119</v>
       </c>
       <c r="D87" t="s">
-        <v>4057</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3753</v>
+        <v>4888</v>
       </c>
       <c r="B88" t="s">
-        <v>3897</v>
+        <v>5034</v>
       </c>
       <c r="C88" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D88" t="s">
-        <v>4058</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>3754</v>
+        <v>4889</v>
       </c>
       <c r="B89" t="s">
-        <v>3898</v>
+        <v>5035</v>
       </c>
       <c r="C89" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D89" t="s">
-        <v>4059</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>3755</v>
+        <v>4890</v>
       </c>
       <c r="B90" t="s">
-        <v>3899</v>
+        <v>5036</v>
       </c>
       <c r="C90" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D90" t="s">
-        <v>4060</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>3756</v>
+        <v>4891</v>
       </c>
       <c r="B91" t="s">
-        <v>3900</v>
+        <v>5037</v>
       </c>
       <c r="C91" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D91" t="s">
-        <v>4061</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>3757</v>
+        <v>4892</v>
       </c>
       <c r="B92" t="s">
-        <v>3901</v>
+        <v>5038</v>
       </c>
       <c r="C92" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D92" t="s">
-        <v>4062</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>3758</v>
+        <v>4893</v>
       </c>
       <c r="B93" t="s">
-        <v>3902</v>
+        <v>5039</v>
       </c>
       <c r="C93" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D93" t="s">
-        <v>4063</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>3759</v>
+        <v>4894</v>
       </c>
       <c r="B94" t="s">
-        <v>3903</v>
+        <v>5040</v>
       </c>
       <c r="C94" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D94" t="s">
-        <v>4064</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>3760</v>
+        <v>4895</v>
       </c>
       <c r="B95" t="s">
-        <v>3904</v>
+        <v>5041</v>
       </c>
       <c r="C95" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D95" t="s">
-        <v>4065</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>3761</v>
+        <v>4896</v>
       </c>
       <c r="B96" t="s">
-        <v>3905</v>
+        <v>5042</v>
       </c>
       <c r="C96" t="s">
-        <v>3981</v>
+        <v>5120</v>
       </c>
       <c r="D96" t="s">
-        <v>4066</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>3762</v>
+        <v>4897</v>
       </c>
       <c r="B97" t="s">
-        <v>3906</v>
+        <v>5043</v>
       </c>
       <c r="C97" t="s">
-        <v>3982</v>
+        <v>5121</v>
       </c>
       <c r="D97" t="s">
-        <v>4067</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>3763</v>
+        <v>4898</v>
       </c>
       <c r="B98" t="s">
-        <v>3907</v>
+        <v>5044</v>
       </c>
       <c r="C98" t="s">
-        <v>3982</v>
+        <v>5122</v>
       </c>
       <c r="D98" t="s">
-        <v>4068</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>3764</v>
+        <v>4899</v>
       </c>
       <c r="B99" t="s">
-        <v>3908</v>
+        <v>5045</v>
       </c>
       <c r="C99" t="s">
-        <v>3983</v>
+        <v>5123</v>
       </c>
       <c r="D99" t="s">
-        <v>4069</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>3765</v>
+        <v>4900</v>
       </c>
       <c r="B100" t="s">
-        <v>3909</v>
+        <v>5046</v>
       </c>
       <c r="C100" t="s">
-        <v>3984</v>
+        <v>5124</v>
       </c>
       <c r="D100" t="s">
-        <v>4070</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>3766</v>
+        <v>4901</v>
       </c>
       <c r="B101" t="s">
-        <v>3910</v>
+        <v>5047</v>
       </c>
       <c r="C101" t="s">
-        <v>3984</v>
+        <v>5125</v>
       </c>
       <c r="D101" t="s">
-        <v>4071</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>3767</v>
+        <v>4902</v>
       </c>
       <c r="B102" t="s">
-        <v>3911</v>
+        <v>5048</v>
       </c>
       <c r="C102" t="s">
-        <v>3985</v>
+        <v>5125</v>
       </c>
       <c r="D102" t="s">
-        <v>4072</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>3768</v>
+        <v>4903</v>
       </c>
       <c r="B103" t="s">
-        <v>3912</v>
+        <v>5049</v>
       </c>
       <c r="C103" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D103" t="s">
-        <v>4073</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>3769</v>
+        <v>4904</v>
       </c>
       <c r="B104" t="s">
-        <v>3913</v>
+        <v>5050</v>
       </c>
       <c r="C104" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D104" t="s">
-        <v>4074</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>3770</v>
+        <v>4905</v>
       </c>
       <c r="B105" t="s">
-        <v>3914</v>
+        <v>5051</v>
       </c>
       <c r="C105" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D105" t="s">
-        <v>4075</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>3771</v>
+        <v>4906</v>
       </c>
       <c r="B106" t="s">
-        <v>3915</v>
+        <v>5052</v>
       </c>
       <c r="C106" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D106" t="s">
-        <v>4076</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>3772</v>
+        <v>4907</v>
       </c>
       <c r="B107" t="s">
-        <v>3916</v>
+        <v>5053</v>
       </c>
       <c r="C107" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D107" t="s">
-        <v>4077</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>3773</v>
+        <v>4908</v>
       </c>
       <c r="B108" t="s">
-        <v>3917</v>
+        <v>5054</v>
       </c>
       <c r="C108" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D108" t="s">
-        <v>4078</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>3774</v>
+        <v>4909</v>
       </c>
       <c r="B109" t="s">
-        <v>3917</v>
+        <v>5055</v>
       </c>
       <c r="C109" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D109" t="s">
-        <v>4079</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>3775</v>
+        <v>4910</v>
       </c>
       <c r="B110" t="s">
-        <v>3918</v>
+        <v>5056</v>
       </c>
       <c r="C110" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D110" t="s">
-        <v>4080</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>3776</v>
+        <v>4911</v>
       </c>
       <c r="B111" t="s">
-        <v>3918</v>
+        <v>5056</v>
       </c>
       <c r="C111" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D111" t="s">
-        <v>4081</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>3777</v>
+        <v>4912</v>
       </c>
       <c r="B112" t="s">
-        <v>3919</v>
+        <v>5057</v>
       </c>
       <c r="C112" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D112" t="s">
-        <v>4082</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>3778</v>
+        <v>4913</v>
       </c>
       <c r="B113" t="s">
-        <v>3919</v>
+        <v>5057</v>
       </c>
       <c r="C113" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D113" t="s">
-        <v>4083</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>3779</v>
+        <v>4914</v>
       </c>
       <c r="B114" t="s">
-        <v>3920</v>
+        <v>5058</v>
       </c>
       <c r="C114" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D114" t="s">
-        <v>4084</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>3780</v>
+        <v>4915</v>
       </c>
       <c r="B115" t="s">
-        <v>3920</v>
+        <v>5058</v>
       </c>
       <c r="C115" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D115" t="s">
-        <v>4085</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>3781</v>
+        <v>4916</v>
       </c>
       <c r="B116" t="s">
-        <v>3921</v>
+        <v>5059</v>
       </c>
       <c r="C116" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D116" t="s">
-        <v>4086</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>3782</v>
+        <v>4917</v>
       </c>
       <c r="B117" t="s">
-        <v>3922</v>
+        <v>5059</v>
       </c>
       <c r="C117" t="s">
-        <v>3985</v>
+        <v>5126</v>
       </c>
       <c r="D117" t="s">
-        <v>4087</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>3783</v>
+        <v>4918</v>
       </c>
       <c r="B118" t="s">
-        <v>3923</v>
+        <v>5060</v>
       </c>
       <c r="C118" t="s">
-        <v>3986</v>
+        <v>5126</v>
       </c>
       <c r="D118" t="s">
-        <v>4088</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>3784</v>
+        <v>4919</v>
       </c>
       <c r="B119" t="s">
-        <v>3924</v>
+        <v>5061</v>
       </c>
       <c r="C119" t="s">
-        <v>3987</v>
+        <v>5126</v>
       </c>
       <c r="D119" t="s">
-        <v>4089</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>3785</v>
+        <v>4920</v>
       </c>
       <c r="B120" t="s">
-        <v>3925</v>
+        <v>5062</v>
       </c>
       <c r="C120" t="s">
-        <v>3987</v>
+        <v>5127</v>
       </c>
       <c r="D120" t="s">
-        <v>4090</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>3786</v>
+        <v>4921</v>
       </c>
       <c r="B121" t="s">
-        <v>3926</v>
+        <v>5063</v>
       </c>
       <c r="C121" t="s">
-        <v>3988</v>
+        <v>5128</v>
       </c>
       <c r="D121" t="s">
-        <v>4091</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>3787</v>
+        <v>4922</v>
       </c>
       <c r="B122" t="s">
-        <v>3927</v>
+        <v>5064</v>
       </c>
       <c r="C122" t="s">
-        <v>3989</v>
+        <v>5128</v>
       </c>
       <c r="D122" t="s">
-        <v>4092</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>3788</v>
+        <v>4923</v>
       </c>
       <c r="B123" t="s">
-        <v>3928</v>
+        <v>5065</v>
       </c>
       <c r="C123" t="s">
-        <v>3989</v>
+        <v>5129</v>
       </c>
       <c r="D123" t="s">
-        <v>4093</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>3789</v>
+        <v>4924</v>
       </c>
       <c r="B124" t="s">
-        <v>3929</v>
+        <v>5066</v>
       </c>
       <c r="C124" t="s">
-        <v>3989</v>
+        <v>5130</v>
       </c>
       <c r="D124" t="s">
-        <v>4094</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>3790</v>
+        <v>4925</v>
       </c>
       <c r="B125" t="s">
-        <v>3930</v>
+        <v>5067</v>
       </c>
       <c r="C125" t="s">
-        <v>3989</v>
+        <v>5130</v>
       </c>
       <c r="D125" t="s">
-        <v>4095</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>3791</v>
+        <v>4926</v>
       </c>
       <c r="B126" t="s">
-        <v>3931</v>
+        <v>5068</v>
       </c>
       <c r="C126" t="s">
-        <v>3989</v>
+        <v>5130</v>
       </c>
       <c r="D126" t="s">
-        <v>4096</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>3792</v>
+        <v>4927</v>
       </c>
       <c r="B127" t="s">
-        <v>3932</v>
+        <v>5069</v>
       </c>
       <c r="C127" t="s">
-        <v>3989</v>
+        <v>5130</v>
       </c>
       <c r="D127" t="s">
-        <v>4097</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>3793</v>
+        <v>4928</v>
       </c>
       <c r="B128" t="s">
-        <v>3933</v>
+        <v>5070</v>
       </c>
       <c r="C128" t="s">
-        <v>3989</v>
+        <v>5130</v>
       </c>
       <c r="D128" t="s">
-        <v>4098</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>3794</v>
+        <v>4929</v>
       </c>
       <c r="B129" t="s">
-        <v>3934</v>
+        <v>5071</v>
       </c>
       <c r="C129" t="s">
-        <v>3990</v>
+        <v>5130</v>
       </c>
       <c r="D129" t="s">
-        <v>4099</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>3795</v>
+        <v>4930</v>
       </c>
       <c r="B130" t="s">
-        <v>3935</v>
+        <v>5072</v>
       </c>
       <c r="C130" t="s">
-        <v>3991</v>
+        <v>5130</v>
       </c>
       <c r="D130" t="s">
-        <v>4100</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>3796</v>
+        <v>4931</v>
       </c>
       <c r="B131" t="s">
-        <v>3936</v>
+        <v>5073</v>
       </c>
       <c r="C131" t="s">
-        <v>3992</v>
+        <v>5131</v>
       </c>
       <c r="D131" t="s">
-        <v>4101</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>3797</v>
+        <v>4932</v>
       </c>
       <c r="B132" t="s">
-        <v>3937</v>
+        <v>5074</v>
       </c>
       <c r="C132" t="s">
-        <v>3992</v>
+        <v>5132</v>
       </c>
       <c r="D132" t="s">
-        <v>4102</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>3798</v>
+        <v>4933</v>
       </c>
       <c r="B133" t="s">
-        <v>3938</v>
+        <v>5075</v>
       </c>
       <c r="C133" t="s">
-        <v>3992</v>
+        <v>5133</v>
       </c>
       <c r="D133" t="s">
-        <v>4103</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>3799</v>
+        <v>4934</v>
       </c>
       <c r="B134" t="s">
-        <v>3939</v>
+        <v>5076</v>
       </c>
       <c r="C134" t="s">
-        <v>3992</v>
+        <v>5133</v>
       </c>
       <c r="D134" t="s">
-        <v>4104</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>3800</v>
+        <v>4935</v>
       </c>
       <c r="B135" t="s">
-        <v>3940</v>
+        <v>5077</v>
       </c>
       <c r="C135" t="s">
-        <v>3992</v>
+        <v>5133</v>
       </c>
       <c r="D135" t="s">
-        <v>4105</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>3801</v>
+        <v>4936</v>
       </c>
       <c r="B136" t="s">
-        <v>3941</v>
+        <v>5078</v>
       </c>
       <c r="C136" t="s">
-        <v>3992</v>
+        <v>5133</v>
       </c>
       <c r="D136" t="s">
-        <v>4106</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>3802</v>
+        <v>4937</v>
       </c>
       <c r="B137" t="s">
-        <v>3942</v>
+        <v>5079</v>
       </c>
       <c r="C137" t="s">
-        <v>3992</v>
+        <v>5133</v>
       </c>
       <c r="D137" t="s">
-        <v>4107</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>3803</v>
+        <v>4938</v>
       </c>
       <c r="B138" t="s">
-        <v>3943</v>
+        <v>5080</v>
       </c>
       <c r="C138" t="s">
-        <v>3992</v>
+        <v>5133</v>
       </c>
       <c r="D138" t="s">
-        <v>4108</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>3804</v>
+        <v>4939</v>
       </c>
       <c r="B139" t="s">
-        <v>3944</v>
+        <v>5081</v>
       </c>
       <c r="C139" t="s">
-        <v>3993</v>
+        <v>5133</v>
       </c>
       <c r="D139" t="s">
-        <v>4109</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>3805</v>
+        <v>4940</v>
       </c>
       <c r="B140" t="s">
-        <v>3945</v>
+        <v>5082</v>
       </c>
       <c r="C140" t="s">
-        <v>3994</v>
+        <v>5133</v>
       </c>
       <c r="D140" t="s">
-        <v>4110</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>3806</v>
+        <v>4941</v>
       </c>
       <c r="B141" t="s">
-        <v>3946</v>
+        <v>5083</v>
       </c>
       <c r="C141" t="s">
-        <v>3994</v>
+        <v>5134</v>
       </c>
       <c r="D141" t="s">
-        <v>4111</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>3807</v>
+        <v>4942</v>
       </c>
       <c r="B142" t="s">
-        <v>3947</v>
+        <v>5084</v>
       </c>
       <c r="C142" t="s">
-        <v>3994</v>
+        <v>5135</v>
       </c>
       <c r="D142" t="s">
-        <v>4112</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>3808</v>
+        <v>4943</v>
       </c>
       <c r="B143" t="s">
-        <v>3948</v>
+        <v>5085</v>
       </c>
       <c r="C143" t="s">
-        <v>3994</v>
+        <v>5135</v>
       </c>
       <c r="D143" t="s">
-        <v>4113</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>3809</v>
+        <v>4944</v>
       </c>
       <c r="B144" t="s">
-        <v>3949</v>
+        <v>5086</v>
       </c>
       <c r="C144" t="s">
-        <v>3995</v>
+        <v>5135</v>
       </c>
       <c r="D144" t="s">
-        <v>4114</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>3810</v>
+        <v>4945</v>
       </c>
       <c r="B145" t="s">
-        <v>3950</v>
+        <v>5087</v>
       </c>
       <c r="C145" t="s">
-        <v>3996</v>
+        <v>5135</v>
       </c>
       <c r="D145" t="s">
-        <v>4115</v>
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5088</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5136</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5089</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5137</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5258</v>
       </c>
     </row>
   </sheetData>
@@ -14747,480 +18393,821 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C74"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4116</v>
+        <v>5259</v>
       </c>
       <c r="B1" t="s">
-        <v>4132</v>
+        <v>5277</v>
       </c>
       <c r="C1" t="s">
-        <v>4174</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4117</v>
+        <v>5260</v>
       </c>
       <c r="B2" t="s">
-        <v>4133</v>
+        <v>5278</v>
       </c>
       <c r="C2" t="s">
-        <v>4175</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4117</v>
+        <v>5260</v>
       </c>
       <c r="B3" t="s">
-        <v>4134</v>
+        <v>5279</v>
       </c>
       <c r="C3" t="s">
-        <v>4176</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4117</v>
+        <v>5260</v>
       </c>
       <c r="B4" t="s">
-        <v>4135</v>
+        <v>5280</v>
       </c>
       <c r="C4" t="s">
-        <v>4177</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4117</v>
+        <v>5260</v>
       </c>
       <c r="B5" t="s">
-        <v>4136</v>
+        <v>5281</v>
       </c>
       <c r="C5" t="s">
-        <v>4178</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4118</v>
+        <v>5261</v>
       </c>
       <c r="B6" t="s">
-        <v>4137</v>
+        <v>5282</v>
       </c>
       <c r="C6" t="s">
-        <v>4179</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4118</v>
+        <v>5261</v>
       </c>
       <c r="B7" t="s">
-        <v>4138</v>
+        <v>5283</v>
       </c>
       <c r="C7" t="s">
-        <v>4180</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4119</v>
+        <v>5262</v>
       </c>
       <c r="B8" t="s">
-        <v>4139</v>
+        <v>5284</v>
       </c>
       <c r="C8" t="s">
-        <v>4181</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4119</v>
+        <v>5262</v>
       </c>
       <c r="B9" t="s">
-        <v>4140</v>
+        <v>5285</v>
       </c>
       <c r="C9" t="s">
-        <v>4182</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4119</v>
+        <v>5262</v>
       </c>
       <c r="B10" t="s">
-        <v>4141</v>
+        <v>5286</v>
       </c>
       <c r="C10" t="s">
-        <v>4183</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4120</v>
+        <v>5263</v>
       </c>
       <c r="B11" t="s">
-        <v>4142</v>
+        <v>5287</v>
       </c>
       <c r="C11" t="s">
-        <v>4184</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4120</v>
+        <v>5263</v>
       </c>
       <c r="B12" t="s">
-        <v>4143</v>
+        <v>5288</v>
       </c>
       <c r="C12" t="s">
-        <v>4185</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4120</v>
+        <v>5263</v>
       </c>
       <c r="B13" t="s">
-        <v>4144</v>
+        <v>5289</v>
       </c>
       <c r="C13" t="s">
-        <v>4186</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4120</v>
+        <v>5263</v>
       </c>
       <c r="B14" t="s">
-        <v>4145</v>
+        <v>5290</v>
       </c>
       <c r="C14" t="s">
-        <v>4187</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4120</v>
+        <v>5263</v>
       </c>
       <c r="B15" t="s">
-        <v>4146</v>
+        <v>5291</v>
       </c>
       <c r="C15" t="s">
-        <v>4188</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4120</v>
+        <v>5263</v>
       </c>
       <c r="B16" t="s">
-        <v>4147</v>
+        <v>5292</v>
       </c>
       <c r="C16" t="s">
-        <v>4189</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4121</v>
+        <v>5264</v>
       </c>
       <c r="B17" t="s">
-        <v>4148</v>
+        <v>5293</v>
       </c>
       <c r="C17" t="s">
-        <v>4190</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4121</v>
+        <v>5264</v>
       </c>
       <c r="B18" t="s">
-        <v>4149</v>
+        <v>5294</v>
       </c>
       <c r="C18" t="s">
-        <v>4191</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4122</v>
+        <v>5265</v>
       </c>
       <c r="B19" t="s">
-        <v>4150</v>
+        <v>5295</v>
       </c>
       <c r="C19" t="s">
-        <v>4192</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4122</v>
+        <v>5265</v>
       </c>
       <c r="B20" t="s">
-        <v>4151</v>
+        <v>5296</v>
       </c>
       <c r="C20" t="s">
-        <v>4193</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4123</v>
+        <v>5266</v>
       </c>
       <c r="B21" t="s">
-        <v>4152</v>
+        <v>5296</v>
       </c>
       <c r="C21" t="s">
-        <v>4194</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4123</v>
+        <v>5266</v>
       </c>
       <c r="B22" t="s">
-        <v>4153</v>
+        <v>5297</v>
       </c>
       <c r="C22" t="s">
-        <v>4195</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4124</v>
+        <v>5266</v>
       </c>
       <c r="B23" t="s">
-        <v>4153</v>
+        <v>5298</v>
       </c>
       <c r="C23" t="s">
-        <v>4196</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4124</v>
+        <v>5266</v>
       </c>
       <c r="B24" t="s">
-        <v>4154</v>
+        <v>5299</v>
       </c>
       <c r="C24" t="s">
-        <v>4197</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4124</v>
+        <v>5266</v>
       </c>
       <c r="B25" t="s">
-        <v>4155</v>
+        <v>5300</v>
       </c>
       <c r="C25" t="s">
-        <v>4198</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4125</v>
+        <v>5266</v>
       </c>
       <c r="B26" t="s">
-        <v>4156</v>
+        <v>5301</v>
       </c>
       <c r="C26" t="s">
-        <v>4199</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4125</v>
+        <v>5266</v>
       </c>
       <c r="B27" t="s">
-        <v>4157</v>
+        <v>5302</v>
       </c>
       <c r="C27" t="s">
-        <v>4200</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4125</v>
+        <v>5266</v>
       </c>
       <c r="B28" t="s">
-        <v>4158</v>
+        <v>5303</v>
       </c>
       <c r="C28" t="s">
-        <v>4201</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4126</v>
+        <v>5266</v>
       </c>
       <c r="B29" t="s">
-        <v>4159</v>
+        <v>5304</v>
       </c>
       <c r="C29" t="s">
-        <v>4202</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4126</v>
+        <v>5266</v>
       </c>
       <c r="B30" t="s">
-        <v>4160</v>
+        <v>5305</v>
       </c>
       <c r="C30" t="s">
-        <v>4203</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4127</v>
+        <v>5266</v>
       </c>
       <c r="B31" t="s">
-        <v>4161</v>
+        <v>5306</v>
       </c>
       <c r="C31" t="s">
-        <v>4204</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4127</v>
+        <v>5266</v>
       </c>
       <c r="B32" t="s">
-        <v>4162</v>
+        <v>5307</v>
       </c>
       <c r="C32" t="s">
-        <v>4205</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4128</v>
+        <v>5266</v>
       </c>
       <c r="B33" t="s">
-        <v>4163</v>
+        <v>5308</v>
       </c>
       <c r="C33" t="s">
-        <v>4206</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4128</v>
+        <v>5266</v>
       </c>
       <c r="B34" t="s">
-        <v>4164</v>
+        <v>5309</v>
       </c>
       <c r="C34" t="s">
-        <v>4207</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4129</v>
+        <v>5266</v>
       </c>
       <c r="B35" t="s">
-        <v>4165</v>
+        <v>5310</v>
       </c>
       <c r="C35" t="s">
-        <v>4208</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4129</v>
+        <v>5267</v>
       </c>
       <c r="B36" t="s">
-        <v>4166</v>
+        <v>5311</v>
       </c>
       <c r="C36" t="s">
-        <v>4209</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4130</v>
+        <v>5267</v>
       </c>
       <c r="B37" t="s">
-        <v>4167</v>
+        <v>5312</v>
       </c>
       <c r="C37" t="s">
-        <v>4210</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>4130</v>
+        <v>5268</v>
       </c>
       <c r="B38" t="s">
-        <v>4168</v>
+        <v>5312</v>
       </c>
       <c r="C38" t="s">
-        <v>4211</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4130</v>
+        <v>5268</v>
       </c>
       <c r="B39" t="s">
-        <v>4169</v>
+        <v>5313</v>
       </c>
       <c r="C39" t="s">
-        <v>4212</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>4130</v>
+        <v>5268</v>
       </c>
       <c r="B40" t="s">
-        <v>4170</v>
+        <v>5314</v>
       </c>
       <c r="C40" t="s">
-        <v>4213</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4130</v>
+        <v>5269</v>
       </c>
       <c r="B41" t="s">
-        <v>4171</v>
+        <v>5315</v>
       </c>
       <c r="C41" t="s">
-        <v>4214</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4131</v>
+        <v>5269</v>
       </c>
       <c r="B42" t="s">
-        <v>4172</v>
+        <v>5316</v>
       </c>
       <c r="C42" t="s">
-        <v>4215</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>4131</v>
+        <v>5269</v>
       </c>
       <c r="B43" t="s">
-        <v>4173</v>
+        <v>5317</v>
       </c>
       <c r="C43" t="s">
-        <v>4216</v>
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5318</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5319</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5320</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5321</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5322</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5323</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5324</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5326</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5327</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5330</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5331</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5332</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5333</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5334</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5335</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5336</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5338</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5339</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5340</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5342</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5343</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5345</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5346</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5347</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5348</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5422</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8001" uniqueCount="5423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9621" uniqueCount="6667">
   <si>
     <t>name</t>
   </si>
@@ -14363,6 +14363,3738 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Age 3+</t>
@@ -16331,2060 +20063,2060 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4801</v>
+        <v>6045</v>
       </c>
       <c r="B1" t="s">
-        <v>4948</v>
+        <v>6192</v>
       </c>
       <c r="C1" t="s">
-        <v>5090</v>
+        <v>6334</v>
       </c>
       <c r="D1" t="s">
-        <v>5138</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4802</v>
+        <v>6046</v>
       </c>
       <c r="B2" t="s">
-        <v>4949</v>
+        <v>6193</v>
       </c>
       <c r="C2" t="s">
-        <v>5091</v>
+        <v>6335</v>
       </c>
       <c r="D2" t="s">
-        <v>5139</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4803</v>
+        <v>6047</v>
       </c>
       <c r="B3" t="s">
-        <v>4950</v>
+        <v>6194</v>
       </c>
       <c r="C3" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D3" t="s">
-        <v>5140</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4804</v>
+        <v>6048</v>
       </c>
       <c r="B4" t="s">
-        <v>4951</v>
+        <v>6195</v>
       </c>
       <c r="C4" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D4" t="s">
-        <v>5141</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4805</v>
+        <v>6049</v>
       </c>
       <c r="B5" t="s">
-        <v>4952</v>
+        <v>6196</v>
       </c>
       <c r="C5" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D5" t="s">
-        <v>5142</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4806</v>
+        <v>6050</v>
       </c>
       <c r="B6" t="s">
-        <v>4953</v>
+        <v>6197</v>
       </c>
       <c r="C6" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D6" t="s">
-        <v>5143</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4807</v>
+        <v>6051</v>
       </c>
       <c r="B7" t="s">
-        <v>4954</v>
+        <v>6198</v>
       </c>
       <c r="C7" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D7" t="s">
-        <v>5144</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4808</v>
+        <v>6052</v>
       </c>
       <c r="B8" t="s">
-        <v>4955</v>
+        <v>6199</v>
       </c>
       <c r="C8" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D8" t="s">
-        <v>5145</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4809</v>
+        <v>6053</v>
       </c>
       <c r="B9" t="s">
-        <v>4956</v>
+        <v>6200</v>
       </c>
       <c r="C9" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D9" t="s">
-        <v>5146</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4810</v>
+        <v>6054</v>
       </c>
       <c r="B10" t="s">
-        <v>4957</v>
+        <v>6201</v>
       </c>
       <c r="C10" t="s">
-        <v>5092</v>
+        <v>6336</v>
       </c>
       <c r="D10" t="s">
-        <v>5147</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4811</v>
+        <v>6055</v>
       </c>
       <c r="B11" t="s">
-        <v>4958</v>
+        <v>6202</v>
       </c>
       <c r="C11" t="s">
-        <v>5093</v>
+        <v>6337</v>
       </c>
       <c r="D11" t="s">
-        <v>5148</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4812</v>
+        <v>6056</v>
       </c>
       <c r="B12" t="s">
-        <v>4959</v>
+        <v>6203</v>
       </c>
       <c r="C12" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D12" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4813</v>
+        <v>6057</v>
       </c>
       <c r="B13" t="s">
-        <v>4960</v>
+        <v>6204</v>
       </c>
       <c r="C13" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D13" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4814</v>
+        <v>6058</v>
       </c>
       <c r="B14" t="s">
-        <v>4961</v>
+        <v>6205</v>
       </c>
       <c r="C14" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D14" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4815</v>
+        <v>6059</v>
       </c>
       <c r="B15" t="s">
-        <v>4962</v>
+        <v>6206</v>
       </c>
       <c r="C15" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D15" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4816</v>
+        <v>6060</v>
       </c>
       <c r="B16" t="s">
-        <v>4963</v>
+        <v>6207</v>
       </c>
       <c r="C16" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D16" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4817</v>
+        <v>6061</v>
       </c>
       <c r="B17" t="s">
-        <v>4964</v>
+        <v>6208</v>
       </c>
       <c r="C17" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D17" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4818</v>
+        <v>6062</v>
       </c>
       <c r="B18" t="s">
-        <v>4965</v>
+        <v>6209</v>
       </c>
       <c r="C18" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D18" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4819</v>
+        <v>6063</v>
       </c>
       <c r="B19" t="s">
-        <v>4966</v>
+        <v>6210</v>
       </c>
       <c r="C19" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D19" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4820</v>
+        <v>6064</v>
       </c>
       <c r="B20" t="s">
-        <v>4967</v>
+        <v>6211</v>
       </c>
       <c r="C20" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D20" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4821</v>
+        <v>6065</v>
       </c>
       <c r="B21" t="s">
-        <v>4968</v>
+        <v>6212</v>
       </c>
       <c r="C21" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D21" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4822</v>
+        <v>6066</v>
       </c>
       <c r="B22" t="s">
-        <v>4969</v>
+        <v>6213</v>
       </c>
       <c r="C22" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D22" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4823</v>
+        <v>6067</v>
       </c>
       <c r="B23" t="s">
-        <v>4970</v>
+        <v>6214</v>
       </c>
       <c r="C23" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D23" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4824</v>
+        <v>6068</v>
       </c>
       <c r="B24" t="s">
-        <v>4971</v>
+        <v>6215</v>
       </c>
       <c r="C24" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D24" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4825</v>
+        <v>6069</v>
       </c>
       <c r="B25" t="s">
-        <v>4972</v>
+        <v>6216</v>
       </c>
       <c r="C25" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D25" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4826</v>
+        <v>6070</v>
       </c>
       <c r="B26" t="s">
-        <v>4973</v>
+        <v>6217</v>
       </c>
       <c r="C26" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D26" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4827</v>
+        <v>6071</v>
       </c>
       <c r="B27" t="s">
-        <v>4974</v>
+        <v>6218</v>
       </c>
       <c r="C27" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D27" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4828</v>
+        <v>6072</v>
       </c>
       <c r="B28" t="s">
-        <v>4975</v>
+        <v>6219</v>
       </c>
       <c r="C28" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D28" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4829</v>
+        <v>6073</v>
       </c>
       <c r="B29" t="s">
-        <v>4976</v>
+        <v>6220</v>
       </c>
       <c r="C29" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D29" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4830</v>
+        <v>6074</v>
       </c>
       <c r="B30" t="s">
-        <v>4977</v>
+        <v>6221</v>
       </c>
       <c r="C30" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D30" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4831</v>
+        <v>6075</v>
       </c>
       <c r="B31" t="s">
-        <v>4978</v>
+        <v>6222</v>
       </c>
       <c r="C31" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D31" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4832</v>
+        <v>6076</v>
       </c>
       <c r="B32" t="s">
-        <v>4979</v>
+        <v>6223</v>
       </c>
       <c r="C32" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D32" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4833</v>
+        <v>6077</v>
       </c>
       <c r="B33" t="s">
-        <v>4980</v>
+        <v>6224</v>
       </c>
       <c r="C33" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D33" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4834</v>
+        <v>6078</v>
       </c>
       <c r="B34" t="s">
-        <v>4981</v>
+        <v>6225</v>
       </c>
       <c r="C34" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D34" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4835</v>
+        <v>6079</v>
       </c>
       <c r="B35" t="s">
-        <v>4982</v>
+        <v>6226</v>
       </c>
       <c r="C35" t="s">
-        <v>5094</v>
+        <v>6338</v>
       </c>
       <c r="D35" t="s">
-        <v>5149</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4836</v>
+        <v>6080</v>
       </c>
       <c r="B36" t="s">
-        <v>4983</v>
+        <v>6227</v>
       </c>
       <c r="C36" t="s">
-        <v>5095</v>
+        <v>6339</v>
       </c>
       <c r="D36" t="s">
-        <v>5150</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4837</v>
+        <v>6081</v>
       </c>
       <c r="B37" t="s">
-        <v>4984</v>
+        <v>6228</v>
       </c>
       <c r="C37" t="s">
-        <v>5095</v>
+        <v>6339</v>
       </c>
       <c r="D37" t="s">
-        <v>5151</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>4838</v>
+        <v>6082</v>
       </c>
       <c r="B38" t="s">
-        <v>4985</v>
+        <v>6229</v>
       </c>
       <c r="C38" t="s">
-        <v>5096</v>
+        <v>6340</v>
       </c>
       <c r="D38" t="s">
-        <v>5152</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4839</v>
+        <v>6083</v>
       </c>
       <c r="B39" t="s">
-        <v>4986</v>
+        <v>6230</v>
       </c>
       <c r="C39" t="s">
-        <v>5097</v>
+        <v>6341</v>
       </c>
       <c r="D39" t="s">
-        <v>5153</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>4840</v>
+        <v>6084</v>
       </c>
       <c r="B40" t="s">
-        <v>4987</v>
+        <v>6231</v>
       </c>
       <c r="C40" t="s">
-        <v>5097</v>
+        <v>6341</v>
       </c>
       <c r="D40" t="s">
-        <v>5154</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4841</v>
+        <v>6085</v>
       </c>
       <c r="B41" t="s">
-        <v>4988</v>
+        <v>6232</v>
       </c>
       <c r="C41" t="s">
-        <v>5098</v>
+        <v>6342</v>
       </c>
       <c r="D41" t="s">
-        <v>5155</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4842</v>
+        <v>6086</v>
       </c>
       <c r="B42" t="s">
-        <v>4989</v>
+        <v>6233</v>
       </c>
       <c r="C42" t="s">
-        <v>5098</v>
+        <v>6342</v>
       </c>
       <c r="D42" t="s">
-        <v>5156</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>4843</v>
+        <v>6087</v>
       </c>
       <c r="B43" t="s">
-        <v>4990</v>
+        <v>6234</v>
       </c>
       <c r="C43" t="s">
-        <v>5099</v>
+        <v>6343</v>
       </c>
       <c r="D43" t="s">
-        <v>5157</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4844</v>
+        <v>6088</v>
       </c>
       <c r="B44" t="s">
-        <v>4991</v>
+        <v>6235</v>
       </c>
       <c r="C44" t="s">
-        <v>5099</v>
+        <v>6343</v>
       </c>
       <c r="D44" t="s">
-        <v>5158</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4845</v>
+        <v>6089</v>
       </c>
       <c r="B45" t="s">
-        <v>4992</v>
+        <v>6236</v>
       </c>
       <c r="C45" t="s">
-        <v>5099</v>
+        <v>6343</v>
       </c>
       <c r="D45" t="s">
-        <v>5159</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>4846</v>
+        <v>6090</v>
       </c>
       <c r="B46" t="s">
-        <v>4993</v>
+        <v>6237</v>
       </c>
       <c r="C46" t="s">
-        <v>5099</v>
+        <v>6343</v>
       </c>
       <c r="D46" t="s">
-        <v>5160</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>4847</v>
+        <v>6091</v>
       </c>
       <c r="B47" t="s">
-        <v>4994</v>
+        <v>6238</v>
       </c>
       <c r="C47" t="s">
-        <v>5099</v>
+        <v>6343</v>
       </c>
       <c r="D47" t="s">
-        <v>5161</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4848</v>
+        <v>6092</v>
       </c>
       <c r="B48" t="s">
-        <v>4995</v>
+        <v>6239</v>
       </c>
       <c r="C48" t="s">
-        <v>5100</v>
+        <v>6344</v>
       </c>
       <c r="D48" t="s">
-        <v>5162</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>4849</v>
+        <v>6093</v>
       </c>
       <c r="B49" t="s">
-        <v>4996</v>
+        <v>6240</v>
       </c>
       <c r="C49" t="s">
-        <v>5100</v>
+        <v>6344</v>
       </c>
       <c r="D49" t="s">
-        <v>5163</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>4850</v>
+        <v>6094</v>
       </c>
       <c r="B50" t="s">
-        <v>4997</v>
+        <v>6241</v>
       </c>
       <c r="C50" t="s">
-        <v>5100</v>
+        <v>6344</v>
       </c>
       <c r="D50" t="s">
-        <v>5164</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>4851</v>
+        <v>6095</v>
       </c>
       <c r="B51" t="s">
-        <v>4998</v>
+        <v>6242</v>
       </c>
       <c r="C51" t="s">
-        <v>5100</v>
+        <v>6344</v>
       </c>
       <c r="D51" t="s">
-        <v>5165</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>4852</v>
+        <v>6096</v>
       </c>
       <c r="B52" t="s">
-        <v>4999</v>
+        <v>6243</v>
       </c>
       <c r="C52" t="s">
-        <v>5100</v>
+        <v>6344</v>
       </c>
       <c r="D52" t="s">
-        <v>5166</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4853</v>
+        <v>6097</v>
       </c>
       <c r="B53" t="s">
-        <v>5000</v>
+        <v>6244</v>
       </c>
       <c r="C53" t="s">
-        <v>5100</v>
+        <v>6344</v>
       </c>
       <c r="D53" t="s">
-        <v>5167</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>4854</v>
+        <v>6098</v>
       </c>
       <c r="B54" t="s">
-        <v>5001</v>
+        <v>6245</v>
       </c>
       <c r="C54" t="s">
-        <v>5101</v>
+        <v>6345</v>
       </c>
       <c r="D54" t="s">
-        <v>5168</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4855</v>
+        <v>6099</v>
       </c>
       <c r="B55" t="s">
-        <v>5002</v>
+        <v>6246</v>
       </c>
       <c r="C55" t="s">
-        <v>5102</v>
+        <v>6346</v>
       </c>
       <c r="D55" t="s">
-        <v>5169</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4856</v>
+        <v>6100</v>
       </c>
       <c r="B56" t="s">
-        <v>5003</v>
+        <v>6247</v>
       </c>
       <c r="C56" t="s">
-        <v>5102</v>
+        <v>6346</v>
       </c>
       <c r="D56" t="s">
-        <v>5170</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>4857</v>
+        <v>6101</v>
       </c>
       <c r="B57" t="s">
-        <v>5004</v>
+        <v>6248</v>
       </c>
       <c r="C57" t="s">
-        <v>5103</v>
+        <v>6347</v>
       </c>
       <c r="D57" t="s">
-        <v>5171</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>4858</v>
+        <v>6102</v>
       </c>
       <c r="B58" t="s">
-        <v>5005</v>
+        <v>6249</v>
       </c>
       <c r="C58" t="s">
-        <v>5103</v>
+        <v>6347</v>
       </c>
       <c r="D58" t="s">
-        <v>5172</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>4859</v>
+        <v>6103</v>
       </c>
       <c r="B59" t="s">
-        <v>5006</v>
+        <v>6250</v>
       </c>
       <c r="C59" t="s">
-        <v>5104</v>
+        <v>6348</v>
       </c>
       <c r="D59" t="s">
-        <v>5173</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>4860</v>
+        <v>6104</v>
       </c>
       <c r="B60" t="s">
-        <v>5007</v>
+        <v>6251</v>
       </c>
       <c r="C60" t="s">
-        <v>5105</v>
+        <v>6349</v>
       </c>
       <c r="D60" t="s">
-        <v>5174</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4861</v>
+        <v>6105</v>
       </c>
       <c r="B61" t="s">
-        <v>5008</v>
+        <v>6252</v>
       </c>
       <c r="C61" t="s">
-        <v>5105</v>
+        <v>6349</v>
       </c>
       <c r="D61" t="s">
-        <v>5174</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>4862</v>
+        <v>6106</v>
       </c>
       <c r="B62" t="s">
-        <v>5009</v>
+        <v>6253</v>
       </c>
       <c r="C62" t="s">
-        <v>5106</v>
+        <v>6350</v>
       </c>
       <c r="D62" t="s">
-        <v>5175</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>4863</v>
+        <v>6107</v>
       </c>
       <c r="B63" t="s">
-        <v>5010</v>
+        <v>6254</v>
       </c>
       <c r="C63" t="s">
-        <v>5107</v>
+        <v>6351</v>
       </c>
       <c r="D63" t="s">
-        <v>5176</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>4864</v>
+        <v>6108</v>
       </c>
       <c r="B64" t="s">
-        <v>5011</v>
+        <v>6255</v>
       </c>
       <c r="C64" t="s">
-        <v>5107</v>
+        <v>6351</v>
       </c>
       <c r="D64" t="s">
-        <v>5176</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>4865</v>
+        <v>6109</v>
       </c>
       <c r="B65" t="s">
-        <v>5012</v>
+        <v>6256</v>
       </c>
       <c r="C65" t="s">
-        <v>5108</v>
+        <v>6352</v>
       </c>
       <c r="D65" t="s">
-        <v>5177</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>4866</v>
+        <v>6110</v>
       </c>
       <c r="B66" t="s">
-        <v>5013</v>
+        <v>6257</v>
       </c>
       <c r="C66" t="s">
-        <v>5108</v>
+        <v>6352</v>
       </c>
       <c r="D66" t="s">
-        <v>5178</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>4867</v>
+        <v>6111</v>
       </c>
       <c r="B67" t="s">
-        <v>5014</v>
+        <v>6258</v>
       </c>
       <c r="C67" t="s">
-        <v>5109</v>
+        <v>6353</v>
       </c>
       <c r="D67" t="s">
-        <v>5179</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>4868</v>
+        <v>6112</v>
       </c>
       <c r="B68" t="s">
-        <v>5015</v>
+        <v>6259</v>
       </c>
       <c r="C68" t="s">
-        <v>5109</v>
+        <v>6353</v>
       </c>
       <c r="D68" t="s">
-        <v>5180</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>4869</v>
+        <v>6113</v>
       </c>
       <c r="B69" t="s">
-        <v>5015</v>
+        <v>6259</v>
       </c>
       <c r="C69" t="s">
-        <v>5109</v>
+        <v>6353</v>
       </c>
       <c r="D69" t="s">
-        <v>5181</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>4870</v>
+        <v>6114</v>
       </c>
       <c r="B70" t="s">
-        <v>5016</v>
+        <v>6260</v>
       </c>
       <c r="C70" t="s">
-        <v>5110</v>
+        <v>6354</v>
       </c>
       <c r="D70" t="s">
-        <v>5182</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>4871</v>
+        <v>6115</v>
       </c>
       <c r="B71" t="s">
-        <v>5017</v>
+        <v>6261</v>
       </c>
       <c r="C71" t="s">
-        <v>5111</v>
+        <v>6355</v>
       </c>
       <c r="D71" t="s">
-        <v>5183</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>4872</v>
+        <v>6116</v>
       </c>
       <c r="B72" t="s">
-        <v>5018</v>
+        <v>6262</v>
       </c>
       <c r="C72" t="s">
-        <v>5111</v>
+        <v>6355</v>
       </c>
       <c r="D72" t="s">
-        <v>5184</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>4873</v>
+        <v>6117</v>
       </c>
       <c r="B73" t="s">
-        <v>5019</v>
+        <v>6263</v>
       </c>
       <c r="C73" t="s">
-        <v>5111</v>
+        <v>6355</v>
       </c>
       <c r="D73" t="s">
-        <v>5184</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>4874</v>
+        <v>6118</v>
       </c>
       <c r="B74" t="s">
-        <v>5020</v>
+        <v>6264</v>
       </c>
       <c r="C74" t="s">
-        <v>5112</v>
+        <v>6356</v>
       </c>
       <c r="D74" t="s">
-        <v>5185</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>4875</v>
+        <v>6119</v>
       </c>
       <c r="B75" t="s">
-        <v>5021</v>
+        <v>6265</v>
       </c>
       <c r="C75" t="s">
-        <v>5113</v>
+        <v>6357</v>
       </c>
       <c r="D75" t="s">
-        <v>5186</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>4876</v>
+        <v>6120</v>
       </c>
       <c r="B76" t="s">
-        <v>5022</v>
+        <v>6266</v>
       </c>
       <c r="C76" t="s">
-        <v>5113</v>
+        <v>6357</v>
       </c>
       <c r="D76" t="s">
-        <v>5187</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>4877</v>
+        <v>6121</v>
       </c>
       <c r="B77" t="s">
-        <v>5023</v>
+        <v>6267</v>
       </c>
       <c r="C77" t="s">
-        <v>5113</v>
+        <v>6357</v>
       </c>
       <c r="D77" t="s">
-        <v>5188</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>4878</v>
+        <v>6122</v>
       </c>
       <c r="B78" t="s">
-        <v>5024</v>
+        <v>6268</v>
       </c>
       <c r="C78" t="s">
-        <v>5113</v>
+        <v>6357</v>
       </c>
       <c r="D78" t="s">
-        <v>5189</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>4879</v>
+        <v>6123</v>
       </c>
       <c r="B79" t="s">
-        <v>5025</v>
+        <v>6269</v>
       </c>
       <c r="C79" t="s">
-        <v>5113</v>
+        <v>6357</v>
       </c>
       <c r="D79" t="s">
-        <v>5190</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4880</v>
+        <v>6124</v>
       </c>
       <c r="B80" t="s">
-        <v>5026</v>
+        <v>6270</v>
       </c>
       <c r="C80" t="s">
-        <v>5114</v>
+        <v>6358</v>
       </c>
       <c r="D80" t="s">
-        <v>5191</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>4881</v>
+        <v>6125</v>
       </c>
       <c r="B81" t="s">
-        <v>5027</v>
+        <v>6271</v>
       </c>
       <c r="C81" t="s">
-        <v>5114</v>
+        <v>6358</v>
       </c>
       <c r="D81" t="s">
-        <v>5192</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>4882</v>
+        <v>6126</v>
       </c>
       <c r="B82" t="s">
-        <v>5028</v>
+        <v>6272</v>
       </c>
       <c r="C82" t="s">
-        <v>5115</v>
+        <v>6359</v>
       </c>
       <c r="D82" t="s">
-        <v>5193</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>4883</v>
+        <v>6127</v>
       </c>
       <c r="B83" t="s">
-        <v>5029</v>
+        <v>6273</v>
       </c>
       <c r="C83" t="s">
-        <v>5116</v>
+        <v>6360</v>
       </c>
       <c r="D83" t="s">
-        <v>5194</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>4884</v>
+        <v>6128</v>
       </c>
       <c r="B84" t="s">
-        <v>5030</v>
+        <v>6274</v>
       </c>
       <c r="C84" t="s">
-        <v>5117</v>
+        <v>6361</v>
       </c>
       <c r="D84" t="s">
-        <v>5195</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4885</v>
+        <v>6129</v>
       </c>
       <c r="B85" t="s">
-        <v>5031</v>
+        <v>6275</v>
       </c>
       <c r="C85" t="s">
-        <v>5118</v>
+        <v>6362</v>
       </c>
       <c r="D85" t="s">
-        <v>5196</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>4886</v>
+        <v>6130</v>
       </c>
       <c r="B86" t="s">
-        <v>5032</v>
+        <v>6276</v>
       </c>
       <c r="C86" t="s">
-        <v>5118</v>
+        <v>6362</v>
       </c>
       <c r="D86" t="s">
-        <v>5197</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>4887</v>
+        <v>6131</v>
       </c>
       <c r="B87" t="s">
-        <v>5033</v>
+        <v>6277</v>
       </c>
       <c r="C87" t="s">
-        <v>5119</v>
+        <v>6363</v>
       </c>
       <c r="D87" t="s">
-        <v>5198</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>4888</v>
+        <v>6132</v>
       </c>
       <c r="B88" t="s">
-        <v>5034</v>
+        <v>6278</v>
       </c>
       <c r="C88" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D88" t="s">
-        <v>5199</v>
+        <v>6443</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>4889</v>
+        <v>6133</v>
       </c>
       <c r="B89" t="s">
-        <v>5035</v>
+        <v>6279</v>
       </c>
       <c r="C89" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D89" t="s">
-        <v>5200</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>4890</v>
+        <v>6134</v>
       </c>
       <c r="B90" t="s">
-        <v>5036</v>
+        <v>6280</v>
       </c>
       <c r="C90" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D90" t="s">
-        <v>5201</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>4891</v>
+        <v>6135</v>
       </c>
       <c r="B91" t="s">
-        <v>5037</v>
+        <v>6281</v>
       </c>
       <c r="C91" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D91" t="s">
-        <v>5202</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>4892</v>
+        <v>6136</v>
       </c>
       <c r="B92" t="s">
-        <v>5038</v>
+        <v>6282</v>
       </c>
       <c r="C92" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D92" t="s">
-        <v>5203</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>4893</v>
+        <v>6137</v>
       </c>
       <c r="B93" t="s">
-        <v>5039</v>
+        <v>6283</v>
       </c>
       <c r="C93" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D93" t="s">
-        <v>5204</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>4894</v>
+        <v>6138</v>
       </c>
       <c r="B94" t="s">
-        <v>5040</v>
+        <v>6284</v>
       </c>
       <c r="C94" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D94" t="s">
-        <v>5205</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>4895</v>
+        <v>6139</v>
       </c>
       <c r="B95" t="s">
-        <v>5041</v>
+        <v>6285</v>
       </c>
       <c r="C95" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D95" t="s">
-        <v>5206</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>4896</v>
+        <v>6140</v>
       </c>
       <c r="B96" t="s">
-        <v>5042</v>
+        <v>6286</v>
       </c>
       <c r="C96" t="s">
-        <v>5120</v>
+        <v>6364</v>
       </c>
       <c r="D96" t="s">
-        <v>5207</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>4897</v>
+        <v>6141</v>
       </c>
       <c r="B97" t="s">
-        <v>5043</v>
+        <v>6287</v>
       </c>
       <c r="C97" t="s">
-        <v>5121</v>
+        <v>6365</v>
       </c>
       <c r="D97" t="s">
-        <v>5208</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4898</v>
+        <v>6142</v>
       </c>
       <c r="B98" t="s">
-        <v>5044</v>
+        <v>6288</v>
       </c>
       <c r="C98" t="s">
-        <v>5122</v>
+        <v>6366</v>
       </c>
       <c r="D98" t="s">
-        <v>5209</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>4899</v>
+        <v>6143</v>
       </c>
       <c r="B99" t="s">
-        <v>5045</v>
+        <v>6289</v>
       </c>
       <c r="C99" t="s">
-        <v>5123</v>
+        <v>6367</v>
       </c>
       <c r="D99" t="s">
-        <v>5210</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>4900</v>
+        <v>6144</v>
       </c>
       <c r="B100" t="s">
-        <v>5046</v>
+        <v>6290</v>
       </c>
       <c r="C100" t="s">
-        <v>5124</v>
+        <v>6368</v>
       </c>
       <c r="D100" t="s">
-        <v>5211</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>4901</v>
+        <v>6145</v>
       </c>
       <c r="B101" t="s">
-        <v>5047</v>
+        <v>6291</v>
       </c>
       <c r="C101" t="s">
-        <v>5125</v>
+        <v>6369</v>
       </c>
       <c r="D101" t="s">
-        <v>5212</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>4902</v>
+        <v>6146</v>
       </c>
       <c r="B102" t="s">
-        <v>5048</v>
+        <v>6292</v>
       </c>
       <c r="C102" t="s">
-        <v>5125</v>
+        <v>6369</v>
       </c>
       <c r="D102" t="s">
-        <v>5213</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>4903</v>
+        <v>6147</v>
       </c>
       <c r="B103" t="s">
-        <v>5049</v>
+        <v>6293</v>
       </c>
       <c r="C103" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D103" t="s">
-        <v>5214</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4904</v>
+        <v>6148</v>
       </c>
       <c r="B104" t="s">
-        <v>5050</v>
+        <v>6294</v>
       </c>
       <c r="C104" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D104" t="s">
-        <v>5215</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>4905</v>
+        <v>6149</v>
       </c>
       <c r="B105" t="s">
-        <v>5051</v>
+        <v>6295</v>
       </c>
       <c r="C105" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D105" t="s">
-        <v>5216</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4906</v>
+        <v>6150</v>
       </c>
       <c r="B106" t="s">
-        <v>5052</v>
+        <v>6296</v>
       </c>
       <c r="C106" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D106" t="s">
-        <v>5217</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>4907</v>
+        <v>6151</v>
       </c>
       <c r="B107" t="s">
-        <v>5053</v>
+        <v>6297</v>
       </c>
       <c r="C107" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D107" t="s">
-        <v>5218</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>4908</v>
+        <v>6152</v>
       </c>
       <c r="B108" t="s">
-        <v>5054</v>
+        <v>6298</v>
       </c>
       <c r="C108" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D108" t="s">
-        <v>5219</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>4909</v>
+        <v>6153</v>
       </c>
       <c r="B109" t="s">
-        <v>5055</v>
+        <v>6299</v>
       </c>
       <c r="C109" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D109" t="s">
-        <v>5220</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>4910</v>
+        <v>6154</v>
       </c>
       <c r="B110" t="s">
-        <v>5056</v>
+        <v>6300</v>
       </c>
       <c r="C110" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D110" t="s">
-        <v>5221</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>4911</v>
+        <v>6155</v>
       </c>
       <c r="B111" t="s">
-        <v>5056</v>
+        <v>6300</v>
       </c>
       <c r="C111" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D111" t="s">
-        <v>5222</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>4912</v>
+        <v>6156</v>
       </c>
       <c r="B112" t="s">
-        <v>5057</v>
+        <v>6301</v>
       </c>
       <c r="C112" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D112" t="s">
-        <v>5223</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>4913</v>
+        <v>6157</v>
       </c>
       <c r="B113" t="s">
-        <v>5057</v>
+        <v>6301</v>
       </c>
       <c r="C113" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D113" t="s">
-        <v>5224</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>4914</v>
+        <v>6158</v>
       </c>
       <c r="B114" t="s">
-        <v>5058</v>
+        <v>6302</v>
       </c>
       <c r="C114" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D114" t="s">
-        <v>5225</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>4915</v>
+        <v>6159</v>
       </c>
       <c r="B115" t="s">
-        <v>5058</v>
+        <v>6302</v>
       </c>
       <c r="C115" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D115" t="s">
-        <v>5226</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>4916</v>
+        <v>6160</v>
       </c>
       <c r="B116" t="s">
-        <v>5059</v>
+        <v>6303</v>
       </c>
       <c r="C116" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D116" t="s">
-        <v>5227</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>4917</v>
+        <v>6161</v>
       </c>
       <c r="B117" t="s">
-        <v>5059</v>
+        <v>6303</v>
       </c>
       <c r="C117" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D117" t="s">
-        <v>5228</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>4918</v>
+        <v>6162</v>
       </c>
       <c r="B118" t="s">
-        <v>5060</v>
+        <v>6304</v>
       </c>
       <c r="C118" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D118" t="s">
-        <v>5229</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>4919</v>
+        <v>6163</v>
       </c>
       <c r="B119" t="s">
-        <v>5061</v>
+        <v>6305</v>
       </c>
       <c r="C119" t="s">
-        <v>5126</v>
+        <v>6370</v>
       </c>
       <c r="D119" t="s">
-        <v>5230</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>4920</v>
+        <v>6164</v>
       </c>
       <c r="B120" t="s">
-        <v>5062</v>
+        <v>6306</v>
       </c>
       <c r="C120" t="s">
-        <v>5127</v>
+        <v>6371</v>
       </c>
       <c r="D120" t="s">
-        <v>5231</v>
+        <v>6475</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>4921</v>
+        <v>6165</v>
       </c>
       <c r="B121" t="s">
-        <v>5063</v>
+        <v>6307</v>
       </c>
       <c r="C121" t="s">
-        <v>5128</v>
+        <v>6372</v>
       </c>
       <c r="D121" t="s">
-        <v>5232</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>4922</v>
+        <v>6166</v>
       </c>
       <c r="B122" t="s">
-        <v>5064</v>
+        <v>6308</v>
       </c>
       <c r="C122" t="s">
-        <v>5128</v>
+        <v>6372</v>
       </c>
       <c r="D122" t="s">
-        <v>5233</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4923</v>
+        <v>6167</v>
       </c>
       <c r="B123" t="s">
-        <v>5065</v>
+        <v>6309</v>
       </c>
       <c r="C123" t="s">
-        <v>5129</v>
+        <v>6373</v>
       </c>
       <c r="D123" t="s">
-        <v>5234</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>4924</v>
+        <v>6168</v>
       </c>
       <c r="B124" t="s">
-        <v>5066</v>
+        <v>6310</v>
       </c>
       <c r="C124" t="s">
-        <v>5130</v>
+        <v>6374</v>
       </c>
       <c r="D124" t="s">
-        <v>5235</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>4925</v>
+        <v>6169</v>
       </c>
       <c r="B125" t="s">
-        <v>5067</v>
+        <v>6311</v>
       </c>
       <c r="C125" t="s">
-        <v>5130</v>
+        <v>6374</v>
       </c>
       <c r="D125" t="s">
-        <v>5236</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4926</v>
+        <v>6170</v>
       </c>
       <c r="B126" t="s">
-        <v>5068</v>
+        <v>6312</v>
       </c>
       <c r="C126" t="s">
-        <v>5130</v>
+        <v>6374</v>
       </c>
       <c r="D126" t="s">
-        <v>5237</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>4927</v>
+        <v>6171</v>
       </c>
       <c r="B127" t="s">
-        <v>5069</v>
+        <v>6313</v>
       </c>
       <c r="C127" t="s">
-        <v>5130</v>
+        <v>6374</v>
       </c>
       <c r="D127" t="s">
-        <v>5238</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>4928</v>
+        <v>6172</v>
       </c>
       <c r="B128" t="s">
-        <v>5070</v>
+        <v>6314</v>
       </c>
       <c r="C128" t="s">
-        <v>5130</v>
+        <v>6374</v>
       </c>
       <c r="D128" t="s">
-        <v>5239</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>4929</v>
+        <v>6173</v>
       </c>
       <c r="B129" t="s">
-        <v>5071</v>
+        <v>6315</v>
       </c>
       <c r="C129" t="s">
-        <v>5130</v>
+        <v>6374</v>
       </c>
       <c r="D129" t="s">
-        <v>5240</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>4930</v>
+        <v>6174</v>
       </c>
       <c r="B130" t="s">
-        <v>5072</v>
+        <v>6316</v>
       </c>
       <c r="C130" t="s">
-        <v>5130</v>
+        <v>6374</v>
       </c>
       <c r="D130" t="s">
-        <v>5241</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>4931</v>
+        <v>6175</v>
       </c>
       <c r="B131" t="s">
-        <v>5073</v>
+        <v>6317</v>
       </c>
       <c r="C131" t="s">
-        <v>5131</v>
+        <v>6375</v>
       </c>
       <c r="D131" t="s">
-        <v>5242</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>4932</v>
+        <v>6176</v>
       </c>
       <c r="B132" t="s">
-        <v>5074</v>
+        <v>6318</v>
       </c>
       <c r="C132" t="s">
-        <v>5132</v>
+        <v>6376</v>
       </c>
       <c r="D132" t="s">
-        <v>5243</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>4933</v>
+        <v>6177</v>
       </c>
       <c r="B133" t="s">
-        <v>5075</v>
+        <v>6319</v>
       </c>
       <c r="C133" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D133" t="s">
-        <v>5244</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>4934</v>
+        <v>6178</v>
       </c>
       <c r="B134" t="s">
-        <v>5076</v>
+        <v>6320</v>
       </c>
       <c r="C134" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D134" t="s">
-        <v>5245</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>4935</v>
+        <v>6179</v>
       </c>
       <c r="B135" t="s">
-        <v>5077</v>
+        <v>6321</v>
       </c>
       <c r="C135" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D135" t="s">
-        <v>5246</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>4936</v>
+        <v>6180</v>
       </c>
       <c r="B136" t="s">
-        <v>5078</v>
+        <v>6322</v>
       </c>
       <c r="C136" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D136" t="s">
-        <v>5247</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>4937</v>
+        <v>6181</v>
       </c>
       <c r="B137" t="s">
-        <v>5079</v>
+        <v>6323</v>
       </c>
       <c r="C137" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D137" t="s">
-        <v>5248</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>4938</v>
+        <v>6182</v>
       </c>
       <c r="B138" t="s">
-        <v>5080</v>
+        <v>6324</v>
       </c>
       <c r="C138" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D138" t="s">
-        <v>5249</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>4939</v>
+        <v>6183</v>
       </c>
       <c r="B139" t="s">
-        <v>5081</v>
+        <v>6325</v>
       </c>
       <c r="C139" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D139" t="s">
-        <v>5250</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>4940</v>
+        <v>6184</v>
       </c>
       <c r="B140" t="s">
-        <v>5082</v>
+        <v>6326</v>
       </c>
       <c r="C140" t="s">
-        <v>5133</v>
+        <v>6377</v>
       </c>
       <c r="D140" t="s">
-        <v>5251</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>4941</v>
+        <v>6185</v>
       </c>
       <c r="B141" t="s">
-        <v>5083</v>
+        <v>6327</v>
       </c>
       <c r="C141" t="s">
-        <v>5134</v>
+        <v>6378</v>
       </c>
       <c r="D141" t="s">
-        <v>5252</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>4942</v>
+        <v>6186</v>
       </c>
       <c r="B142" t="s">
-        <v>5084</v>
+        <v>6328</v>
       </c>
       <c r="C142" t="s">
-        <v>5135</v>
+        <v>6379</v>
       </c>
       <c r="D142" t="s">
-        <v>5253</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>4943</v>
+        <v>6187</v>
       </c>
       <c r="B143" t="s">
-        <v>5085</v>
+        <v>6329</v>
       </c>
       <c r="C143" t="s">
-        <v>5135</v>
+        <v>6379</v>
       </c>
       <c r="D143" t="s">
-        <v>5254</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>4944</v>
+        <v>6188</v>
       </c>
       <c r="B144" t="s">
-        <v>5086</v>
+        <v>6330</v>
       </c>
       <c r="C144" t="s">
-        <v>5135</v>
+        <v>6379</v>
       </c>
       <c r="D144" t="s">
-        <v>5255</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>4945</v>
+        <v>6189</v>
       </c>
       <c r="B145" t="s">
-        <v>5087</v>
+        <v>6331</v>
       </c>
       <c r="C145" t="s">
-        <v>5135</v>
+        <v>6379</v>
       </c>
       <c r="D145" t="s">
-        <v>5256</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>4946</v>
+        <v>6190</v>
       </c>
       <c r="B146" t="s">
-        <v>5088</v>
+        <v>6332</v>
       </c>
       <c r="C146" t="s">
-        <v>5136</v>
+        <v>6380</v>
       </c>
       <c r="D146" t="s">
-        <v>5257</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>4947</v>
+        <v>6191</v>
       </c>
       <c r="B147" t="s">
-        <v>5089</v>
+        <v>6333</v>
       </c>
       <c r="C147" t="s">
-        <v>5137</v>
+        <v>6381</v>
       </c>
       <c r="D147" t="s">
-        <v>5258</v>
+        <v>6502</v>
       </c>
     </row>
   </sheetData>
@@ -18398,816 +22130,816 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5259</v>
+        <v>6503</v>
       </c>
       <c r="B1" t="s">
-        <v>5277</v>
+        <v>6521</v>
       </c>
       <c r="C1" t="s">
-        <v>5349</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5260</v>
+        <v>6504</v>
       </c>
       <c r="B2" t="s">
-        <v>5278</v>
+        <v>6522</v>
       </c>
       <c r="C2" t="s">
-        <v>5350</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5260</v>
+        <v>6504</v>
       </c>
       <c r="B3" t="s">
-        <v>5279</v>
+        <v>6523</v>
       </c>
       <c r="C3" t="s">
-        <v>5351</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5260</v>
+        <v>6504</v>
       </c>
       <c r="B4" t="s">
-        <v>5280</v>
+        <v>6524</v>
       </c>
       <c r="C4" t="s">
-        <v>5352</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5260</v>
+        <v>6504</v>
       </c>
       <c r="B5" t="s">
-        <v>5281</v>
+        <v>6525</v>
       </c>
       <c r="C5" t="s">
-        <v>5353</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5261</v>
+        <v>6505</v>
       </c>
       <c r="B6" t="s">
-        <v>5282</v>
+        <v>6526</v>
       </c>
       <c r="C6" t="s">
-        <v>5354</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5261</v>
+        <v>6505</v>
       </c>
       <c r="B7" t="s">
-        <v>5283</v>
+        <v>6527</v>
       </c>
       <c r="C7" t="s">
-        <v>5355</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5262</v>
+        <v>6506</v>
       </c>
       <c r="B8" t="s">
-        <v>5284</v>
+        <v>6528</v>
       </c>
       <c r="C8" t="s">
-        <v>5356</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5262</v>
+        <v>6506</v>
       </c>
       <c r="B9" t="s">
-        <v>5285</v>
+        <v>6529</v>
       </c>
       <c r="C9" t="s">
-        <v>5357</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5262</v>
+        <v>6506</v>
       </c>
       <c r="B10" t="s">
-        <v>5286</v>
+        <v>6530</v>
       </c>
       <c r="C10" t="s">
-        <v>5358</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5263</v>
+        <v>6507</v>
       </c>
       <c r="B11" t="s">
-        <v>5287</v>
+        <v>6531</v>
       </c>
       <c r="C11" t="s">
-        <v>5359</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5263</v>
+        <v>6507</v>
       </c>
       <c r="B12" t="s">
-        <v>5288</v>
+        <v>6532</v>
       </c>
       <c r="C12" t="s">
-        <v>5360</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5263</v>
+        <v>6507</v>
       </c>
       <c r="B13" t="s">
-        <v>5289</v>
+        <v>6533</v>
       </c>
       <c r="C13" t="s">
-        <v>5361</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5263</v>
+        <v>6507</v>
       </c>
       <c r="B14" t="s">
-        <v>5290</v>
+        <v>6534</v>
       </c>
       <c r="C14" t="s">
-        <v>5362</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5263</v>
+        <v>6507</v>
       </c>
       <c r="B15" t="s">
-        <v>5291</v>
+        <v>6535</v>
       </c>
       <c r="C15" t="s">
-        <v>5363</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5263</v>
+        <v>6507</v>
       </c>
       <c r="B16" t="s">
-        <v>5292</v>
+        <v>6536</v>
       </c>
       <c r="C16" t="s">
-        <v>5364</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5264</v>
+        <v>6508</v>
       </c>
       <c r="B17" t="s">
-        <v>5293</v>
+        <v>6537</v>
       </c>
       <c r="C17" t="s">
-        <v>5365</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5264</v>
+        <v>6508</v>
       </c>
       <c r="B18" t="s">
-        <v>5294</v>
+        <v>6538</v>
       </c>
       <c r="C18" t="s">
-        <v>5366</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5265</v>
+        <v>6509</v>
       </c>
       <c r="B19" t="s">
-        <v>5295</v>
+        <v>6539</v>
       </c>
       <c r="C19" t="s">
-        <v>5367</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5265</v>
+        <v>6509</v>
       </c>
       <c r="B20" t="s">
-        <v>5296</v>
+        <v>6540</v>
       </c>
       <c r="C20" t="s">
-        <v>5368</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B21" t="s">
-        <v>5296</v>
+        <v>6540</v>
       </c>
       <c r="C21" t="s">
-        <v>5369</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B22" t="s">
-        <v>5297</v>
+        <v>6541</v>
       </c>
       <c r="C22" t="s">
-        <v>5370</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B23" t="s">
-        <v>5298</v>
+        <v>6542</v>
       </c>
       <c r="C23" t="s">
-        <v>5371</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B24" t="s">
-        <v>5299</v>
+        <v>6543</v>
       </c>
       <c r="C24" t="s">
-        <v>5372</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B25" t="s">
-        <v>5300</v>
+        <v>6544</v>
       </c>
       <c r="C25" t="s">
-        <v>5373</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B26" t="s">
-        <v>5301</v>
+        <v>6545</v>
       </c>
       <c r="C26" t="s">
-        <v>5374</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B27" t="s">
-        <v>5302</v>
+        <v>6546</v>
       </c>
       <c r="C27" t="s">
-        <v>5375</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B28" t="s">
-        <v>5303</v>
+        <v>6547</v>
       </c>
       <c r="C28" t="s">
-        <v>5376</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B29" t="s">
-        <v>5304</v>
+        <v>6548</v>
       </c>
       <c r="C29" t="s">
-        <v>5377</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B30" t="s">
-        <v>5305</v>
+        <v>6549</v>
       </c>
       <c r="C30" t="s">
-        <v>5378</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B31" t="s">
-        <v>5306</v>
+        <v>6550</v>
       </c>
       <c r="C31" t="s">
-        <v>5379</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B32" t="s">
-        <v>5307</v>
+        <v>6551</v>
       </c>
       <c r="C32" t="s">
-        <v>5380</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B33" t="s">
-        <v>5308</v>
+        <v>6552</v>
       </c>
       <c r="C33" t="s">
-        <v>5381</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B34" t="s">
-        <v>5309</v>
+        <v>6553</v>
       </c>
       <c r="C34" t="s">
-        <v>5382</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5266</v>
+        <v>6510</v>
       </c>
       <c r="B35" t="s">
-        <v>5310</v>
+        <v>6554</v>
       </c>
       <c r="C35" t="s">
-        <v>5383</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5267</v>
+        <v>6511</v>
       </c>
       <c r="B36" t="s">
-        <v>5311</v>
+        <v>6555</v>
       </c>
       <c r="C36" t="s">
-        <v>5384</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5267</v>
+        <v>6511</v>
       </c>
       <c r="B37" t="s">
-        <v>5312</v>
+        <v>6556</v>
       </c>
       <c r="C37" t="s">
-        <v>5385</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5268</v>
+        <v>6512</v>
       </c>
       <c r="B38" t="s">
-        <v>5312</v>
+        <v>6556</v>
       </c>
       <c r="C38" t="s">
-        <v>5386</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5268</v>
+        <v>6512</v>
       </c>
       <c r="B39" t="s">
-        <v>5313</v>
+        <v>6557</v>
       </c>
       <c r="C39" t="s">
-        <v>5387</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5268</v>
+        <v>6512</v>
       </c>
       <c r="B40" t="s">
-        <v>5314</v>
+        <v>6558</v>
       </c>
       <c r="C40" t="s">
-        <v>5388</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B41" t="s">
-        <v>5315</v>
+        <v>6559</v>
       </c>
       <c r="C41" t="s">
-        <v>5389</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B42" t="s">
-        <v>5316</v>
+        <v>6560</v>
       </c>
       <c r="C42" t="s">
-        <v>5390</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B43" t="s">
-        <v>5317</v>
+        <v>6561</v>
       </c>
       <c r="C43" t="s">
-        <v>5391</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B44" t="s">
-        <v>5318</v>
+        <v>6562</v>
       </c>
       <c r="C44" t="s">
-        <v>5392</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B45" t="s">
-        <v>5319</v>
+        <v>6563</v>
       </c>
       <c r="C45" t="s">
-        <v>5393</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B46" t="s">
-        <v>5320</v>
+        <v>6564</v>
       </c>
       <c r="C46" t="s">
-        <v>5394</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B47" t="s">
-        <v>5321</v>
+        <v>6565</v>
       </c>
       <c r="C47" t="s">
-        <v>5395</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B48" t="s">
-        <v>5322</v>
+        <v>6566</v>
       </c>
       <c r="C48" t="s">
-        <v>5396</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B49" t="s">
-        <v>5323</v>
+        <v>6567</v>
       </c>
       <c r="C49" t="s">
-        <v>5397</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B50" t="s">
-        <v>5324</v>
+        <v>6568</v>
       </c>
       <c r="C50" t="s">
-        <v>5398</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B51" t="s">
-        <v>5325</v>
+        <v>6569</v>
       </c>
       <c r="C51" t="s">
-        <v>5399</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B52" t="s">
-        <v>5326</v>
+        <v>6570</v>
       </c>
       <c r="C52" t="s">
-        <v>5400</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B53" t="s">
-        <v>5327</v>
+        <v>6571</v>
       </c>
       <c r="C53" t="s">
-        <v>5401</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B54" t="s">
-        <v>5328</v>
+        <v>6572</v>
       </c>
       <c r="C54" t="s">
-        <v>5402</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B55" t="s">
-        <v>5329</v>
+        <v>6573</v>
       </c>
       <c r="C55" t="s">
-        <v>5403</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5269</v>
+        <v>6513</v>
       </c>
       <c r="B56" t="s">
-        <v>5330</v>
+        <v>6574</v>
       </c>
       <c r="C56" t="s">
-        <v>5404</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5270</v>
+        <v>6514</v>
       </c>
       <c r="B57" t="s">
-        <v>5331</v>
+        <v>6575</v>
       </c>
       <c r="C57" t="s">
-        <v>5405</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5270</v>
+        <v>6514</v>
       </c>
       <c r="B58" t="s">
-        <v>5332</v>
+        <v>6576</v>
       </c>
       <c r="C58" t="s">
-        <v>5406</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5270</v>
+        <v>6514</v>
       </c>
       <c r="B59" t="s">
-        <v>5333</v>
+        <v>6577</v>
       </c>
       <c r="C59" t="s">
-        <v>5407</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>5271</v>
+        <v>6515</v>
       </c>
       <c r="B60" t="s">
-        <v>5334</v>
+        <v>6578</v>
       </c>
       <c r="C60" t="s">
-        <v>5408</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5271</v>
+        <v>6515</v>
       </c>
       <c r="B61" t="s">
-        <v>5335</v>
+        <v>6579</v>
       </c>
       <c r="C61" t="s">
-        <v>5409</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5272</v>
+        <v>6516</v>
       </c>
       <c r="B62" t="s">
-        <v>5336</v>
+        <v>6580</v>
       </c>
       <c r="C62" t="s">
-        <v>5410</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>5272</v>
+        <v>6516</v>
       </c>
       <c r="B63" t="s">
-        <v>5337</v>
+        <v>6581</v>
       </c>
       <c r="C63" t="s">
-        <v>5411</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>5273</v>
+        <v>6517</v>
       </c>
       <c r="B64" t="s">
-        <v>5338</v>
+        <v>6582</v>
       </c>
       <c r="C64" t="s">
-        <v>5412</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>5273</v>
+        <v>6517</v>
       </c>
       <c r="B65" t="s">
-        <v>5339</v>
+        <v>6583</v>
       </c>
       <c r="C65" t="s">
-        <v>5413</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5274</v>
+        <v>6518</v>
       </c>
       <c r="B66" t="s">
-        <v>5340</v>
+        <v>6584</v>
       </c>
       <c r="C66" t="s">
-        <v>5414</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5274</v>
+        <v>6518</v>
       </c>
       <c r="B67" t="s">
-        <v>5341</v>
+        <v>6585</v>
       </c>
       <c r="C67" t="s">
-        <v>5415</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5275</v>
+        <v>6519</v>
       </c>
       <c r="B68" t="s">
-        <v>5342</v>
+        <v>6586</v>
       </c>
       <c r="C68" t="s">
-        <v>5416</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5275</v>
+        <v>6519</v>
       </c>
       <c r="B69" t="s">
-        <v>5343</v>
+        <v>6587</v>
       </c>
       <c r="C69" t="s">
-        <v>5417</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>5275</v>
+        <v>6519</v>
       </c>
       <c r="B70" t="s">
-        <v>5344</v>
+        <v>6588</v>
       </c>
       <c r="C70" t="s">
-        <v>5418</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>5275</v>
+        <v>6519</v>
       </c>
       <c r="B71" t="s">
-        <v>5345</v>
+        <v>6589</v>
       </c>
       <c r="C71" t="s">
-        <v>5419</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>5275</v>
+        <v>6519</v>
       </c>
       <c r="B72" t="s">
-        <v>5346</v>
+        <v>6590</v>
       </c>
       <c r="C72" t="s">
-        <v>5420</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>5276</v>
+        <v>6520</v>
       </c>
       <c r="B73" t="s">
-        <v>5347</v>
+        <v>6591</v>
       </c>
       <c r="C73" t="s">
-        <v>5421</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5276</v>
+        <v>6520</v>
       </c>
       <c r="B74" t="s">
-        <v>5348</v>
+        <v>6592</v>
       </c>
       <c r="C74" t="s">
-        <v>5422</v>
+        <v>6666</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9621" uniqueCount="6667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10431" uniqueCount="7289">
   <si>
     <t>name</t>
   </si>
@@ -14363,6 +14363,1872 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Age 3+</t>
@@ -20063,2060 +21929,2060 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6045</v>
+        <v>6667</v>
       </c>
       <c r="B1" t="s">
-        <v>6192</v>
+        <v>6814</v>
       </c>
       <c r="C1" t="s">
-        <v>6334</v>
+        <v>6956</v>
       </c>
       <c r="D1" t="s">
-        <v>6382</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6046</v>
+        <v>6668</v>
       </c>
       <c r="B2" t="s">
-        <v>6193</v>
+        <v>6815</v>
       </c>
       <c r="C2" t="s">
-        <v>6335</v>
+        <v>6957</v>
       </c>
       <c r="D2" t="s">
-        <v>6383</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6047</v>
+        <v>6669</v>
       </c>
       <c r="B3" t="s">
-        <v>6194</v>
+        <v>6816</v>
       </c>
       <c r="C3" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D3" t="s">
-        <v>6384</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6048</v>
+        <v>6670</v>
       </c>
       <c r="B4" t="s">
-        <v>6195</v>
+        <v>6817</v>
       </c>
       <c r="C4" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D4" t="s">
-        <v>6385</v>
+        <v>7007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6049</v>
+        <v>6671</v>
       </c>
       <c r="B5" t="s">
-        <v>6196</v>
+        <v>6818</v>
       </c>
       <c r="C5" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D5" t="s">
-        <v>6386</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6050</v>
+        <v>6672</v>
       </c>
       <c r="B6" t="s">
-        <v>6197</v>
+        <v>6819</v>
       </c>
       <c r="C6" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D6" t="s">
-        <v>6387</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6051</v>
+        <v>6673</v>
       </c>
       <c r="B7" t="s">
-        <v>6198</v>
+        <v>6820</v>
       </c>
       <c r="C7" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D7" t="s">
-        <v>6388</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6052</v>
+        <v>6674</v>
       </c>
       <c r="B8" t="s">
-        <v>6199</v>
+        <v>6821</v>
       </c>
       <c r="C8" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D8" t="s">
-        <v>6389</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6053</v>
+        <v>6675</v>
       </c>
       <c r="B9" t="s">
-        <v>6200</v>
+        <v>6822</v>
       </c>
       <c r="C9" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D9" t="s">
-        <v>6390</v>
+        <v>7012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6054</v>
+        <v>6676</v>
       </c>
       <c r="B10" t="s">
-        <v>6201</v>
+        <v>6823</v>
       </c>
       <c r="C10" t="s">
-        <v>6336</v>
+        <v>6958</v>
       </c>
       <c r="D10" t="s">
-        <v>6391</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6055</v>
+        <v>6677</v>
       </c>
       <c r="B11" t="s">
-        <v>6202</v>
+        <v>6824</v>
       </c>
       <c r="C11" t="s">
-        <v>6337</v>
+        <v>6959</v>
       </c>
       <c r="D11" t="s">
-        <v>6392</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6056</v>
+        <v>6678</v>
       </c>
       <c r="B12" t="s">
-        <v>6203</v>
+        <v>6825</v>
       </c>
       <c r="C12" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D12" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6057</v>
+        <v>6679</v>
       </c>
       <c r="B13" t="s">
-        <v>6204</v>
+        <v>6826</v>
       </c>
       <c r="C13" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D13" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6058</v>
+        <v>6680</v>
       </c>
       <c r="B14" t="s">
-        <v>6205</v>
+        <v>6827</v>
       </c>
       <c r="C14" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D14" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6059</v>
+        <v>6681</v>
       </c>
       <c r="B15" t="s">
-        <v>6206</v>
+        <v>6828</v>
       </c>
       <c r="C15" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D15" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6060</v>
+        <v>6682</v>
       </c>
       <c r="B16" t="s">
-        <v>6207</v>
+        <v>6829</v>
       </c>
       <c r="C16" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D16" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6061</v>
+        <v>6683</v>
       </c>
       <c r="B17" t="s">
-        <v>6208</v>
+        <v>6830</v>
       </c>
       <c r="C17" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D17" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6062</v>
+        <v>6684</v>
       </c>
       <c r="B18" t="s">
-        <v>6209</v>
+        <v>6831</v>
       </c>
       <c r="C18" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D18" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6063</v>
+        <v>6685</v>
       </c>
       <c r="B19" t="s">
-        <v>6210</v>
+        <v>6832</v>
       </c>
       <c r="C19" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D19" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6064</v>
+        <v>6686</v>
       </c>
       <c r="B20" t="s">
-        <v>6211</v>
+        <v>6833</v>
       </c>
       <c r="C20" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D20" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6065</v>
+        <v>6687</v>
       </c>
       <c r="B21" t="s">
-        <v>6212</v>
+        <v>6834</v>
       </c>
       <c r="C21" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D21" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6066</v>
+        <v>6688</v>
       </c>
       <c r="B22" t="s">
-        <v>6213</v>
+        <v>6835</v>
       </c>
       <c r="C22" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D22" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6067</v>
+        <v>6689</v>
       </c>
       <c r="B23" t="s">
-        <v>6214</v>
+        <v>6836</v>
       </c>
       <c r="C23" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D23" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6068</v>
+        <v>6690</v>
       </c>
       <c r="B24" t="s">
-        <v>6215</v>
+        <v>6837</v>
       </c>
       <c r="C24" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D24" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6069</v>
+        <v>6691</v>
       </c>
       <c r="B25" t="s">
-        <v>6216</v>
+        <v>6838</v>
       </c>
       <c r="C25" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D25" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6070</v>
+        <v>6692</v>
       </c>
       <c r="B26" t="s">
-        <v>6217</v>
+        <v>6839</v>
       </c>
       <c r="C26" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D26" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6071</v>
+        <v>6693</v>
       </c>
       <c r="B27" t="s">
-        <v>6218</v>
+        <v>6840</v>
       </c>
       <c r="C27" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D27" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6072</v>
+        <v>6694</v>
       </c>
       <c r="B28" t="s">
-        <v>6219</v>
+        <v>6841</v>
       </c>
       <c r="C28" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D28" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6073</v>
+        <v>6695</v>
       </c>
       <c r="B29" t="s">
-        <v>6220</v>
+        <v>6842</v>
       </c>
       <c r="C29" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D29" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6074</v>
+        <v>6696</v>
       </c>
       <c r="B30" t="s">
-        <v>6221</v>
+        <v>6843</v>
       </c>
       <c r="C30" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D30" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6075</v>
+        <v>6697</v>
       </c>
       <c r="B31" t="s">
-        <v>6222</v>
+        <v>6844</v>
       </c>
       <c r="C31" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D31" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6076</v>
+        <v>6698</v>
       </c>
       <c r="B32" t="s">
-        <v>6223</v>
+        <v>6845</v>
       </c>
       <c r="C32" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D32" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6077</v>
+        <v>6699</v>
       </c>
       <c r="B33" t="s">
-        <v>6224</v>
+        <v>6846</v>
       </c>
       <c r="C33" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D33" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6078</v>
+        <v>6700</v>
       </c>
       <c r="B34" t="s">
-        <v>6225</v>
+        <v>6847</v>
       </c>
       <c r="C34" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D34" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6079</v>
+        <v>6701</v>
       </c>
       <c r="B35" t="s">
-        <v>6226</v>
+        <v>6848</v>
       </c>
       <c r="C35" t="s">
-        <v>6338</v>
+        <v>6960</v>
       </c>
       <c r="D35" t="s">
-        <v>6393</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6080</v>
+        <v>6702</v>
       </c>
       <c r="B36" t="s">
-        <v>6227</v>
+        <v>6849</v>
       </c>
       <c r="C36" t="s">
-        <v>6339</v>
+        <v>6961</v>
       </c>
       <c r="D36" t="s">
-        <v>6394</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6081</v>
+        <v>6703</v>
       </c>
       <c r="B37" t="s">
-        <v>6228</v>
+        <v>6850</v>
       </c>
       <c r="C37" t="s">
-        <v>6339</v>
+        <v>6961</v>
       </c>
       <c r="D37" t="s">
-        <v>6395</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6082</v>
+        <v>6704</v>
       </c>
       <c r="B38" t="s">
-        <v>6229</v>
+        <v>6851</v>
       </c>
       <c r="C38" t="s">
-        <v>6340</v>
+        <v>6962</v>
       </c>
       <c r="D38" t="s">
-        <v>6396</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6083</v>
+        <v>6705</v>
       </c>
       <c r="B39" t="s">
-        <v>6230</v>
+        <v>6852</v>
       </c>
       <c r="C39" t="s">
-        <v>6341</v>
+        <v>6963</v>
       </c>
       <c r="D39" t="s">
-        <v>6397</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6084</v>
+        <v>6706</v>
       </c>
       <c r="B40" t="s">
-        <v>6231</v>
+        <v>6853</v>
       </c>
       <c r="C40" t="s">
-        <v>6341</v>
+        <v>6963</v>
       </c>
       <c r="D40" t="s">
-        <v>6398</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6085</v>
+        <v>6707</v>
       </c>
       <c r="B41" t="s">
-        <v>6232</v>
+        <v>6854</v>
       </c>
       <c r="C41" t="s">
-        <v>6342</v>
+        <v>6964</v>
       </c>
       <c r="D41" t="s">
-        <v>6399</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6086</v>
+        <v>6708</v>
       </c>
       <c r="B42" t="s">
-        <v>6233</v>
+        <v>6855</v>
       </c>
       <c r="C42" t="s">
-        <v>6342</v>
+        <v>6964</v>
       </c>
       <c r="D42" t="s">
-        <v>6400</v>
+        <v>7022</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6087</v>
+        <v>6709</v>
       </c>
       <c r="B43" t="s">
-        <v>6234</v>
+        <v>6856</v>
       </c>
       <c r="C43" t="s">
-        <v>6343</v>
+        <v>6965</v>
       </c>
       <c r="D43" t="s">
-        <v>6401</v>
+        <v>7023</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6088</v>
+        <v>6710</v>
       </c>
       <c r="B44" t="s">
-        <v>6235</v>
+        <v>6857</v>
       </c>
       <c r="C44" t="s">
-        <v>6343</v>
+        <v>6965</v>
       </c>
       <c r="D44" t="s">
-        <v>6402</v>
+        <v>7024</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6089</v>
+        <v>6711</v>
       </c>
       <c r="B45" t="s">
-        <v>6236</v>
+        <v>6858</v>
       </c>
       <c r="C45" t="s">
-        <v>6343</v>
+        <v>6965</v>
       </c>
       <c r="D45" t="s">
-        <v>6403</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6090</v>
+        <v>6712</v>
       </c>
       <c r="B46" t="s">
-        <v>6237</v>
+        <v>6859</v>
       </c>
       <c r="C46" t="s">
-        <v>6343</v>
+        <v>6965</v>
       </c>
       <c r="D46" t="s">
-        <v>6404</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6091</v>
+        <v>6713</v>
       </c>
       <c r="B47" t="s">
-        <v>6238</v>
+        <v>6860</v>
       </c>
       <c r="C47" t="s">
-        <v>6343</v>
+        <v>6965</v>
       </c>
       <c r="D47" t="s">
-        <v>6405</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6092</v>
+        <v>6714</v>
       </c>
       <c r="B48" t="s">
-        <v>6239</v>
+        <v>6861</v>
       </c>
       <c r="C48" t="s">
-        <v>6344</v>
+        <v>6966</v>
       </c>
       <c r="D48" t="s">
-        <v>6406</v>
+        <v>7028</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6093</v>
+        <v>6715</v>
       </c>
       <c r="B49" t="s">
-        <v>6240</v>
+        <v>6862</v>
       </c>
       <c r="C49" t="s">
-        <v>6344</v>
+        <v>6966</v>
       </c>
       <c r="D49" t="s">
-        <v>6407</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>6094</v>
+        <v>6716</v>
       </c>
       <c r="B50" t="s">
-        <v>6241</v>
+        <v>6863</v>
       </c>
       <c r="C50" t="s">
-        <v>6344</v>
+        <v>6966</v>
       </c>
       <c r="D50" t="s">
-        <v>6408</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6095</v>
+        <v>6717</v>
       </c>
       <c r="B51" t="s">
-        <v>6242</v>
+        <v>6864</v>
       </c>
       <c r="C51" t="s">
-        <v>6344</v>
+        <v>6966</v>
       </c>
       <c r="D51" t="s">
-        <v>6409</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6096</v>
+        <v>6718</v>
       </c>
       <c r="B52" t="s">
-        <v>6243</v>
+        <v>6865</v>
       </c>
       <c r="C52" t="s">
-        <v>6344</v>
+        <v>6966</v>
       </c>
       <c r="D52" t="s">
-        <v>6410</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6097</v>
+        <v>6719</v>
       </c>
       <c r="B53" t="s">
-        <v>6244</v>
+        <v>6866</v>
       </c>
       <c r="C53" t="s">
-        <v>6344</v>
+        <v>6966</v>
       </c>
       <c r="D53" t="s">
-        <v>6411</v>
+        <v>7033</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6098</v>
+        <v>6720</v>
       </c>
       <c r="B54" t="s">
-        <v>6245</v>
+        <v>6867</v>
       </c>
       <c r="C54" t="s">
-        <v>6345</v>
+        <v>6967</v>
       </c>
       <c r="D54" t="s">
-        <v>6412</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6099</v>
+        <v>6721</v>
       </c>
       <c r="B55" t="s">
-        <v>6246</v>
+        <v>6868</v>
       </c>
       <c r="C55" t="s">
-        <v>6346</v>
+        <v>6968</v>
       </c>
       <c r="D55" t="s">
-        <v>6413</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6100</v>
+        <v>6722</v>
       </c>
       <c r="B56" t="s">
-        <v>6247</v>
+        <v>6869</v>
       </c>
       <c r="C56" t="s">
-        <v>6346</v>
+        <v>6968</v>
       </c>
       <c r="D56" t="s">
-        <v>6414</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6101</v>
+        <v>6723</v>
       </c>
       <c r="B57" t="s">
-        <v>6248</v>
+        <v>6870</v>
       </c>
       <c r="C57" t="s">
-        <v>6347</v>
+        <v>6969</v>
       </c>
       <c r="D57" t="s">
-        <v>6415</v>
+        <v>7037</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6102</v>
+        <v>6724</v>
       </c>
       <c r="B58" t="s">
-        <v>6249</v>
+        <v>6871</v>
       </c>
       <c r="C58" t="s">
-        <v>6347</v>
+        <v>6969</v>
       </c>
       <c r="D58" t="s">
-        <v>6416</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6103</v>
+        <v>6725</v>
       </c>
       <c r="B59" t="s">
-        <v>6250</v>
+        <v>6872</v>
       </c>
       <c r="C59" t="s">
-        <v>6348</v>
+        <v>6970</v>
       </c>
       <c r="D59" t="s">
-        <v>6417</v>
+        <v>7039</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6104</v>
+        <v>6726</v>
       </c>
       <c r="B60" t="s">
-        <v>6251</v>
+        <v>6873</v>
       </c>
       <c r="C60" t="s">
-        <v>6349</v>
+        <v>6971</v>
       </c>
       <c r="D60" t="s">
-        <v>6418</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6105</v>
+        <v>6727</v>
       </c>
       <c r="B61" t="s">
-        <v>6252</v>
+        <v>6874</v>
       </c>
       <c r="C61" t="s">
-        <v>6349</v>
+        <v>6971</v>
       </c>
       <c r="D61" t="s">
-        <v>6418</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6106</v>
+        <v>6728</v>
       </c>
       <c r="B62" t="s">
-        <v>6253</v>
+        <v>6875</v>
       </c>
       <c r="C62" t="s">
-        <v>6350</v>
+        <v>6972</v>
       </c>
       <c r="D62" t="s">
-        <v>6419</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6107</v>
+        <v>6729</v>
       </c>
       <c r="B63" t="s">
-        <v>6254</v>
+        <v>6876</v>
       </c>
       <c r="C63" t="s">
-        <v>6351</v>
+        <v>6973</v>
       </c>
       <c r="D63" t="s">
-        <v>6420</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6108</v>
+        <v>6730</v>
       </c>
       <c r="B64" t="s">
-        <v>6255</v>
+        <v>6877</v>
       </c>
       <c r="C64" t="s">
-        <v>6351</v>
+        <v>6973</v>
       </c>
       <c r="D64" t="s">
-        <v>6420</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6109</v>
+        <v>6731</v>
       </c>
       <c r="B65" t="s">
-        <v>6256</v>
+        <v>6878</v>
       </c>
       <c r="C65" t="s">
-        <v>6352</v>
+        <v>6974</v>
       </c>
       <c r="D65" t="s">
-        <v>6421</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6110</v>
+        <v>6732</v>
       </c>
       <c r="B66" t="s">
-        <v>6257</v>
+        <v>6879</v>
       </c>
       <c r="C66" t="s">
-        <v>6352</v>
+        <v>6974</v>
       </c>
       <c r="D66" t="s">
-        <v>6422</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6111</v>
+        <v>6733</v>
       </c>
       <c r="B67" t="s">
-        <v>6258</v>
+        <v>6880</v>
       </c>
       <c r="C67" t="s">
-        <v>6353</v>
+        <v>6975</v>
       </c>
       <c r="D67" t="s">
-        <v>6423</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6112</v>
+        <v>6734</v>
       </c>
       <c r="B68" t="s">
-        <v>6259</v>
+        <v>6881</v>
       </c>
       <c r="C68" t="s">
-        <v>6353</v>
+        <v>6975</v>
       </c>
       <c r="D68" t="s">
-        <v>6424</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6113</v>
+        <v>6735</v>
       </c>
       <c r="B69" t="s">
-        <v>6259</v>
+        <v>6881</v>
       </c>
       <c r="C69" t="s">
-        <v>6353</v>
+        <v>6975</v>
       </c>
       <c r="D69" t="s">
-        <v>6425</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6114</v>
+        <v>6736</v>
       </c>
       <c r="B70" t="s">
-        <v>6260</v>
+        <v>6882</v>
       </c>
       <c r="C70" t="s">
-        <v>6354</v>
+        <v>6976</v>
       </c>
       <c r="D70" t="s">
-        <v>6426</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6115</v>
+        <v>6737</v>
       </c>
       <c r="B71" t="s">
-        <v>6261</v>
+        <v>6883</v>
       </c>
       <c r="C71" t="s">
-        <v>6355</v>
+        <v>6977</v>
       </c>
       <c r="D71" t="s">
-        <v>6427</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6116</v>
+        <v>6738</v>
       </c>
       <c r="B72" t="s">
-        <v>6262</v>
+        <v>6884</v>
       </c>
       <c r="C72" t="s">
-        <v>6355</v>
+        <v>6977</v>
       </c>
       <c r="D72" t="s">
-        <v>6428</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6117</v>
+        <v>6739</v>
       </c>
       <c r="B73" t="s">
-        <v>6263</v>
+        <v>6885</v>
       </c>
       <c r="C73" t="s">
-        <v>6355</v>
+        <v>6977</v>
       </c>
       <c r="D73" t="s">
-        <v>6428</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6118</v>
+        <v>6740</v>
       </c>
       <c r="B74" t="s">
-        <v>6264</v>
+        <v>6886</v>
       </c>
       <c r="C74" t="s">
-        <v>6356</v>
+        <v>6978</v>
       </c>
       <c r="D74" t="s">
-        <v>6429</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6119</v>
+        <v>6741</v>
       </c>
       <c r="B75" t="s">
-        <v>6265</v>
+        <v>6887</v>
       </c>
       <c r="C75" t="s">
-        <v>6357</v>
+        <v>6979</v>
       </c>
       <c r="D75" t="s">
-        <v>6430</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6120</v>
+        <v>6742</v>
       </c>
       <c r="B76" t="s">
-        <v>6266</v>
+        <v>6888</v>
       </c>
       <c r="C76" t="s">
-        <v>6357</v>
+        <v>6979</v>
       </c>
       <c r="D76" t="s">
-        <v>6431</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6121</v>
+        <v>6743</v>
       </c>
       <c r="B77" t="s">
-        <v>6267</v>
+        <v>6889</v>
       </c>
       <c r="C77" t="s">
-        <v>6357</v>
+        <v>6979</v>
       </c>
       <c r="D77" t="s">
-        <v>6432</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6122</v>
+        <v>6744</v>
       </c>
       <c r="B78" t="s">
-        <v>6268</v>
+        <v>6890</v>
       </c>
       <c r="C78" t="s">
-        <v>6357</v>
+        <v>6979</v>
       </c>
       <c r="D78" t="s">
-        <v>6433</v>
+        <v>7055</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6123</v>
+        <v>6745</v>
       </c>
       <c r="B79" t="s">
-        <v>6269</v>
+        <v>6891</v>
       </c>
       <c r="C79" t="s">
-        <v>6357</v>
+        <v>6979</v>
       </c>
       <c r="D79" t="s">
-        <v>6434</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>6124</v>
+        <v>6746</v>
       </c>
       <c r="B80" t="s">
-        <v>6270</v>
+        <v>6892</v>
       </c>
       <c r="C80" t="s">
-        <v>6358</v>
+        <v>6980</v>
       </c>
       <c r="D80" t="s">
-        <v>6435</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6125</v>
+        <v>6747</v>
       </c>
       <c r="B81" t="s">
-        <v>6271</v>
+        <v>6893</v>
       </c>
       <c r="C81" t="s">
-        <v>6358</v>
+        <v>6980</v>
       </c>
       <c r="D81" t="s">
-        <v>6436</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6126</v>
+        <v>6748</v>
       </c>
       <c r="B82" t="s">
-        <v>6272</v>
+        <v>6894</v>
       </c>
       <c r="C82" t="s">
-        <v>6359</v>
+        <v>6981</v>
       </c>
       <c r="D82" t="s">
-        <v>6437</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>6127</v>
+        <v>6749</v>
       </c>
       <c r="B83" t="s">
-        <v>6273</v>
+        <v>6895</v>
       </c>
       <c r="C83" t="s">
-        <v>6360</v>
+        <v>6982</v>
       </c>
       <c r="D83" t="s">
-        <v>6438</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6128</v>
+        <v>6750</v>
       </c>
       <c r="B84" t="s">
-        <v>6274</v>
+        <v>6896</v>
       </c>
       <c r="C84" t="s">
-        <v>6361</v>
+        <v>6983</v>
       </c>
       <c r="D84" t="s">
-        <v>6439</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6129</v>
+        <v>6751</v>
       </c>
       <c r="B85" t="s">
-        <v>6275</v>
+        <v>6897</v>
       </c>
       <c r="C85" t="s">
-        <v>6362</v>
+        <v>6984</v>
       </c>
       <c r="D85" t="s">
-        <v>6440</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>6130</v>
+        <v>6752</v>
       </c>
       <c r="B86" t="s">
-        <v>6276</v>
+        <v>6898</v>
       </c>
       <c r="C86" t="s">
-        <v>6362</v>
+        <v>6984</v>
       </c>
       <c r="D86" t="s">
-        <v>6441</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6131</v>
+        <v>6753</v>
       </c>
       <c r="B87" t="s">
-        <v>6277</v>
+        <v>6899</v>
       </c>
       <c r="C87" t="s">
-        <v>6363</v>
+        <v>6985</v>
       </c>
       <c r="D87" t="s">
-        <v>6442</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>6132</v>
+        <v>6754</v>
       </c>
       <c r="B88" t="s">
-        <v>6278</v>
+        <v>6900</v>
       </c>
       <c r="C88" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D88" t="s">
-        <v>6443</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6133</v>
+        <v>6755</v>
       </c>
       <c r="B89" t="s">
-        <v>6279</v>
+        <v>6901</v>
       </c>
       <c r="C89" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D89" t="s">
-        <v>6444</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6134</v>
+        <v>6756</v>
       </c>
       <c r="B90" t="s">
-        <v>6280</v>
+        <v>6902</v>
       </c>
       <c r="C90" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D90" t="s">
-        <v>6445</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>6135</v>
+        <v>6757</v>
       </c>
       <c r="B91" t="s">
-        <v>6281</v>
+        <v>6903</v>
       </c>
       <c r="C91" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D91" t="s">
-        <v>6446</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>6136</v>
+        <v>6758</v>
       </c>
       <c r="B92" t="s">
-        <v>6282</v>
+        <v>6904</v>
       </c>
       <c r="C92" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D92" t="s">
-        <v>6447</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>6137</v>
+        <v>6759</v>
       </c>
       <c r="B93" t="s">
-        <v>6283</v>
+        <v>6905</v>
       </c>
       <c r="C93" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D93" t="s">
-        <v>6448</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6138</v>
+        <v>6760</v>
       </c>
       <c r="B94" t="s">
-        <v>6284</v>
+        <v>6906</v>
       </c>
       <c r="C94" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D94" t="s">
-        <v>6449</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6139</v>
+        <v>6761</v>
       </c>
       <c r="B95" t="s">
-        <v>6285</v>
+        <v>6907</v>
       </c>
       <c r="C95" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D95" t="s">
-        <v>6450</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6140</v>
+        <v>6762</v>
       </c>
       <c r="B96" t="s">
-        <v>6286</v>
+        <v>6908</v>
       </c>
       <c r="C96" t="s">
-        <v>6364</v>
+        <v>6986</v>
       </c>
       <c r="D96" t="s">
-        <v>6451</v>
+        <v>7073</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>6141</v>
+        <v>6763</v>
       </c>
       <c r="B97" t="s">
-        <v>6287</v>
+        <v>6909</v>
       </c>
       <c r="C97" t="s">
-        <v>6365</v>
+        <v>6987</v>
       </c>
       <c r="D97" t="s">
-        <v>6452</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>6142</v>
+        <v>6764</v>
       </c>
       <c r="B98" t="s">
-        <v>6288</v>
+        <v>6910</v>
       </c>
       <c r="C98" t="s">
-        <v>6366</v>
+        <v>6988</v>
       </c>
       <c r="D98" t="s">
-        <v>6453</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>6143</v>
+        <v>6765</v>
       </c>
       <c r="B99" t="s">
-        <v>6289</v>
+        <v>6911</v>
       </c>
       <c r="C99" t="s">
-        <v>6367</v>
+        <v>6989</v>
       </c>
       <c r="D99" t="s">
-        <v>6454</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>6144</v>
+        <v>6766</v>
       </c>
       <c r="B100" t="s">
-        <v>6290</v>
+        <v>6912</v>
       </c>
       <c r="C100" t="s">
-        <v>6368</v>
+        <v>6990</v>
       </c>
       <c r="D100" t="s">
-        <v>6455</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>6145</v>
+        <v>6767</v>
       </c>
       <c r="B101" t="s">
-        <v>6291</v>
+        <v>6913</v>
       </c>
       <c r="C101" t="s">
-        <v>6369</v>
+        <v>6991</v>
       </c>
       <c r="D101" t="s">
-        <v>6456</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>6146</v>
+        <v>6768</v>
       </c>
       <c r="B102" t="s">
-        <v>6292</v>
+        <v>6914</v>
       </c>
       <c r="C102" t="s">
-        <v>6369</v>
+        <v>6991</v>
       </c>
       <c r="D102" t="s">
-        <v>6457</v>
+        <v>7079</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>6147</v>
+        <v>6769</v>
       </c>
       <c r="B103" t="s">
-        <v>6293</v>
+        <v>6915</v>
       </c>
       <c r="C103" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D103" t="s">
-        <v>6458</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>6148</v>
+        <v>6770</v>
       </c>
       <c r="B104" t="s">
-        <v>6294</v>
+        <v>6916</v>
       </c>
       <c r="C104" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D104" t="s">
-        <v>6459</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>6149</v>
+        <v>6771</v>
       </c>
       <c r="B105" t="s">
-        <v>6295</v>
+        <v>6917</v>
       </c>
       <c r="C105" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D105" t="s">
-        <v>6460</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>6150</v>
+        <v>6772</v>
       </c>
       <c r="B106" t="s">
-        <v>6296</v>
+        <v>6918</v>
       </c>
       <c r="C106" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D106" t="s">
-        <v>6461</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>6151</v>
+        <v>6773</v>
       </c>
       <c r="B107" t="s">
-        <v>6297</v>
+        <v>6919</v>
       </c>
       <c r="C107" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D107" t="s">
-        <v>6462</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>6152</v>
+        <v>6774</v>
       </c>
       <c r="B108" t="s">
-        <v>6298</v>
+        <v>6920</v>
       </c>
       <c r="C108" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D108" t="s">
-        <v>6463</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>6153</v>
+        <v>6775</v>
       </c>
       <c r="B109" t="s">
-        <v>6299</v>
+        <v>6921</v>
       </c>
       <c r="C109" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D109" t="s">
-        <v>6464</v>
+        <v>7086</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>6154</v>
+        <v>6776</v>
       </c>
       <c r="B110" t="s">
-        <v>6300</v>
+        <v>6922</v>
       </c>
       <c r="C110" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D110" t="s">
-        <v>6465</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>6155</v>
+        <v>6777</v>
       </c>
       <c r="B111" t="s">
-        <v>6300</v>
+        <v>6922</v>
       </c>
       <c r="C111" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D111" t="s">
-        <v>6466</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>6156</v>
+        <v>6778</v>
       </c>
       <c r="B112" t="s">
-        <v>6301</v>
+        <v>6923</v>
       </c>
       <c r="C112" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D112" t="s">
-        <v>6467</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>6157</v>
+        <v>6779</v>
       </c>
       <c r="B113" t="s">
-        <v>6301</v>
+        <v>6923</v>
       </c>
       <c r="C113" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D113" t="s">
-        <v>6468</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>6158</v>
+        <v>6780</v>
       </c>
       <c r="B114" t="s">
-        <v>6302</v>
+        <v>6924</v>
       </c>
       <c r="C114" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D114" t="s">
-        <v>6469</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>6159</v>
+        <v>6781</v>
       </c>
       <c r="B115" t="s">
-        <v>6302</v>
+        <v>6924</v>
       </c>
       <c r="C115" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D115" t="s">
-        <v>6470</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>6160</v>
+        <v>6782</v>
       </c>
       <c r="B116" t="s">
-        <v>6303</v>
+        <v>6925</v>
       </c>
       <c r="C116" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D116" t="s">
-        <v>6471</v>
+        <v>7093</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>6161</v>
+        <v>6783</v>
       </c>
       <c r="B117" t="s">
-        <v>6303</v>
+        <v>6925</v>
       </c>
       <c r="C117" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D117" t="s">
-        <v>6472</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>6162</v>
+        <v>6784</v>
       </c>
       <c r="B118" t="s">
-        <v>6304</v>
+        <v>6926</v>
       </c>
       <c r="C118" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D118" t="s">
-        <v>6473</v>
+        <v>7095</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>6163</v>
+        <v>6785</v>
       </c>
       <c r="B119" t="s">
-        <v>6305</v>
+        <v>6927</v>
       </c>
       <c r="C119" t="s">
-        <v>6370</v>
+        <v>6992</v>
       </c>
       <c r="D119" t="s">
-        <v>6474</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>6164</v>
+        <v>6786</v>
       </c>
       <c r="B120" t="s">
-        <v>6306</v>
+        <v>6928</v>
       </c>
       <c r="C120" t="s">
-        <v>6371</v>
+        <v>6993</v>
       </c>
       <c r="D120" t="s">
-        <v>6475</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>6165</v>
+        <v>6787</v>
       </c>
       <c r="B121" t="s">
-        <v>6307</v>
+        <v>6929</v>
       </c>
       <c r="C121" t="s">
-        <v>6372</v>
+        <v>6994</v>
       </c>
       <c r="D121" t="s">
-        <v>6476</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>6166</v>
+        <v>6788</v>
       </c>
       <c r="B122" t="s">
-        <v>6308</v>
+        <v>6930</v>
       </c>
       <c r="C122" t="s">
-        <v>6372</v>
+        <v>6994</v>
       </c>
       <c r="D122" t="s">
-        <v>6477</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>6167</v>
+        <v>6789</v>
       </c>
       <c r="B123" t="s">
-        <v>6309</v>
+        <v>6931</v>
       </c>
       <c r="C123" t="s">
-        <v>6373</v>
+        <v>6995</v>
       </c>
       <c r="D123" t="s">
-        <v>6478</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>6168</v>
+        <v>6790</v>
       </c>
       <c r="B124" t="s">
-        <v>6310</v>
+        <v>6932</v>
       </c>
       <c r="C124" t="s">
-        <v>6374</v>
+        <v>6996</v>
       </c>
       <c r="D124" t="s">
-        <v>6479</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>6169</v>
+        <v>6791</v>
       </c>
       <c r="B125" t="s">
-        <v>6311</v>
+        <v>6933</v>
       </c>
       <c r="C125" t="s">
-        <v>6374</v>
+        <v>6996</v>
       </c>
       <c r="D125" t="s">
-        <v>6480</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>6170</v>
+        <v>6792</v>
       </c>
       <c r="B126" t="s">
-        <v>6312</v>
+        <v>6934</v>
       </c>
       <c r="C126" t="s">
-        <v>6374</v>
+        <v>6996</v>
       </c>
       <c r="D126" t="s">
-        <v>6481</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>6171</v>
+        <v>6793</v>
       </c>
       <c r="B127" t="s">
-        <v>6313</v>
+        <v>6935</v>
       </c>
       <c r="C127" t="s">
-        <v>6374</v>
+        <v>6996</v>
       </c>
       <c r="D127" t="s">
-        <v>6482</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>6172</v>
+        <v>6794</v>
       </c>
       <c r="B128" t="s">
-        <v>6314</v>
+        <v>6936</v>
       </c>
       <c r="C128" t="s">
-        <v>6374</v>
+        <v>6996</v>
       </c>
       <c r="D128" t="s">
-        <v>6483</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>6173</v>
+        <v>6795</v>
       </c>
       <c r="B129" t="s">
-        <v>6315</v>
+        <v>6937</v>
       </c>
       <c r="C129" t="s">
-        <v>6374</v>
+        <v>6996</v>
       </c>
       <c r="D129" t="s">
-        <v>6484</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>6174</v>
+        <v>6796</v>
       </c>
       <c r="B130" t="s">
-        <v>6316</v>
+        <v>6938</v>
       </c>
       <c r="C130" t="s">
-        <v>6374</v>
+        <v>6996</v>
       </c>
       <c r="D130" t="s">
-        <v>6485</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>6175</v>
+        <v>6797</v>
       </c>
       <c r="B131" t="s">
-        <v>6317</v>
+        <v>6939</v>
       </c>
       <c r="C131" t="s">
-        <v>6375</v>
+        <v>6997</v>
       </c>
       <c r="D131" t="s">
-        <v>6486</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>6176</v>
+        <v>6798</v>
       </c>
       <c r="B132" t="s">
-        <v>6318</v>
+        <v>6940</v>
       </c>
       <c r="C132" t="s">
-        <v>6376</v>
+        <v>6998</v>
       </c>
       <c r="D132" t="s">
-        <v>6487</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>6177</v>
+        <v>6799</v>
       </c>
       <c r="B133" t="s">
-        <v>6319</v>
+        <v>6941</v>
       </c>
       <c r="C133" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D133" t="s">
-        <v>6488</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>6178</v>
+        <v>6800</v>
       </c>
       <c r="B134" t="s">
-        <v>6320</v>
+        <v>6942</v>
       </c>
       <c r="C134" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D134" t="s">
-        <v>6489</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>6179</v>
+        <v>6801</v>
       </c>
       <c r="B135" t="s">
-        <v>6321</v>
+        <v>6943</v>
       </c>
       <c r="C135" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D135" t="s">
-        <v>6490</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>6180</v>
+        <v>6802</v>
       </c>
       <c r="B136" t="s">
-        <v>6322</v>
+        <v>6944</v>
       </c>
       <c r="C136" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D136" t="s">
-        <v>6491</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>6181</v>
+        <v>6803</v>
       </c>
       <c r="B137" t="s">
-        <v>6323</v>
+        <v>6945</v>
       </c>
       <c r="C137" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D137" t="s">
-        <v>6492</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>6182</v>
+        <v>6804</v>
       </c>
       <c r="B138" t="s">
-        <v>6324</v>
+        <v>6946</v>
       </c>
       <c r="C138" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D138" t="s">
-        <v>6493</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>6183</v>
+        <v>6805</v>
       </c>
       <c r="B139" t="s">
-        <v>6325</v>
+        <v>6947</v>
       </c>
       <c r="C139" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D139" t="s">
-        <v>6494</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>6184</v>
+        <v>6806</v>
       </c>
       <c r="B140" t="s">
-        <v>6326</v>
+        <v>6948</v>
       </c>
       <c r="C140" t="s">
-        <v>6377</v>
+        <v>6999</v>
       </c>
       <c r="D140" t="s">
-        <v>6495</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>6185</v>
+        <v>6807</v>
       </c>
       <c r="B141" t="s">
-        <v>6327</v>
+        <v>6949</v>
       </c>
       <c r="C141" t="s">
-        <v>6378</v>
+        <v>7000</v>
       </c>
       <c r="D141" t="s">
-        <v>6496</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>6186</v>
+        <v>6808</v>
       </c>
       <c r="B142" t="s">
-        <v>6328</v>
+        <v>6950</v>
       </c>
       <c r="C142" t="s">
-        <v>6379</v>
+        <v>7001</v>
       </c>
       <c r="D142" t="s">
-        <v>6497</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>6187</v>
+        <v>6809</v>
       </c>
       <c r="B143" t="s">
-        <v>6329</v>
+        <v>6951</v>
       </c>
       <c r="C143" t="s">
-        <v>6379</v>
+        <v>7001</v>
       </c>
       <c r="D143" t="s">
-        <v>6498</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>6188</v>
+        <v>6810</v>
       </c>
       <c r="B144" t="s">
-        <v>6330</v>
+        <v>6952</v>
       </c>
       <c r="C144" t="s">
-        <v>6379</v>
+        <v>7001</v>
       </c>
       <c r="D144" t="s">
-        <v>6499</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>6189</v>
+        <v>6811</v>
       </c>
       <c r="B145" t="s">
-        <v>6331</v>
+        <v>6953</v>
       </c>
       <c r="C145" t="s">
-        <v>6379</v>
+        <v>7001</v>
       </c>
       <c r="D145" t="s">
-        <v>6500</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>6190</v>
+        <v>6812</v>
       </c>
       <c r="B146" t="s">
-        <v>6332</v>
+        <v>6954</v>
       </c>
       <c r="C146" t="s">
-        <v>6380</v>
+        <v>7002</v>
       </c>
       <c r="D146" t="s">
-        <v>6501</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>6191</v>
+        <v>6813</v>
       </c>
       <c r="B147" t="s">
-        <v>6333</v>
+        <v>6955</v>
       </c>
       <c r="C147" t="s">
-        <v>6381</v>
+        <v>7003</v>
       </c>
       <c r="D147" t="s">
-        <v>6502</v>
+        <v>7124</v>
       </c>
     </row>
   </sheetData>
@@ -22130,816 +23996,816 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6503</v>
+        <v>7125</v>
       </c>
       <c r="B1" t="s">
-        <v>6521</v>
+        <v>7143</v>
       </c>
       <c r="C1" t="s">
-        <v>6593</v>
+        <v>7215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6504</v>
+        <v>7126</v>
       </c>
       <c r="B2" t="s">
-        <v>6522</v>
+        <v>7144</v>
       </c>
       <c r="C2" t="s">
-        <v>6594</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6504</v>
+        <v>7126</v>
       </c>
       <c r="B3" t="s">
-        <v>6523</v>
+        <v>7145</v>
       </c>
       <c r="C3" t="s">
-        <v>6595</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6504</v>
+        <v>7126</v>
       </c>
       <c r="B4" t="s">
-        <v>6524</v>
+        <v>7146</v>
       </c>
       <c r="C4" t="s">
-        <v>6596</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6504</v>
+        <v>7126</v>
       </c>
       <c r="B5" t="s">
-        <v>6525</v>
+        <v>7147</v>
       </c>
       <c r="C5" t="s">
-        <v>6597</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6505</v>
+        <v>7127</v>
       </c>
       <c r="B6" t="s">
-        <v>6526</v>
+        <v>7148</v>
       </c>
       <c r="C6" t="s">
-        <v>6598</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6505</v>
+        <v>7127</v>
       </c>
       <c r="B7" t="s">
-        <v>6527</v>
+        <v>7149</v>
       </c>
       <c r="C7" t="s">
-        <v>6599</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6506</v>
+        <v>7128</v>
       </c>
       <c r="B8" t="s">
-        <v>6528</v>
+        <v>7150</v>
       </c>
       <c r="C8" t="s">
-        <v>6600</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6506</v>
+        <v>7128</v>
       </c>
       <c r="B9" t="s">
-        <v>6529</v>
+        <v>7151</v>
       </c>
       <c r="C9" t="s">
-        <v>6601</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6506</v>
+        <v>7128</v>
       </c>
       <c r="B10" t="s">
-        <v>6530</v>
+        <v>7152</v>
       </c>
       <c r="C10" t="s">
-        <v>6602</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6507</v>
+        <v>7129</v>
       </c>
       <c r="B11" t="s">
-        <v>6531</v>
+        <v>7153</v>
       </c>
       <c r="C11" t="s">
-        <v>6603</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6507</v>
+        <v>7129</v>
       </c>
       <c r="B12" t="s">
-        <v>6532</v>
+        <v>7154</v>
       </c>
       <c r="C12" t="s">
-        <v>6604</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6507</v>
+        <v>7129</v>
       </c>
       <c r="B13" t="s">
-        <v>6533</v>
+        <v>7155</v>
       </c>
       <c r="C13" t="s">
-        <v>6605</v>
+        <v>7227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6507</v>
+        <v>7129</v>
       </c>
       <c r="B14" t="s">
-        <v>6534</v>
+        <v>7156</v>
       </c>
       <c r="C14" t="s">
-        <v>6606</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6507</v>
+        <v>7129</v>
       </c>
       <c r="B15" t="s">
-        <v>6535</v>
+        <v>7157</v>
       </c>
       <c r="C15" t="s">
-        <v>6607</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6507</v>
+        <v>7129</v>
       </c>
       <c r="B16" t="s">
-        <v>6536</v>
+        <v>7158</v>
       </c>
       <c r="C16" t="s">
-        <v>6608</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6508</v>
+        <v>7130</v>
       </c>
       <c r="B17" t="s">
-        <v>6537</v>
+        <v>7159</v>
       </c>
       <c r="C17" t="s">
-        <v>6609</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6508</v>
+        <v>7130</v>
       </c>
       <c r="B18" t="s">
-        <v>6538</v>
+        <v>7160</v>
       </c>
       <c r="C18" t="s">
-        <v>6610</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6509</v>
+        <v>7131</v>
       </c>
       <c r="B19" t="s">
-        <v>6539</v>
+        <v>7161</v>
       </c>
       <c r="C19" t="s">
-        <v>6611</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6509</v>
+        <v>7131</v>
       </c>
       <c r="B20" t="s">
-        <v>6540</v>
+        <v>7162</v>
       </c>
       <c r="C20" t="s">
-        <v>6612</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B21" t="s">
-        <v>6540</v>
+        <v>7162</v>
       </c>
       <c r="C21" t="s">
-        <v>6613</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B22" t="s">
-        <v>6541</v>
+        <v>7163</v>
       </c>
       <c r="C22" t="s">
-        <v>6614</v>
+        <v>7236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B23" t="s">
-        <v>6542</v>
+        <v>7164</v>
       </c>
       <c r="C23" t="s">
-        <v>6615</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B24" t="s">
-        <v>6543</v>
+        <v>7165</v>
       </c>
       <c r="C24" t="s">
-        <v>6616</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B25" t="s">
-        <v>6544</v>
+        <v>7166</v>
       </c>
       <c r="C25" t="s">
-        <v>6617</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B26" t="s">
-        <v>6545</v>
+        <v>7167</v>
       </c>
       <c r="C26" t="s">
-        <v>6618</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B27" t="s">
-        <v>6546</v>
+        <v>7168</v>
       </c>
       <c r="C27" t="s">
-        <v>6619</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B28" t="s">
-        <v>6547</v>
+        <v>7169</v>
       </c>
       <c r="C28" t="s">
-        <v>6620</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B29" t="s">
-        <v>6548</v>
+        <v>7170</v>
       </c>
       <c r="C29" t="s">
-        <v>6621</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B30" t="s">
-        <v>6549</v>
+        <v>7171</v>
       </c>
       <c r="C30" t="s">
-        <v>6622</v>
+        <v>7244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B31" t="s">
-        <v>6550</v>
+        <v>7172</v>
       </c>
       <c r="C31" t="s">
-        <v>6623</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B32" t="s">
-        <v>6551</v>
+        <v>7173</v>
       </c>
       <c r="C32" t="s">
-        <v>6624</v>
+        <v>7246</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B33" t="s">
-        <v>6552</v>
+        <v>7174</v>
       </c>
       <c r="C33" t="s">
-        <v>6625</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B34" t="s">
-        <v>6553</v>
+        <v>7175</v>
       </c>
       <c r="C34" t="s">
-        <v>6626</v>
+        <v>7248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6510</v>
+        <v>7132</v>
       </c>
       <c r="B35" t="s">
-        <v>6554</v>
+        <v>7176</v>
       </c>
       <c r="C35" t="s">
-        <v>6627</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6511</v>
+        <v>7133</v>
       </c>
       <c r="B36" t="s">
-        <v>6555</v>
+        <v>7177</v>
       </c>
       <c r="C36" t="s">
-        <v>6628</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6511</v>
+        <v>7133</v>
       </c>
       <c r="B37" t="s">
-        <v>6556</v>
+        <v>7178</v>
       </c>
       <c r="C37" t="s">
-        <v>6629</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6512</v>
+        <v>7134</v>
       </c>
       <c r="B38" t="s">
-        <v>6556</v>
+        <v>7178</v>
       </c>
       <c r="C38" t="s">
-        <v>6630</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6512</v>
+        <v>7134</v>
       </c>
       <c r="B39" t="s">
-        <v>6557</v>
+        <v>7179</v>
       </c>
       <c r="C39" t="s">
-        <v>6631</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6512</v>
+        <v>7134</v>
       </c>
       <c r="B40" t="s">
-        <v>6558</v>
+        <v>7180</v>
       </c>
       <c r="C40" t="s">
-        <v>6632</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B41" t="s">
-        <v>6559</v>
+        <v>7181</v>
       </c>
       <c r="C41" t="s">
-        <v>6633</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B42" t="s">
-        <v>6560</v>
+        <v>7182</v>
       </c>
       <c r="C42" t="s">
-        <v>6634</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B43" t="s">
-        <v>6561</v>
+        <v>7183</v>
       </c>
       <c r="C43" t="s">
-        <v>6635</v>
+        <v>7257</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B44" t="s">
-        <v>6562</v>
+        <v>7184</v>
       </c>
       <c r="C44" t="s">
-        <v>6636</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B45" t="s">
-        <v>6563</v>
+        <v>7185</v>
       </c>
       <c r="C45" t="s">
-        <v>6637</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B46" t="s">
-        <v>6564</v>
+        <v>7186</v>
       </c>
       <c r="C46" t="s">
-        <v>6638</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B47" t="s">
-        <v>6565</v>
+        <v>7187</v>
       </c>
       <c r="C47" t="s">
-        <v>6639</v>
+        <v>7261</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B48" t="s">
-        <v>6566</v>
+        <v>7188</v>
       </c>
       <c r="C48" t="s">
-        <v>6640</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B49" t="s">
-        <v>6567</v>
+        <v>7189</v>
       </c>
       <c r="C49" t="s">
-        <v>6641</v>
+        <v>7263</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B50" t="s">
-        <v>6568</v>
+        <v>7190</v>
       </c>
       <c r="C50" t="s">
-        <v>6642</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B51" t="s">
-        <v>6569</v>
+        <v>7191</v>
       </c>
       <c r="C51" t="s">
-        <v>6643</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B52" t="s">
-        <v>6570</v>
+        <v>7192</v>
       </c>
       <c r="C52" t="s">
-        <v>6644</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B53" t="s">
-        <v>6571</v>
+        <v>7193</v>
       </c>
       <c r="C53" t="s">
-        <v>6645</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B54" t="s">
-        <v>6572</v>
+        <v>7194</v>
       </c>
       <c r="C54" t="s">
-        <v>6646</v>
+        <v>7268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B55" t="s">
-        <v>6573</v>
+        <v>7195</v>
       </c>
       <c r="C55" t="s">
-        <v>6647</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6513</v>
+        <v>7135</v>
       </c>
       <c r="B56" t="s">
-        <v>6574</v>
+        <v>7196</v>
       </c>
       <c r="C56" t="s">
-        <v>6648</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6514</v>
+        <v>7136</v>
       </c>
       <c r="B57" t="s">
-        <v>6575</v>
+        <v>7197</v>
       </c>
       <c r="C57" t="s">
-        <v>6649</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6514</v>
+        <v>7136</v>
       </c>
       <c r="B58" t="s">
-        <v>6576</v>
+        <v>7198</v>
       </c>
       <c r="C58" t="s">
-        <v>6650</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6514</v>
+        <v>7136</v>
       </c>
       <c r="B59" t="s">
-        <v>6577</v>
+        <v>7199</v>
       </c>
       <c r="C59" t="s">
-        <v>6651</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6515</v>
+        <v>7137</v>
       </c>
       <c r="B60" t="s">
-        <v>6578</v>
+        <v>7200</v>
       </c>
       <c r="C60" t="s">
-        <v>6652</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6515</v>
+        <v>7137</v>
       </c>
       <c r="B61" t="s">
-        <v>6579</v>
+        <v>7201</v>
       </c>
       <c r="C61" t="s">
-        <v>6653</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6516</v>
+        <v>7138</v>
       </c>
       <c r="B62" t="s">
-        <v>6580</v>
+        <v>7202</v>
       </c>
       <c r="C62" t="s">
-        <v>6654</v>
+        <v>7276</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6516</v>
+        <v>7138</v>
       </c>
       <c r="B63" t="s">
-        <v>6581</v>
+        <v>7203</v>
       </c>
       <c r="C63" t="s">
-        <v>6655</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6517</v>
+        <v>7139</v>
       </c>
       <c r="B64" t="s">
-        <v>6582</v>
+        <v>7204</v>
       </c>
       <c r="C64" t="s">
-        <v>6656</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6517</v>
+        <v>7139</v>
       </c>
       <c r="B65" t="s">
-        <v>6583</v>
+        <v>7205</v>
       </c>
       <c r="C65" t="s">
-        <v>6657</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6518</v>
+        <v>7140</v>
       </c>
       <c r="B66" t="s">
-        <v>6584</v>
+        <v>7206</v>
       </c>
       <c r="C66" t="s">
-        <v>6658</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6518</v>
+        <v>7140</v>
       </c>
       <c r="B67" t="s">
-        <v>6585</v>
+        <v>7207</v>
       </c>
       <c r="C67" t="s">
-        <v>6659</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6519</v>
+        <v>7141</v>
       </c>
       <c r="B68" t="s">
-        <v>6586</v>
+        <v>7208</v>
       </c>
       <c r="C68" t="s">
-        <v>6660</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6519</v>
+        <v>7141</v>
       </c>
       <c r="B69" t="s">
-        <v>6587</v>
+        <v>7209</v>
       </c>
       <c r="C69" t="s">
-        <v>6661</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6519</v>
+        <v>7141</v>
       </c>
       <c r="B70" t="s">
-        <v>6588</v>
+        <v>7210</v>
       </c>
       <c r="C70" t="s">
-        <v>6662</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6519</v>
+        <v>7141</v>
       </c>
       <c r="B71" t="s">
-        <v>6589</v>
+        <v>7211</v>
       </c>
       <c r="C71" t="s">
-        <v>6663</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6519</v>
+        <v>7141</v>
       </c>
       <c r="B72" t="s">
-        <v>6590</v>
+        <v>7212</v>
       </c>
       <c r="C72" t="s">
-        <v>6664</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6520</v>
+        <v>7142</v>
       </c>
       <c r="B73" t="s">
-        <v>6591</v>
+        <v>7213</v>
       </c>
       <c r="C73" t="s">
-        <v>6665</v>
+        <v>7287</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6520</v>
+        <v>7142</v>
       </c>
       <c r="B74" t="s">
-        <v>6592</v>
+        <v>7214</v>
       </c>
       <c r="C74" t="s">
-        <v>6666</v>
+        <v>7288</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10431" uniqueCount="7289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11241" uniqueCount="7911">
   <si>
     <t>name</t>
   </si>
@@ -14363,6 +14363,1872 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Age 3+</t>
@@ -21929,2060 +23795,2060 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6667</v>
+        <v>7289</v>
       </c>
       <c r="B1" t="s">
-        <v>6814</v>
+        <v>7436</v>
       </c>
       <c r="C1" t="s">
-        <v>6956</v>
+        <v>7578</v>
       </c>
       <c r="D1" t="s">
-        <v>7004</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6668</v>
+        <v>7290</v>
       </c>
       <c r="B2" t="s">
-        <v>6815</v>
+        <v>7437</v>
       </c>
       <c r="C2" t="s">
-        <v>6957</v>
+        <v>7579</v>
       </c>
       <c r="D2" t="s">
-        <v>7005</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6669</v>
+        <v>7291</v>
       </c>
       <c r="B3" t="s">
-        <v>6816</v>
+        <v>7438</v>
       </c>
       <c r="C3" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D3" t="s">
-        <v>7006</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6670</v>
+        <v>7292</v>
       </c>
       <c r="B4" t="s">
-        <v>6817</v>
+        <v>7439</v>
       </c>
       <c r="C4" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D4" t="s">
-        <v>7007</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6671</v>
+        <v>7293</v>
       </c>
       <c r="B5" t="s">
-        <v>6818</v>
+        <v>7440</v>
       </c>
       <c r="C5" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D5" t="s">
-        <v>7008</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6672</v>
+        <v>7294</v>
       </c>
       <c r="B6" t="s">
-        <v>6819</v>
+        <v>7441</v>
       </c>
       <c r="C6" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D6" t="s">
-        <v>7009</v>
+        <v>7631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6673</v>
+        <v>7295</v>
       </c>
       <c r="B7" t="s">
-        <v>6820</v>
+        <v>7442</v>
       </c>
       <c r="C7" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D7" t="s">
-        <v>7010</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6674</v>
+        <v>7296</v>
       </c>
       <c r="B8" t="s">
-        <v>6821</v>
+        <v>7443</v>
       </c>
       <c r="C8" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D8" t="s">
-        <v>7011</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6675</v>
+        <v>7297</v>
       </c>
       <c r="B9" t="s">
-        <v>6822</v>
+        <v>7444</v>
       </c>
       <c r="C9" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D9" t="s">
-        <v>7012</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6676</v>
+        <v>7298</v>
       </c>
       <c r="B10" t="s">
-        <v>6823</v>
+        <v>7445</v>
       </c>
       <c r="C10" t="s">
-        <v>6958</v>
+        <v>7580</v>
       </c>
       <c r="D10" t="s">
-        <v>7013</v>
+        <v>7635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6677</v>
+        <v>7299</v>
       </c>
       <c r="B11" t="s">
-        <v>6824</v>
+        <v>7446</v>
       </c>
       <c r="C11" t="s">
-        <v>6959</v>
+        <v>7581</v>
       </c>
       <c r="D11" t="s">
-        <v>7014</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6678</v>
+        <v>7300</v>
       </c>
       <c r="B12" t="s">
-        <v>6825</v>
+        <v>7447</v>
       </c>
       <c r="C12" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D12" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6679</v>
+        <v>7301</v>
       </c>
       <c r="B13" t="s">
-        <v>6826</v>
+        <v>7448</v>
       </c>
       <c r="C13" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D13" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6680</v>
+        <v>7302</v>
       </c>
       <c r="B14" t="s">
-        <v>6827</v>
+        <v>7449</v>
       </c>
       <c r="C14" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D14" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6681</v>
+        <v>7303</v>
       </c>
       <c r="B15" t="s">
-        <v>6828</v>
+        <v>7450</v>
       </c>
       <c r="C15" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D15" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6682</v>
+        <v>7304</v>
       </c>
       <c r="B16" t="s">
-        <v>6829</v>
+        <v>7451</v>
       </c>
       <c r="C16" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D16" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6683</v>
+        <v>7305</v>
       </c>
       <c r="B17" t="s">
-        <v>6830</v>
+        <v>7452</v>
       </c>
       <c r="C17" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D17" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6684</v>
+        <v>7306</v>
       </c>
       <c r="B18" t="s">
-        <v>6831</v>
+        <v>7453</v>
       </c>
       <c r="C18" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D18" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6685</v>
+        <v>7307</v>
       </c>
       <c r="B19" t="s">
-        <v>6832</v>
+        <v>7454</v>
       </c>
       <c r="C19" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D19" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6686</v>
+        <v>7308</v>
       </c>
       <c r="B20" t="s">
-        <v>6833</v>
+        <v>7455</v>
       </c>
       <c r="C20" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D20" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6687</v>
+        <v>7309</v>
       </c>
       <c r="B21" t="s">
-        <v>6834</v>
+        <v>7456</v>
       </c>
       <c r="C21" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D21" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6688</v>
+        <v>7310</v>
       </c>
       <c r="B22" t="s">
-        <v>6835</v>
+        <v>7457</v>
       </c>
       <c r="C22" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D22" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6689</v>
+        <v>7311</v>
       </c>
       <c r="B23" t="s">
-        <v>6836</v>
+        <v>7458</v>
       </c>
       <c r="C23" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D23" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6690</v>
+        <v>7312</v>
       </c>
       <c r="B24" t="s">
-        <v>6837</v>
+        <v>7459</v>
       </c>
       <c r="C24" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D24" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6691</v>
+        <v>7313</v>
       </c>
       <c r="B25" t="s">
-        <v>6838</v>
+        <v>7460</v>
       </c>
       <c r="C25" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D25" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6692</v>
+        <v>7314</v>
       </c>
       <c r="B26" t="s">
-        <v>6839</v>
+        <v>7461</v>
       </c>
       <c r="C26" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D26" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6693</v>
+        <v>7315</v>
       </c>
       <c r="B27" t="s">
-        <v>6840</v>
+        <v>7462</v>
       </c>
       <c r="C27" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D27" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6694</v>
+        <v>7316</v>
       </c>
       <c r="B28" t="s">
-        <v>6841</v>
+        <v>7463</v>
       </c>
       <c r="C28" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D28" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6695</v>
+        <v>7317</v>
       </c>
       <c r="B29" t="s">
-        <v>6842</v>
+        <v>7464</v>
       </c>
       <c r="C29" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D29" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6696</v>
+        <v>7318</v>
       </c>
       <c r="B30" t="s">
-        <v>6843</v>
+        <v>7465</v>
       </c>
       <c r="C30" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D30" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6697</v>
+        <v>7319</v>
       </c>
       <c r="B31" t="s">
-        <v>6844</v>
+        <v>7466</v>
       </c>
       <c r="C31" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D31" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6698</v>
+        <v>7320</v>
       </c>
       <c r="B32" t="s">
-        <v>6845</v>
+        <v>7467</v>
       </c>
       <c r="C32" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D32" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6699</v>
+        <v>7321</v>
       </c>
       <c r="B33" t="s">
-        <v>6846</v>
+        <v>7468</v>
       </c>
       <c r="C33" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D33" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6700</v>
+        <v>7322</v>
       </c>
       <c r="B34" t="s">
-        <v>6847</v>
+        <v>7469</v>
       </c>
       <c r="C34" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D34" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6701</v>
+        <v>7323</v>
       </c>
       <c r="B35" t="s">
-        <v>6848</v>
+        <v>7470</v>
       </c>
       <c r="C35" t="s">
-        <v>6960</v>
+        <v>7582</v>
       </c>
       <c r="D35" t="s">
-        <v>7015</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6702</v>
+        <v>7324</v>
       </c>
       <c r="B36" t="s">
-        <v>6849</v>
+        <v>7471</v>
       </c>
       <c r="C36" t="s">
-        <v>6961</v>
+        <v>7583</v>
       </c>
       <c r="D36" t="s">
-        <v>7016</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6703</v>
+        <v>7325</v>
       </c>
       <c r="B37" t="s">
-        <v>6850</v>
+        <v>7472</v>
       </c>
       <c r="C37" t="s">
-        <v>6961</v>
+        <v>7583</v>
       </c>
       <c r="D37" t="s">
-        <v>7017</v>
+        <v>7639</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6704</v>
+        <v>7326</v>
       </c>
       <c r="B38" t="s">
-        <v>6851</v>
+        <v>7473</v>
       </c>
       <c r="C38" t="s">
-        <v>6962</v>
+        <v>7584</v>
       </c>
       <c r="D38" t="s">
-        <v>7018</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6705</v>
+        <v>7327</v>
       </c>
       <c r="B39" t="s">
-        <v>6852</v>
+        <v>7474</v>
       </c>
       <c r="C39" t="s">
-        <v>6963</v>
+        <v>7585</v>
       </c>
       <c r="D39" t="s">
-        <v>7019</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6706</v>
+        <v>7328</v>
       </c>
       <c r="B40" t="s">
-        <v>6853</v>
+        <v>7475</v>
       </c>
       <c r="C40" t="s">
-        <v>6963</v>
+        <v>7585</v>
       </c>
       <c r="D40" t="s">
-        <v>7020</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6707</v>
+        <v>7329</v>
       </c>
       <c r="B41" t="s">
-        <v>6854</v>
+        <v>7476</v>
       </c>
       <c r="C41" t="s">
-        <v>6964</v>
+        <v>7586</v>
       </c>
       <c r="D41" t="s">
-        <v>7021</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6708</v>
+        <v>7330</v>
       </c>
       <c r="B42" t="s">
-        <v>6855</v>
+        <v>7477</v>
       </c>
       <c r="C42" t="s">
-        <v>6964</v>
+        <v>7586</v>
       </c>
       <c r="D42" t="s">
-        <v>7022</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6709</v>
+        <v>7331</v>
       </c>
       <c r="B43" t="s">
-        <v>6856</v>
+        <v>7478</v>
       </c>
       <c r="C43" t="s">
-        <v>6965</v>
+        <v>7587</v>
       </c>
       <c r="D43" t="s">
-        <v>7023</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6710</v>
+        <v>7332</v>
       </c>
       <c r="B44" t="s">
-        <v>6857</v>
+        <v>7479</v>
       </c>
       <c r="C44" t="s">
-        <v>6965</v>
+        <v>7587</v>
       </c>
       <c r="D44" t="s">
-        <v>7024</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6711</v>
+        <v>7333</v>
       </c>
       <c r="B45" t="s">
-        <v>6858</v>
+        <v>7480</v>
       </c>
       <c r="C45" t="s">
-        <v>6965</v>
+        <v>7587</v>
       </c>
       <c r="D45" t="s">
-        <v>7025</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6712</v>
+        <v>7334</v>
       </c>
       <c r="B46" t="s">
-        <v>6859</v>
+        <v>7481</v>
       </c>
       <c r="C46" t="s">
-        <v>6965</v>
+        <v>7587</v>
       </c>
       <c r="D46" t="s">
-        <v>7026</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6713</v>
+        <v>7335</v>
       </c>
       <c r="B47" t="s">
-        <v>6860</v>
+        <v>7482</v>
       </c>
       <c r="C47" t="s">
-        <v>6965</v>
+        <v>7587</v>
       </c>
       <c r="D47" t="s">
-        <v>7027</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6714</v>
+        <v>7336</v>
       </c>
       <c r="B48" t="s">
-        <v>6861</v>
+        <v>7483</v>
       </c>
       <c r="C48" t="s">
-        <v>6966</v>
+        <v>7588</v>
       </c>
       <c r="D48" t="s">
-        <v>7028</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6715</v>
+        <v>7337</v>
       </c>
       <c r="B49" t="s">
-        <v>6862</v>
+        <v>7484</v>
       </c>
       <c r="C49" t="s">
-        <v>6966</v>
+        <v>7588</v>
       </c>
       <c r="D49" t="s">
-        <v>7029</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>6716</v>
+        <v>7338</v>
       </c>
       <c r="B50" t="s">
-        <v>6863</v>
+        <v>7485</v>
       </c>
       <c r="C50" t="s">
-        <v>6966</v>
+        <v>7588</v>
       </c>
       <c r="D50" t="s">
-        <v>7030</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6717</v>
+        <v>7339</v>
       </c>
       <c r="B51" t="s">
-        <v>6864</v>
+        <v>7486</v>
       </c>
       <c r="C51" t="s">
-        <v>6966</v>
+        <v>7588</v>
       </c>
       <c r="D51" t="s">
-        <v>7031</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6718</v>
+        <v>7340</v>
       </c>
       <c r="B52" t="s">
-        <v>6865</v>
+        <v>7487</v>
       </c>
       <c r="C52" t="s">
-        <v>6966</v>
+        <v>7588</v>
       </c>
       <c r="D52" t="s">
-        <v>7032</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6719</v>
+        <v>7341</v>
       </c>
       <c r="B53" t="s">
-        <v>6866</v>
+        <v>7488</v>
       </c>
       <c r="C53" t="s">
-        <v>6966</v>
+        <v>7588</v>
       </c>
       <c r="D53" t="s">
-        <v>7033</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6720</v>
+        <v>7342</v>
       </c>
       <c r="B54" t="s">
-        <v>6867</v>
+        <v>7489</v>
       </c>
       <c r="C54" t="s">
-        <v>6967</v>
+        <v>7589</v>
       </c>
       <c r="D54" t="s">
-        <v>7034</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6721</v>
+        <v>7343</v>
       </c>
       <c r="B55" t="s">
-        <v>6868</v>
+        <v>7490</v>
       </c>
       <c r="C55" t="s">
-        <v>6968</v>
+        <v>7590</v>
       </c>
       <c r="D55" t="s">
-        <v>7035</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6722</v>
+        <v>7344</v>
       </c>
       <c r="B56" t="s">
-        <v>6869</v>
+        <v>7491</v>
       </c>
       <c r="C56" t="s">
-        <v>6968</v>
+        <v>7590</v>
       </c>
       <c r="D56" t="s">
-        <v>7036</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6723</v>
+        <v>7345</v>
       </c>
       <c r="B57" t="s">
-        <v>6870</v>
+        <v>7492</v>
       </c>
       <c r="C57" t="s">
-        <v>6969</v>
+        <v>7591</v>
       </c>
       <c r="D57" t="s">
-        <v>7037</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6724</v>
+        <v>7346</v>
       </c>
       <c r="B58" t="s">
-        <v>6871</v>
+        <v>7493</v>
       </c>
       <c r="C58" t="s">
-        <v>6969</v>
+        <v>7591</v>
       </c>
       <c r="D58" t="s">
-        <v>7038</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6725</v>
+        <v>7347</v>
       </c>
       <c r="B59" t="s">
-        <v>6872</v>
+        <v>7494</v>
       </c>
       <c r="C59" t="s">
-        <v>6970</v>
+        <v>7592</v>
       </c>
       <c r="D59" t="s">
-        <v>7039</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6726</v>
+        <v>7348</v>
       </c>
       <c r="B60" t="s">
-        <v>6873</v>
+        <v>7495</v>
       </c>
       <c r="C60" t="s">
-        <v>6971</v>
+        <v>7593</v>
       </c>
       <c r="D60" t="s">
-        <v>7040</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6727</v>
+        <v>7349</v>
       </c>
       <c r="B61" t="s">
-        <v>6874</v>
+        <v>7496</v>
       </c>
       <c r="C61" t="s">
-        <v>6971</v>
+        <v>7593</v>
       </c>
       <c r="D61" t="s">
-        <v>7040</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6728</v>
+        <v>7350</v>
       </c>
       <c r="B62" t="s">
-        <v>6875</v>
+        <v>7497</v>
       </c>
       <c r="C62" t="s">
-        <v>6972</v>
+        <v>7594</v>
       </c>
       <c r="D62" t="s">
-        <v>7041</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6729</v>
+        <v>7351</v>
       </c>
       <c r="B63" t="s">
-        <v>6876</v>
+        <v>7498</v>
       </c>
       <c r="C63" t="s">
-        <v>6973</v>
+        <v>7595</v>
       </c>
       <c r="D63" t="s">
-        <v>7042</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6730</v>
+        <v>7352</v>
       </c>
       <c r="B64" t="s">
-        <v>6877</v>
+        <v>7499</v>
       </c>
       <c r="C64" t="s">
-        <v>6973</v>
+        <v>7595</v>
       </c>
       <c r="D64" t="s">
-        <v>7042</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6731</v>
+        <v>7353</v>
       </c>
       <c r="B65" t="s">
-        <v>6878</v>
+        <v>7500</v>
       </c>
       <c r="C65" t="s">
-        <v>6974</v>
+        <v>7596</v>
       </c>
       <c r="D65" t="s">
-        <v>7043</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6732</v>
+        <v>7354</v>
       </c>
       <c r="B66" t="s">
-        <v>6879</v>
+        <v>7501</v>
       </c>
       <c r="C66" t="s">
-        <v>6974</v>
+        <v>7596</v>
       </c>
       <c r="D66" t="s">
-        <v>7044</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6733</v>
+        <v>7355</v>
       </c>
       <c r="B67" t="s">
-        <v>6880</v>
+        <v>7502</v>
       </c>
       <c r="C67" t="s">
-        <v>6975</v>
+        <v>7597</v>
       </c>
       <c r="D67" t="s">
-        <v>7045</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6734</v>
+        <v>7356</v>
       </c>
       <c r="B68" t="s">
-        <v>6881</v>
+        <v>7503</v>
       </c>
       <c r="C68" t="s">
-        <v>6975</v>
+        <v>7597</v>
       </c>
       <c r="D68" t="s">
-        <v>7046</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6735</v>
+        <v>7357</v>
       </c>
       <c r="B69" t="s">
-        <v>6881</v>
+        <v>7503</v>
       </c>
       <c r="C69" t="s">
-        <v>6975</v>
+        <v>7597</v>
       </c>
       <c r="D69" t="s">
-        <v>7047</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6736</v>
+        <v>7358</v>
       </c>
       <c r="B70" t="s">
-        <v>6882</v>
+        <v>7504</v>
       </c>
       <c r="C70" t="s">
-        <v>6976</v>
+        <v>7598</v>
       </c>
       <c r="D70" t="s">
-        <v>7048</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6737</v>
+        <v>7359</v>
       </c>
       <c r="B71" t="s">
-        <v>6883</v>
+        <v>7505</v>
       </c>
       <c r="C71" t="s">
-        <v>6977</v>
+        <v>7599</v>
       </c>
       <c r="D71" t="s">
-        <v>7049</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6738</v>
+        <v>7360</v>
       </c>
       <c r="B72" t="s">
-        <v>6884</v>
+        <v>7506</v>
       </c>
       <c r="C72" t="s">
-        <v>6977</v>
+        <v>7599</v>
       </c>
       <c r="D72" t="s">
-        <v>7050</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6739</v>
+        <v>7361</v>
       </c>
       <c r="B73" t="s">
-        <v>6885</v>
+        <v>7507</v>
       </c>
       <c r="C73" t="s">
-        <v>6977</v>
+        <v>7599</v>
       </c>
       <c r="D73" t="s">
-        <v>7050</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6740</v>
+        <v>7362</v>
       </c>
       <c r="B74" t="s">
-        <v>6886</v>
+        <v>7508</v>
       </c>
       <c r="C74" t="s">
-        <v>6978</v>
+        <v>7600</v>
       </c>
       <c r="D74" t="s">
-        <v>7051</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6741</v>
+        <v>7363</v>
       </c>
       <c r="B75" t="s">
-        <v>6887</v>
+        <v>7509</v>
       </c>
       <c r="C75" t="s">
-        <v>6979</v>
+        <v>7601</v>
       </c>
       <c r="D75" t="s">
-        <v>7052</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6742</v>
+        <v>7364</v>
       </c>
       <c r="B76" t="s">
-        <v>6888</v>
+        <v>7510</v>
       </c>
       <c r="C76" t="s">
-        <v>6979</v>
+        <v>7601</v>
       </c>
       <c r="D76" t="s">
-        <v>7053</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6743</v>
+        <v>7365</v>
       </c>
       <c r="B77" t="s">
-        <v>6889</v>
+        <v>7511</v>
       </c>
       <c r="C77" t="s">
-        <v>6979</v>
+        <v>7601</v>
       </c>
       <c r="D77" t="s">
-        <v>7054</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6744</v>
+        <v>7366</v>
       </c>
       <c r="B78" t="s">
-        <v>6890</v>
+        <v>7512</v>
       </c>
       <c r="C78" t="s">
-        <v>6979</v>
+        <v>7601</v>
       </c>
       <c r="D78" t="s">
-        <v>7055</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6745</v>
+        <v>7367</v>
       </c>
       <c r="B79" t="s">
-        <v>6891</v>
+        <v>7513</v>
       </c>
       <c r="C79" t="s">
-        <v>6979</v>
+        <v>7601</v>
       </c>
       <c r="D79" t="s">
-        <v>7056</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>6746</v>
+        <v>7368</v>
       </c>
       <c r="B80" t="s">
-        <v>6892</v>
+        <v>7514</v>
       </c>
       <c r="C80" t="s">
-        <v>6980</v>
+        <v>7602</v>
       </c>
       <c r="D80" t="s">
-        <v>7057</v>
+        <v>7679</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6747</v>
+        <v>7369</v>
       </c>
       <c r="B81" t="s">
-        <v>6893</v>
+        <v>7515</v>
       </c>
       <c r="C81" t="s">
-        <v>6980</v>
+        <v>7602</v>
       </c>
       <c r="D81" t="s">
-        <v>7058</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6748</v>
+        <v>7370</v>
       </c>
       <c r="B82" t="s">
-        <v>6894</v>
+        <v>7516</v>
       </c>
       <c r="C82" t="s">
-        <v>6981</v>
+        <v>7603</v>
       </c>
       <c r="D82" t="s">
-        <v>7059</v>
+        <v>7681</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>6749</v>
+        <v>7371</v>
       </c>
       <c r="B83" t="s">
-        <v>6895</v>
+        <v>7517</v>
       </c>
       <c r="C83" t="s">
-        <v>6982</v>
+        <v>7604</v>
       </c>
       <c r="D83" t="s">
-        <v>7060</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6750</v>
+        <v>7372</v>
       </c>
       <c r="B84" t="s">
-        <v>6896</v>
+        <v>7518</v>
       </c>
       <c r="C84" t="s">
-        <v>6983</v>
+        <v>7605</v>
       </c>
       <c r="D84" t="s">
-        <v>7061</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6751</v>
+        <v>7373</v>
       </c>
       <c r="B85" t="s">
-        <v>6897</v>
+        <v>7519</v>
       </c>
       <c r="C85" t="s">
-        <v>6984</v>
+        <v>7606</v>
       </c>
       <c r="D85" t="s">
-        <v>7062</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>6752</v>
+        <v>7374</v>
       </c>
       <c r="B86" t="s">
-        <v>6898</v>
+        <v>7520</v>
       </c>
       <c r="C86" t="s">
-        <v>6984</v>
+        <v>7606</v>
       </c>
       <c r="D86" t="s">
-        <v>7063</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6753</v>
+        <v>7375</v>
       </c>
       <c r="B87" t="s">
-        <v>6899</v>
+        <v>7521</v>
       </c>
       <c r="C87" t="s">
-        <v>6985</v>
+        <v>7607</v>
       </c>
       <c r="D87" t="s">
-        <v>7064</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>6754</v>
+        <v>7376</v>
       </c>
       <c r="B88" t="s">
-        <v>6900</v>
+        <v>7522</v>
       </c>
       <c r="C88" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D88" t="s">
-        <v>7065</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6755</v>
+        <v>7377</v>
       </c>
       <c r="B89" t="s">
-        <v>6901</v>
+        <v>7523</v>
       </c>
       <c r="C89" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D89" t="s">
-        <v>7066</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6756</v>
+        <v>7378</v>
       </c>
       <c r="B90" t="s">
-        <v>6902</v>
+        <v>7524</v>
       </c>
       <c r="C90" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D90" t="s">
-        <v>7067</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>6757</v>
+        <v>7379</v>
       </c>
       <c r="B91" t="s">
-        <v>6903</v>
+        <v>7525</v>
       </c>
       <c r="C91" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D91" t="s">
-        <v>7068</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>6758</v>
+        <v>7380</v>
       </c>
       <c r="B92" t="s">
-        <v>6904</v>
+        <v>7526</v>
       </c>
       <c r="C92" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D92" t="s">
-        <v>7069</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>6759</v>
+        <v>7381</v>
       </c>
       <c r="B93" t="s">
-        <v>6905</v>
+        <v>7527</v>
       </c>
       <c r="C93" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D93" t="s">
-        <v>7070</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6760</v>
+        <v>7382</v>
       </c>
       <c r="B94" t="s">
-        <v>6906</v>
+        <v>7528</v>
       </c>
       <c r="C94" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D94" t="s">
-        <v>7071</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6761</v>
+        <v>7383</v>
       </c>
       <c r="B95" t="s">
-        <v>6907</v>
+        <v>7529</v>
       </c>
       <c r="C95" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D95" t="s">
-        <v>7072</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6762</v>
+        <v>7384</v>
       </c>
       <c r="B96" t="s">
-        <v>6908</v>
+        <v>7530</v>
       </c>
       <c r="C96" t="s">
-        <v>6986</v>
+        <v>7608</v>
       </c>
       <c r="D96" t="s">
-        <v>7073</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>6763</v>
+        <v>7385</v>
       </c>
       <c r="B97" t="s">
-        <v>6909</v>
+        <v>7531</v>
       </c>
       <c r="C97" t="s">
-        <v>6987</v>
+        <v>7609</v>
       </c>
       <c r="D97" t="s">
-        <v>7074</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>6764</v>
+        <v>7386</v>
       </c>
       <c r="B98" t="s">
-        <v>6910</v>
+        <v>7532</v>
       </c>
       <c r="C98" t="s">
-        <v>6988</v>
+        <v>7610</v>
       </c>
       <c r="D98" t="s">
-        <v>7075</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>6765</v>
+        <v>7387</v>
       </c>
       <c r="B99" t="s">
-        <v>6911</v>
+        <v>7533</v>
       </c>
       <c r="C99" t="s">
-        <v>6989</v>
+        <v>7611</v>
       </c>
       <c r="D99" t="s">
-        <v>7076</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>6766</v>
+        <v>7388</v>
       </c>
       <c r="B100" t="s">
-        <v>6912</v>
+        <v>7534</v>
       </c>
       <c r="C100" t="s">
-        <v>6990</v>
+        <v>7612</v>
       </c>
       <c r="D100" t="s">
-        <v>7077</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>6767</v>
+        <v>7389</v>
       </c>
       <c r="B101" t="s">
-        <v>6913</v>
+        <v>7535</v>
       </c>
       <c r="C101" t="s">
-        <v>6991</v>
+        <v>7613</v>
       </c>
       <c r="D101" t="s">
-        <v>7078</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>6768</v>
+        <v>7390</v>
       </c>
       <c r="B102" t="s">
-        <v>6914</v>
+        <v>7536</v>
       </c>
       <c r="C102" t="s">
-        <v>6991</v>
+        <v>7613</v>
       </c>
       <c r="D102" t="s">
-        <v>7079</v>
+        <v>7701</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>6769</v>
+        <v>7391</v>
       </c>
       <c r="B103" t="s">
-        <v>6915</v>
+        <v>7537</v>
       </c>
       <c r="C103" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D103" t="s">
-        <v>7080</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>6770</v>
+        <v>7392</v>
       </c>
       <c r="B104" t="s">
-        <v>6916</v>
+        <v>7538</v>
       </c>
       <c r="C104" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D104" t="s">
-        <v>7081</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>6771</v>
+        <v>7393</v>
       </c>
       <c r="B105" t="s">
-        <v>6917</v>
+        <v>7539</v>
       </c>
       <c r="C105" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D105" t="s">
-        <v>7082</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>6772</v>
+        <v>7394</v>
       </c>
       <c r="B106" t="s">
-        <v>6918</v>
+        <v>7540</v>
       </c>
       <c r="C106" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D106" t="s">
-        <v>7083</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>6773</v>
+        <v>7395</v>
       </c>
       <c r="B107" t="s">
-        <v>6919</v>
+        <v>7541</v>
       </c>
       <c r="C107" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D107" t="s">
-        <v>7084</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>6774</v>
+        <v>7396</v>
       </c>
       <c r="B108" t="s">
-        <v>6920</v>
+        <v>7542</v>
       </c>
       <c r="C108" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D108" t="s">
-        <v>7085</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>6775</v>
+        <v>7397</v>
       </c>
       <c r="B109" t="s">
-        <v>6921</v>
+        <v>7543</v>
       </c>
       <c r="C109" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D109" t="s">
-        <v>7086</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>6776</v>
+        <v>7398</v>
       </c>
       <c r="B110" t="s">
-        <v>6922</v>
+        <v>7544</v>
       </c>
       <c r="C110" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D110" t="s">
-        <v>7087</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>6777</v>
+        <v>7399</v>
       </c>
       <c r="B111" t="s">
-        <v>6922</v>
+        <v>7544</v>
       </c>
       <c r="C111" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D111" t="s">
-        <v>7088</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>6778</v>
+        <v>7400</v>
       </c>
       <c r="B112" t="s">
-        <v>6923</v>
+        <v>7545</v>
       </c>
       <c r="C112" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D112" t="s">
-        <v>7089</v>
+        <v>7711</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>6779</v>
+        <v>7401</v>
       </c>
       <c r="B113" t="s">
-        <v>6923</v>
+        <v>7545</v>
       </c>
       <c r="C113" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D113" t="s">
-        <v>7090</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>6780</v>
+        <v>7402</v>
       </c>
       <c r="B114" t="s">
-        <v>6924</v>
+        <v>7546</v>
       </c>
       <c r="C114" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D114" t="s">
-        <v>7091</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>6781</v>
+        <v>7403</v>
       </c>
       <c r="B115" t="s">
-        <v>6924</v>
+        <v>7546</v>
       </c>
       <c r="C115" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D115" t="s">
-        <v>7092</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>6782</v>
+        <v>7404</v>
       </c>
       <c r="B116" t="s">
-        <v>6925</v>
+        <v>7547</v>
       </c>
       <c r="C116" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D116" t="s">
-        <v>7093</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>6783</v>
+        <v>7405</v>
       </c>
       <c r="B117" t="s">
-        <v>6925</v>
+        <v>7547</v>
       </c>
       <c r="C117" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D117" t="s">
-        <v>7094</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>6784</v>
+        <v>7406</v>
       </c>
       <c r="B118" t="s">
-        <v>6926</v>
+        <v>7548</v>
       </c>
       <c r="C118" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D118" t="s">
-        <v>7095</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>6785</v>
+        <v>7407</v>
       </c>
       <c r="B119" t="s">
-        <v>6927</v>
+        <v>7549</v>
       </c>
       <c r="C119" t="s">
-        <v>6992</v>
+        <v>7614</v>
       </c>
       <c r="D119" t="s">
-        <v>7096</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>6786</v>
+        <v>7408</v>
       </c>
       <c r="B120" t="s">
-        <v>6928</v>
+        <v>7550</v>
       </c>
       <c r="C120" t="s">
-        <v>6993</v>
+        <v>7615</v>
       </c>
       <c r="D120" t="s">
-        <v>7097</v>
+        <v>7719</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>6787</v>
+        <v>7409</v>
       </c>
       <c r="B121" t="s">
-        <v>6929</v>
+        <v>7551</v>
       </c>
       <c r="C121" t="s">
-        <v>6994</v>
+        <v>7616</v>
       </c>
       <c r="D121" t="s">
-        <v>7098</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>6788</v>
+        <v>7410</v>
       </c>
       <c r="B122" t="s">
-        <v>6930</v>
+        <v>7552</v>
       </c>
       <c r="C122" t="s">
-        <v>6994</v>
+        <v>7616</v>
       </c>
       <c r="D122" t="s">
-        <v>7099</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>6789</v>
+        <v>7411</v>
       </c>
       <c r="B123" t="s">
-        <v>6931</v>
+        <v>7553</v>
       </c>
       <c r="C123" t="s">
-        <v>6995</v>
+        <v>7617</v>
       </c>
       <c r="D123" t="s">
-        <v>7100</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>6790</v>
+        <v>7412</v>
       </c>
       <c r="B124" t="s">
-        <v>6932</v>
+        <v>7554</v>
       </c>
       <c r="C124" t="s">
-        <v>6996</v>
+        <v>7618</v>
       </c>
       <c r="D124" t="s">
-        <v>7101</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>6791</v>
+        <v>7413</v>
       </c>
       <c r="B125" t="s">
-        <v>6933</v>
+        <v>7555</v>
       </c>
       <c r="C125" t="s">
-        <v>6996</v>
+        <v>7618</v>
       </c>
       <c r="D125" t="s">
-        <v>7102</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>6792</v>
+        <v>7414</v>
       </c>
       <c r="B126" t="s">
-        <v>6934</v>
+        <v>7556</v>
       </c>
       <c r="C126" t="s">
-        <v>6996</v>
+        <v>7618</v>
       </c>
       <c r="D126" t="s">
-        <v>7103</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>6793</v>
+        <v>7415</v>
       </c>
       <c r="B127" t="s">
-        <v>6935</v>
+        <v>7557</v>
       </c>
       <c r="C127" t="s">
-        <v>6996</v>
+        <v>7618</v>
       </c>
       <c r="D127" t="s">
-        <v>7104</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>6794</v>
+        <v>7416</v>
       </c>
       <c r="B128" t="s">
-        <v>6936</v>
+        <v>7558</v>
       </c>
       <c r="C128" t="s">
-        <v>6996</v>
+        <v>7618</v>
       </c>
       <c r="D128" t="s">
-        <v>7105</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>6795</v>
+        <v>7417</v>
       </c>
       <c r="B129" t="s">
-        <v>6937</v>
+        <v>7559</v>
       </c>
       <c r="C129" t="s">
-        <v>6996</v>
+        <v>7618</v>
       </c>
       <c r="D129" t="s">
-        <v>7106</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>6796</v>
+        <v>7418</v>
       </c>
       <c r="B130" t="s">
-        <v>6938</v>
+        <v>7560</v>
       </c>
       <c r="C130" t="s">
-        <v>6996</v>
+        <v>7618</v>
       </c>
       <c r="D130" t="s">
-        <v>7107</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>6797</v>
+        <v>7419</v>
       </c>
       <c r="B131" t="s">
-        <v>6939</v>
+        <v>7561</v>
       </c>
       <c r="C131" t="s">
-        <v>6997</v>
+        <v>7619</v>
       </c>
       <c r="D131" t="s">
-        <v>7108</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>6798</v>
+        <v>7420</v>
       </c>
       <c r="B132" t="s">
-        <v>6940</v>
+        <v>7562</v>
       </c>
       <c r="C132" t="s">
-        <v>6998</v>
+        <v>7620</v>
       </c>
       <c r="D132" t="s">
-        <v>7109</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>6799</v>
+        <v>7421</v>
       </c>
       <c r="B133" t="s">
-        <v>6941</v>
+        <v>7563</v>
       </c>
       <c r="C133" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D133" t="s">
-        <v>7110</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>6800</v>
+        <v>7422</v>
       </c>
       <c r="B134" t="s">
-        <v>6942</v>
+        <v>7564</v>
       </c>
       <c r="C134" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D134" t="s">
-        <v>7111</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>6801</v>
+        <v>7423</v>
       </c>
       <c r="B135" t="s">
-        <v>6943</v>
+        <v>7565</v>
       </c>
       <c r="C135" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D135" t="s">
-        <v>7112</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>6802</v>
+        <v>7424</v>
       </c>
       <c r="B136" t="s">
-        <v>6944</v>
+        <v>7566</v>
       </c>
       <c r="C136" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D136" t="s">
-        <v>7113</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>6803</v>
+        <v>7425</v>
       </c>
       <c r="B137" t="s">
-        <v>6945</v>
+        <v>7567</v>
       </c>
       <c r="C137" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D137" t="s">
-        <v>7114</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>6804</v>
+        <v>7426</v>
       </c>
       <c r="B138" t="s">
-        <v>6946</v>
+        <v>7568</v>
       </c>
       <c r="C138" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D138" t="s">
-        <v>7115</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>6805</v>
+        <v>7427</v>
       </c>
       <c r="B139" t="s">
-        <v>6947</v>
+        <v>7569</v>
       </c>
       <c r="C139" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D139" t="s">
-        <v>7116</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>6806</v>
+        <v>7428</v>
       </c>
       <c r="B140" t="s">
-        <v>6948</v>
+        <v>7570</v>
       </c>
       <c r="C140" t="s">
-        <v>6999</v>
+        <v>7621</v>
       </c>
       <c r="D140" t="s">
-        <v>7117</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>6807</v>
+        <v>7429</v>
       </c>
       <c r="B141" t="s">
-        <v>6949</v>
+        <v>7571</v>
       </c>
       <c r="C141" t="s">
-        <v>7000</v>
+        <v>7622</v>
       </c>
       <c r="D141" t="s">
-        <v>7118</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>6808</v>
+        <v>7430</v>
       </c>
       <c r="B142" t="s">
-        <v>6950</v>
+        <v>7572</v>
       </c>
       <c r="C142" t="s">
-        <v>7001</v>
+        <v>7623</v>
       </c>
       <c r="D142" t="s">
-        <v>7119</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>6809</v>
+        <v>7431</v>
       </c>
       <c r="B143" t="s">
-        <v>6951</v>
+        <v>7573</v>
       </c>
       <c r="C143" t="s">
-        <v>7001</v>
+        <v>7623</v>
       </c>
       <c r="D143" t="s">
-        <v>7120</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>6810</v>
+        <v>7432</v>
       </c>
       <c r="B144" t="s">
-        <v>6952</v>
+        <v>7574</v>
       </c>
       <c r="C144" t="s">
-        <v>7001</v>
+        <v>7623</v>
       </c>
       <c r="D144" t="s">
-        <v>7121</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>6811</v>
+        <v>7433</v>
       </c>
       <c r="B145" t="s">
-        <v>6953</v>
+        <v>7575</v>
       </c>
       <c r="C145" t="s">
-        <v>7001</v>
+        <v>7623</v>
       </c>
       <c r="D145" t="s">
-        <v>7122</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>6812</v>
+        <v>7434</v>
       </c>
       <c r="B146" t="s">
-        <v>6954</v>
+        <v>7576</v>
       </c>
       <c r="C146" t="s">
-        <v>7002</v>
+        <v>7624</v>
       </c>
       <c r="D146" t="s">
-        <v>7123</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>6813</v>
+        <v>7435</v>
       </c>
       <c r="B147" t="s">
-        <v>6955</v>
+        <v>7577</v>
       </c>
       <c r="C147" t="s">
-        <v>7003</v>
+        <v>7625</v>
       </c>
       <c r="D147" t="s">
-        <v>7124</v>
+        <v>7746</v>
       </c>
     </row>
   </sheetData>
@@ -23996,816 +25862,816 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7125</v>
+        <v>7747</v>
       </c>
       <c r="B1" t="s">
-        <v>7143</v>
+        <v>7765</v>
       </c>
       <c r="C1" t="s">
-        <v>7215</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7126</v>
+        <v>7748</v>
       </c>
       <c r="B2" t="s">
-        <v>7144</v>
+        <v>7766</v>
       </c>
       <c r="C2" t="s">
-        <v>7216</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7126</v>
+        <v>7748</v>
       </c>
       <c r="B3" t="s">
-        <v>7145</v>
+        <v>7767</v>
       </c>
       <c r="C3" t="s">
-        <v>7217</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7126</v>
+        <v>7748</v>
       </c>
       <c r="B4" t="s">
-        <v>7146</v>
+        <v>7768</v>
       </c>
       <c r="C4" t="s">
-        <v>7218</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7126</v>
+        <v>7748</v>
       </c>
       <c r="B5" t="s">
-        <v>7147</v>
+        <v>7769</v>
       </c>
       <c r="C5" t="s">
-        <v>7219</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7127</v>
+        <v>7749</v>
       </c>
       <c r="B6" t="s">
-        <v>7148</v>
+        <v>7770</v>
       </c>
       <c r="C6" t="s">
-        <v>7220</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7127</v>
+        <v>7749</v>
       </c>
       <c r="B7" t="s">
-        <v>7149</v>
+        <v>7771</v>
       </c>
       <c r="C7" t="s">
-        <v>7221</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7128</v>
+        <v>7750</v>
       </c>
       <c r="B8" t="s">
-        <v>7150</v>
+        <v>7772</v>
       </c>
       <c r="C8" t="s">
-        <v>7222</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7128</v>
+        <v>7750</v>
       </c>
       <c r="B9" t="s">
-        <v>7151</v>
+        <v>7773</v>
       </c>
       <c r="C9" t="s">
-        <v>7223</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7128</v>
+        <v>7750</v>
       </c>
       <c r="B10" t="s">
-        <v>7152</v>
+        <v>7774</v>
       </c>
       <c r="C10" t="s">
-        <v>7224</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7129</v>
+        <v>7751</v>
       </c>
       <c r="B11" t="s">
-        <v>7153</v>
+        <v>7775</v>
       </c>
       <c r="C11" t="s">
-        <v>7225</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7129</v>
+        <v>7751</v>
       </c>
       <c r="B12" t="s">
-        <v>7154</v>
+        <v>7776</v>
       </c>
       <c r="C12" t="s">
-        <v>7226</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7129</v>
+        <v>7751</v>
       </c>
       <c r="B13" t="s">
-        <v>7155</v>
+        <v>7777</v>
       </c>
       <c r="C13" t="s">
-        <v>7227</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7129</v>
+        <v>7751</v>
       </c>
       <c r="B14" t="s">
-        <v>7156</v>
+        <v>7778</v>
       </c>
       <c r="C14" t="s">
-        <v>7228</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7129</v>
+        <v>7751</v>
       </c>
       <c r="B15" t="s">
-        <v>7157</v>
+        <v>7779</v>
       </c>
       <c r="C15" t="s">
-        <v>7229</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7129</v>
+        <v>7751</v>
       </c>
       <c r="B16" t="s">
-        <v>7158</v>
+        <v>7780</v>
       </c>
       <c r="C16" t="s">
-        <v>7230</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7130</v>
+        <v>7752</v>
       </c>
       <c r="B17" t="s">
-        <v>7159</v>
+        <v>7781</v>
       </c>
       <c r="C17" t="s">
-        <v>7231</v>
+        <v>7853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7130</v>
+        <v>7752</v>
       </c>
       <c r="B18" t="s">
-        <v>7160</v>
+        <v>7782</v>
       </c>
       <c r="C18" t="s">
-        <v>7232</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7131</v>
+        <v>7753</v>
       </c>
       <c r="B19" t="s">
-        <v>7161</v>
+        <v>7783</v>
       </c>
       <c r="C19" t="s">
-        <v>7233</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7131</v>
+        <v>7753</v>
       </c>
       <c r="B20" t="s">
-        <v>7162</v>
+        <v>7784</v>
       </c>
       <c r="C20" t="s">
-        <v>7234</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B21" t="s">
-        <v>7162</v>
+        <v>7784</v>
       </c>
       <c r="C21" t="s">
-        <v>7235</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B22" t="s">
-        <v>7163</v>
+        <v>7785</v>
       </c>
       <c r="C22" t="s">
-        <v>7236</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B23" t="s">
-        <v>7164</v>
+        <v>7786</v>
       </c>
       <c r="C23" t="s">
-        <v>7237</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B24" t="s">
-        <v>7165</v>
+        <v>7787</v>
       </c>
       <c r="C24" t="s">
-        <v>7238</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B25" t="s">
-        <v>7166</v>
+        <v>7788</v>
       </c>
       <c r="C25" t="s">
-        <v>7239</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B26" t="s">
-        <v>7167</v>
+        <v>7789</v>
       </c>
       <c r="C26" t="s">
-        <v>7240</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B27" t="s">
-        <v>7168</v>
+        <v>7790</v>
       </c>
       <c r="C27" t="s">
-        <v>7241</v>
+        <v>7863</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B28" t="s">
-        <v>7169</v>
+        <v>7791</v>
       </c>
       <c r="C28" t="s">
-        <v>7242</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B29" t="s">
-        <v>7170</v>
+        <v>7792</v>
       </c>
       <c r="C29" t="s">
-        <v>7243</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B30" t="s">
-        <v>7171</v>
+        <v>7793</v>
       </c>
       <c r="C30" t="s">
-        <v>7244</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B31" t="s">
-        <v>7172</v>
+        <v>7794</v>
       </c>
       <c r="C31" t="s">
-        <v>7245</v>
+        <v>7867</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B32" t="s">
-        <v>7173</v>
+        <v>7795</v>
       </c>
       <c r="C32" t="s">
-        <v>7246</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B33" t="s">
-        <v>7174</v>
+        <v>7796</v>
       </c>
       <c r="C33" t="s">
-        <v>7247</v>
+        <v>7869</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B34" t="s">
-        <v>7175</v>
+        <v>7797</v>
       </c>
       <c r="C34" t="s">
-        <v>7248</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7132</v>
+        <v>7754</v>
       </c>
       <c r="B35" t="s">
-        <v>7176</v>
+        <v>7798</v>
       </c>
       <c r="C35" t="s">
-        <v>7249</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7133</v>
+        <v>7755</v>
       </c>
       <c r="B36" t="s">
-        <v>7177</v>
+        <v>7799</v>
       </c>
       <c r="C36" t="s">
-        <v>7250</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7133</v>
+        <v>7755</v>
       </c>
       <c r="B37" t="s">
-        <v>7178</v>
+        <v>7800</v>
       </c>
       <c r="C37" t="s">
-        <v>7251</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7134</v>
+        <v>7756</v>
       </c>
       <c r="B38" t="s">
-        <v>7178</v>
+        <v>7800</v>
       </c>
       <c r="C38" t="s">
-        <v>7252</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7134</v>
+        <v>7756</v>
       </c>
       <c r="B39" t="s">
-        <v>7179</v>
+        <v>7801</v>
       </c>
       <c r="C39" t="s">
-        <v>7253</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7134</v>
+        <v>7756</v>
       </c>
       <c r="B40" t="s">
-        <v>7180</v>
+        <v>7802</v>
       </c>
       <c r="C40" t="s">
-        <v>7254</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B41" t="s">
-        <v>7181</v>
+        <v>7803</v>
       </c>
       <c r="C41" t="s">
-        <v>7255</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B42" t="s">
-        <v>7182</v>
+        <v>7804</v>
       </c>
       <c r="C42" t="s">
-        <v>7256</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B43" t="s">
-        <v>7183</v>
+        <v>7805</v>
       </c>
       <c r="C43" t="s">
-        <v>7257</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B44" t="s">
-        <v>7184</v>
+        <v>7806</v>
       </c>
       <c r="C44" t="s">
-        <v>7258</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B45" t="s">
-        <v>7185</v>
+        <v>7807</v>
       </c>
       <c r="C45" t="s">
-        <v>7259</v>
+        <v>7881</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B46" t="s">
-        <v>7186</v>
+        <v>7808</v>
       </c>
       <c r="C46" t="s">
-        <v>7260</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B47" t="s">
-        <v>7187</v>
+        <v>7809</v>
       </c>
       <c r="C47" t="s">
-        <v>7261</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B48" t="s">
-        <v>7188</v>
+        <v>7810</v>
       </c>
       <c r="C48" t="s">
-        <v>7262</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B49" t="s">
-        <v>7189</v>
+        <v>7811</v>
       </c>
       <c r="C49" t="s">
-        <v>7263</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B50" t="s">
-        <v>7190</v>
+        <v>7812</v>
       </c>
       <c r="C50" t="s">
-        <v>7264</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B51" t="s">
-        <v>7191</v>
+        <v>7813</v>
       </c>
       <c r="C51" t="s">
-        <v>7265</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B52" t="s">
-        <v>7192</v>
+        <v>7814</v>
       </c>
       <c r="C52" t="s">
-        <v>7266</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B53" t="s">
-        <v>7193</v>
+        <v>7815</v>
       </c>
       <c r="C53" t="s">
-        <v>7267</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B54" t="s">
-        <v>7194</v>
+        <v>7816</v>
       </c>
       <c r="C54" t="s">
-        <v>7268</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B55" t="s">
-        <v>7195</v>
+        <v>7817</v>
       </c>
       <c r="C55" t="s">
-        <v>7269</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>7135</v>
+        <v>7757</v>
       </c>
       <c r="B56" t="s">
-        <v>7196</v>
+        <v>7818</v>
       </c>
       <c r="C56" t="s">
-        <v>7270</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7136</v>
+        <v>7758</v>
       </c>
       <c r="B57" t="s">
-        <v>7197</v>
+        <v>7819</v>
       </c>
       <c r="C57" t="s">
-        <v>7271</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7136</v>
+        <v>7758</v>
       </c>
       <c r="B58" t="s">
-        <v>7198</v>
+        <v>7820</v>
       </c>
       <c r="C58" t="s">
-        <v>7272</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7136</v>
+        <v>7758</v>
       </c>
       <c r="B59" t="s">
-        <v>7199</v>
+        <v>7821</v>
       </c>
       <c r="C59" t="s">
-        <v>7273</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7137</v>
+        <v>7759</v>
       </c>
       <c r="B60" t="s">
-        <v>7200</v>
+        <v>7822</v>
       </c>
       <c r="C60" t="s">
-        <v>7274</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7137</v>
+        <v>7759</v>
       </c>
       <c r="B61" t="s">
-        <v>7201</v>
+        <v>7823</v>
       </c>
       <c r="C61" t="s">
-        <v>7275</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>7138</v>
+        <v>7760</v>
       </c>
       <c r="B62" t="s">
-        <v>7202</v>
+        <v>7824</v>
       </c>
       <c r="C62" t="s">
-        <v>7276</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7138</v>
+        <v>7760</v>
       </c>
       <c r="B63" t="s">
-        <v>7203</v>
+        <v>7825</v>
       </c>
       <c r="C63" t="s">
-        <v>7277</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>7139</v>
+        <v>7761</v>
       </c>
       <c r="B64" t="s">
-        <v>7204</v>
+        <v>7826</v>
       </c>
       <c r="C64" t="s">
-        <v>7278</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7139</v>
+        <v>7761</v>
       </c>
       <c r="B65" t="s">
-        <v>7205</v>
+        <v>7827</v>
       </c>
       <c r="C65" t="s">
-        <v>7279</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>7140</v>
+        <v>7762</v>
       </c>
       <c r="B66" t="s">
-        <v>7206</v>
+        <v>7828</v>
       </c>
       <c r="C66" t="s">
-        <v>7280</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>7140</v>
+        <v>7762</v>
       </c>
       <c r="B67" t="s">
-        <v>7207</v>
+        <v>7829</v>
       </c>
       <c r="C67" t="s">
-        <v>7281</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7141</v>
+        <v>7763</v>
       </c>
       <c r="B68" t="s">
-        <v>7208</v>
+        <v>7830</v>
       </c>
       <c r="C68" t="s">
-        <v>7282</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7141</v>
+        <v>7763</v>
       </c>
       <c r="B69" t="s">
-        <v>7209</v>
+        <v>7831</v>
       </c>
       <c r="C69" t="s">
-        <v>7283</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>7141</v>
+        <v>7763</v>
       </c>
       <c r="B70" t="s">
-        <v>7210</v>
+        <v>7832</v>
       </c>
       <c r="C70" t="s">
-        <v>7284</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7141</v>
+        <v>7763</v>
       </c>
       <c r="B71" t="s">
-        <v>7211</v>
+        <v>7833</v>
       </c>
       <c r="C71" t="s">
-        <v>7285</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>7141</v>
+        <v>7763</v>
       </c>
       <c r="B72" t="s">
-        <v>7212</v>
+        <v>7834</v>
       </c>
       <c r="C72" t="s">
-        <v>7286</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>7142</v>
+        <v>7764</v>
       </c>
       <c r="B73" t="s">
-        <v>7213</v>
+        <v>7835</v>
       </c>
       <c r="C73" t="s">
-        <v>7287</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>7142</v>
+        <v>7764</v>
       </c>
       <c r="B74" t="s">
-        <v>7214</v>
+        <v>7836</v>
       </c>
       <c r="C74" t="s">
-        <v>7288</v>
+        <v>7910</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_children.xlsx
+++ b/data/analysis_children.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11241" uniqueCount="7911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12163" uniqueCount="8569">
   <si>
     <t>name</t>
   </si>
@@ -23171,6 +23171,1980 @@
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_head_female_l</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6_l</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>Near Quake</t>
+  </si>
+  <si>
+    <t>Far From Quake</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_10_post</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_post</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_post</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_post</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_post</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_post</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_post</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_post</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_post</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_post</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_1_post</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_post</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_post</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_post</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_post</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_post</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_post</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_post</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_post</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_post</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_post</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_post</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_post</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_post</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_assets_upper_faultdist</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_eng</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_mth</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_urd</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Distance * Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>District: Abbottabad</t>
+  </si>
+  <si>
+    <t>District: Bagh</t>
+  </si>
+  <si>
+    <t>District: Mansehra</t>
+  </si>
+  <si>
+    <t>District: Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far from faultline (&gt;20km)</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance from Faultline (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Distr Office (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Market (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Medical (min)</t>
+  </si>
+  <si>
+    <t>Log Dist to Private School (min)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mother's ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>Weeks Out of School After Earthquake</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>English Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Math Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Urdu Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>Household Tag</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -23790,2065 +25764,2457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D175"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7289</v>
+        <v>7911</v>
       </c>
       <c r="B1" t="s">
-        <v>7436</v>
+        <v>8086</v>
       </c>
       <c r="C1" t="s">
-        <v>7578</v>
+        <v>8232</v>
       </c>
       <c r="D1" t="s">
-        <v>7626</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7290</v>
+        <v>7912</v>
       </c>
       <c r="B2" t="s">
-        <v>7437</v>
+        <v>8087</v>
       </c>
       <c r="C2" t="s">
-        <v>7579</v>
+        <v>8233</v>
       </c>
       <c r="D2" t="s">
-        <v>7627</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7291</v>
+        <v>7913</v>
       </c>
       <c r="B3" t="s">
-        <v>7438</v>
+        <v>8088</v>
       </c>
       <c r="C3" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D3" t="s">
-        <v>7628</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7292</v>
+        <v>7914</v>
       </c>
       <c r="B4" t="s">
-        <v>7439</v>
+        <v>8089</v>
       </c>
       <c r="C4" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D4" t="s">
-        <v>7629</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7293</v>
+        <v>7915</v>
       </c>
       <c r="B5" t="s">
-        <v>7440</v>
+        <v>8090</v>
       </c>
       <c r="C5" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D5" t="s">
-        <v>7630</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7294</v>
+        <v>7916</v>
       </c>
       <c r="B6" t="s">
-        <v>7441</v>
+        <v>8091</v>
       </c>
       <c r="C6" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D6" t="s">
-        <v>7631</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7295</v>
+        <v>7917</v>
       </c>
       <c r="B7" t="s">
-        <v>7442</v>
+        <v>8092</v>
       </c>
       <c r="C7" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D7" t="s">
-        <v>7632</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7296</v>
+        <v>7918</v>
       </c>
       <c r="B8" t="s">
-        <v>7443</v>
+        <v>8093</v>
       </c>
       <c r="C8" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D8" t="s">
-        <v>7633</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7297</v>
+        <v>7919</v>
       </c>
       <c r="B9" t="s">
-        <v>7444</v>
+        <v>8094</v>
       </c>
       <c r="C9" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D9" t="s">
-        <v>7634</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7298</v>
+        <v>7920</v>
       </c>
       <c r="B10" t="s">
-        <v>7445</v>
+        <v>8095</v>
       </c>
       <c r="C10" t="s">
-        <v>7580</v>
+        <v>8234</v>
       </c>
       <c r="D10" t="s">
-        <v>7635</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7299</v>
+        <v>7921</v>
       </c>
       <c r="B11" t="s">
-        <v>7446</v>
+        <v>8096</v>
       </c>
       <c r="C11" t="s">
-        <v>7581</v>
+        <v>8235</v>
       </c>
       <c r="D11" t="s">
-        <v>7636</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7300</v>
+        <v>7922</v>
       </c>
       <c r="B12" t="s">
-        <v>7447</v>
+        <v>8097</v>
       </c>
       <c r="C12" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D12" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7301</v>
+        <v>7923</v>
       </c>
       <c r="B13" t="s">
-        <v>7448</v>
+        <v>8097</v>
       </c>
       <c r="C13" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D13" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7302</v>
+        <v>7924</v>
       </c>
       <c r="B14" t="s">
-        <v>7449</v>
+        <v>8098</v>
       </c>
       <c r="C14" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D14" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7303</v>
+        <v>7925</v>
       </c>
       <c r="B15" t="s">
-        <v>7450</v>
+        <v>8098</v>
       </c>
       <c r="C15" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D15" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7304</v>
+        <v>7926</v>
       </c>
       <c r="B16" t="s">
-        <v>7451</v>
+        <v>8099</v>
       </c>
       <c r="C16" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D16" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7305</v>
+        <v>7927</v>
       </c>
       <c r="B17" t="s">
-        <v>7452</v>
+        <v>8099</v>
       </c>
       <c r="C17" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D17" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7306</v>
+        <v>7928</v>
       </c>
       <c r="B18" t="s">
-        <v>7453</v>
+        <v>8100</v>
       </c>
       <c r="C18" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D18" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7307</v>
+        <v>7929</v>
       </c>
       <c r="B19" t="s">
-        <v>7454</v>
+        <v>8100</v>
       </c>
       <c r="C19" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D19" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7308</v>
+        <v>7930</v>
       </c>
       <c r="B20" t="s">
-        <v>7455</v>
+        <v>8101</v>
       </c>
       <c r="C20" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D20" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7309</v>
+        <v>7931</v>
       </c>
       <c r="B21" t="s">
-        <v>7456</v>
+        <v>8101</v>
       </c>
       <c r="C21" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D21" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7310</v>
+        <v>7932</v>
       </c>
       <c r="B22" t="s">
-        <v>7457</v>
+        <v>8102</v>
       </c>
       <c r="C22" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D22" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7311</v>
+        <v>7933</v>
       </c>
       <c r="B23" t="s">
-        <v>7458</v>
+        <v>8102</v>
       </c>
       <c r="C23" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D23" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7312</v>
+        <v>7934</v>
       </c>
       <c r="B24" t="s">
-        <v>7459</v>
+        <v>8103</v>
       </c>
       <c r="C24" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D24" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7313</v>
+        <v>7935</v>
       </c>
       <c r="B25" t="s">
-        <v>7460</v>
+        <v>8103</v>
       </c>
       <c r="C25" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D25" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7314</v>
+        <v>7936</v>
       </c>
       <c r="B26" t="s">
-        <v>7461</v>
+        <v>8104</v>
       </c>
       <c r="C26" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D26" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7315</v>
+        <v>7937</v>
       </c>
       <c r="B27" t="s">
-        <v>7462</v>
+        <v>8104</v>
       </c>
       <c r="C27" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D27" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7316</v>
+        <v>7938</v>
       </c>
       <c r="B28" t="s">
-        <v>7463</v>
+        <v>8105</v>
       </c>
       <c r="C28" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D28" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7317</v>
+        <v>7939</v>
       </c>
       <c r="B29" t="s">
-        <v>7464</v>
+        <v>8105</v>
       </c>
       <c r="C29" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D29" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7318</v>
+        <v>7940</v>
       </c>
       <c r="B30" t="s">
-        <v>7465</v>
+        <v>8106</v>
       </c>
       <c r="C30" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D30" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7319</v>
+        <v>7941</v>
       </c>
       <c r="B31" t="s">
-        <v>7466</v>
+        <v>8106</v>
       </c>
       <c r="C31" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D31" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7320</v>
+        <v>7942</v>
       </c>
       <c r="B32" t="s">
-        <v>7467</v>
+        <v>8107</v>
       </c>
       <c r="C32" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D32" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7321</v>
+        <v>7943</v>
       </c>
       <c r="B33" t="s">
-        <v>7468</v>
+        <v>8107</v>
       </c>
       <c r="C33" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D33" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7322</v>
+        <v>7944</v>
       </c>
       <c r="B34" t="s">
-        <v>7469</v>
+        <v>8108</v>
       </c>
       <c r="C34" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D34" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7323</v>
+        <v>7945</v>
       </c>
       <c r="B35" t="s">
-        <v>7470</v>
+        <v>8108</v>
       </c>
       <c r="C35" t="s">
-        <v>7582</v>
+        <v>8236</v>
       </c>
       <c r="D35" t="s">
-        <v>7637</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7324</v>
+        <v>7946</v>
       </c>
       <c r="B36" t="s">
-        <v>7471</v>
+        <v>8109</v>
       </c>
       <c r="C36" t="s">
-        <v>7583</v>
+        <v>8236</v>
       </c>
       <c r="D36" t="s">
-        <v>7638</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7325</v>
+        <v>7947</v>
       </c>
       <c r="B37" t="s">
-        <v>7472</v>
+        <v>8109</v>
       </c>
       <c r="C37" t="s">
-        <v>7583</v>
+        <v>8236</v>
       </c>
       <c r="D37" t="s">
-        <v>7639</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7326</v>
+        <v>7948</v>
       </c>
       <c r="B38" t="s">
-        <v>7473</v>
+        <v>8110</v>
       </c>
       <c r="C38" t="s">
-        <v>7584</v>
+        <v>8236</v>
       </c>
       <c r="D38" t="s">
-        <v>7640</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7327</v>
+        <v>7949</v>
       </c>
       <c r="B39" t="s">
-        <v>7474</v>
+        <v>8110</v>
       </c>
       <c r="C39" t="s">
-        <v>7585</v>
+        <v>8236</v>
       </c>
       <c r="D39" t="s">
-        <v>7641</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7328</v>
+        <v>7950</v>
       </c>
       <c r="B40" t="s">
-        <v>7475</v>
+        <v>8111</v>
       </c>
       <c r="C40" t="s">
-        <v>7585</v>
+        <v>8236</v>
       </c>
       <c r="D40" t="s">
-        <v>7642</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7329</v>
+        <v>7951</v>
       </c>
       <c r="B41" t="s">
-        <v>7476</v>
+        <v>8111</v>
       </c>
       <c r="C41" t="s">
-        <v>7586</v>
+        <v>8236</v>
       </c>
       <c r="D41" t="s">
-        <v>7643</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7330</v>
+        <v>7952</v>
       </c>
       <c r="B42" t="s">
-        <v>7477</v>
+        <v>8112</v>
       </c>
       <c r="C42" t="s">
-        <v>7586</v>
+        <v>8236</v>
       </c>
       <c r="D42" t="s">
-        <v>7644</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7331</v>
+        <v>7953</v>
       </c>
       <c r="B43" t="s">
-        <v>7478</v>
+        <v>8112</v>
       </c>
       <c r="C43" t="s">
-        <v>7587</v>
+        <v>8236</v>
       </c>
       <c r="D43" t="s">
-        <v>7645</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7332</v>
+        <v>7954</v>
       </c>
       <c r="B44" t="s">
-        <v>7479</v>
+        <v>8113</v>
       </c>
       <c r="C44" t="s">
-        <v>7587</v>
+        <v>8236</v>
       </c>
       <c r="D44" t="s">
-        <v>7646</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7333</v>
+        <v>7955</v>
       </c>
       <c r="B45" t="s">
-        <v>7480</v>
+        <v>8113</v>
       </c>
       <c r="C45" t="s">
-        <v>7587</v>
+        <v>8236</v>
       </c>
       <c r="D45" t="s">
-        <v>7647</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7334</v>
+        <v>7956</v>
       </c>
       <c r="B46" t="s">
-        <v>7481</v>
+        <v>8114</v>
       </c>
       <c r="C46" t="s">
-        <v>7587</v>
+        <v>8236</v>
       </c>
       <c r="D46" t="s">
-        <v>7648</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7335</v>
+        <v>7957</v>
       </c>
       <c r="B47" t="s">
-        <v>7482</v>
+        <v>8114</v>
       </c>
       <c r="C47" t="s">
-        <v>7587</v>
+        <v>8236</v>
       </c>
       <c r="D47" t="s">
-        <v>7649</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7336</v>
+        <v>7958</v>
       </c>
       <c r="B48" t="s">
-        <v>7483</v>
+        <v>8115</v>
       </c>
       <c r="C48" t="s">
-        <v>7588</v>
+        <v>8236</v>
       </c>
       <c r="D48" t="s">
-        <v>7650</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7337</v>
+        <v>7959</v>
       </c>
       <c r="B49" t="s">
-        <v>7484</v>
+        <v>8115</v>
       </c>
       <c r="C49" t="s">
-        <v>7588</v>
+        <v>8236</v>
       </c>
       <c r="D49" t="s">
-        <v>7651</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7338</v>
+        <v>7960</v>
       </c>
       <c r="B50" t="s">
-        <v>7485</v>
+        <v>8116</v>
       </c>
       <c r="C50" t="s">
-        <v>7588</v>
+        <v>8236</v>
       </c>
       <c r="D50" t="s">
-        <v>7652</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7339</v>
+        <v>7961</v>
       </c>
       <c r="B51" t="s">
-        <v>7486</v>
+        <v>8116</v>
       </c>
       <c r="C51" t="s">
-        <v>7588</v>
+        <v>8236</v>
       </c>
       <c r="D51" t="s">
-        <v>7653</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7340</v>
+        <v>7962</v>
       </c>
       <c r="B52" t="s">
-        <v>7487</v>
+        <v>8117</v>
       </c>
       <c r="C52" t="s">
-        <v>7588</v>
+        <v>8236</v>
       </c>
       <c r="D52" t="s">
-        <v>7654</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7341</v>
+        <v>7963</v>
       </c>
       <c r="B53" t="s">
-        <v>7488</v>
+        <v>8117</v>
       </c>
       <c r="C53" t="s">
-        <v>7588</v>
+        <v>8236</v>
       </c>
       <c r="D53" t="s">
-        <v>7655</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7342</v>
+        <v>7964</v>
       </c>
       <c r="B54" t="s">
-        <v>7489</v>
+        <v>8118</v>
       </c>
       <c r="C54" t="s">
-        <v>7589</v>
+        <v>8236</v>
       </c>
       <c r="D54" t="s">
-        <v>7656</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7343</v>
+        <v>7965</v>
       </c>
       <c r="B55" t="s">
-        <v>7490</v>
+        <v>8118</v>
       </c>
       <c r="C55" t="s">
-        <v>7590</v>
+        <v>8236</v>
       </c>
       <c r="D55" t="s">
-        <v>7657</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>7344</v>
+        <v>7966</v>
       </c>
       <c r="B56" t="s">
-        <v>7491</v>
+        <v>8119</v>
       </c>
       <c r="C56" t="s">
-        <v>7590</v>
+        <v>8236</v>
       </c>
       <c r="D56" t="s">
-        <v>7658</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7345</v>
+        <v>7967</v>
       </c>
       <c r="B57" t="s">
-        <v>7492</v>
+        <v>8119</v>
       </c>
       <c r="C57" t="s">
-        <v>7591</v>
+        <v>8236</v>
       </c>
       <c r="D57" t="s">
-        <v>7659</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7346</v>
+        <v>7968</v>
       </c>
       <c r="B58" t="s">
-        <v>7493</v>
+        <v>8120</v>
       </c>
       <c r="C58" t="s">
-        <v>7591</v>
+        <v>8236</v>
       </c>
       <c r="D58" t="s">
-        <v>7660</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7347</v>
+        <v>7969</v>
       </c>
       <c r="B59" t="s">
-        <v>7494</v>
+        <v>8120</v>
       </c>
       <c r="C59" t="s">
-        <v>7592</v>
+        <v>8236</v>
       </c>
       <c r="D59" t="s">
-        <v>7661</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7348</v>
+        <v>7970</v>
       </c>
       <c r="B60" t="s">
-        <v>7495</v>
+        <v>8121</v>
       </c>
       <c r="C60" t="s">
-        <v>7593</v>
+        <v>8237</v>
       </c>
       <c r="D60" t="s">
-        <v>7662</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7349</v>
+        <v>7971</v>
       </c>
       <c r="B61" t="s">
-        <v>7496</v>
+        <v>8122</v>
       </c>
       <c r="C61" t="s">
-        <v>7593</v>
+        <v>8237</v>
       </c>
       <c r="D61" t="s">
-        <v>7662</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>7350</v>
+        <v>7972</v>
       </c>
       <c r="B62" t="s">
-        <v>7497</v>
+        <v>8123</v>
       </c>
       <c r="C62" t="s">
-        <v>7594</v>
+        <v>8238</v>
       </c>
       <c r="D62" t="s">
-        <v>7663</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7351</v>
+        <v>7973</v>
       </c>
       <c r="B63" t="s">
-        <v>7498</v>
+        <v>8124</v>
       </c>
       <c r="C63" t="s">
-        <v>7595</v>
+        <v>8239</v>
       </c>
       <c r="D63" t="s">
-        <v>7664</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>7352</v>
+        <v>7974</v>
       </c>
       <c r="B64" t="s">
-        <v>7499</v>
+        <v>8125</v>
       </c>
       <c r="C64" t="s">
-        <v>7595</v>
+        <v>8239</v>
       </c>
       <c r="D64" t="s">
-        <v>7664</v>
+        <v>8296</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7353</v>
+        <v>7975</v>
       </c>
       <c r="B65" t="s">
-        <v>7500</v>
+        <v>8126</v>
       </c>
       <c r="C65" t="s">
-        <v>7596</v>
+        <v>8239</v>
       </c>
       <c r="D65" t="s">
-        <v>7665</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>7354</v>
+        <v>7976</v>
       </c>
       <c r="B66" t="s">
-        <v>7501</v>
+        <v>8127</v>
       </c>
       <c r="C66" t="s">
-        <v>7596</v>
+        <v>8240</v>
       </c>
       <c r="D66" t="s">
-        <v>7666</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>7355</v>
+        <v>7977</v>
       </c>
       <c r="B67" t="s">
-        <v>7502</v>
+        <v>8128</v>
       </c>
       <c r="C67" t="s">
-        <v>7597</v>
+        <v>8240</v>
       </c>
       <c r="D67" t="s">
-        <v>7667</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7356</v>
+        <v>7978</v>
       </c>
       <c r="B68" t="s">
-        <v>7503</v>
+        <v>8129</v>
       </c>
       <c r="C68" t="s">
-        <v>7597</v>
+        <v>8241</v>
       </c>
       <c r="D68" t="s">
-        <v>7668</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7357</v>
+        <v>7979</v>
       </c>
       <c r="B69" t="s">
-        <v>7503</v>
+        <v>8130</v>
       </c>
       <c r="C69" t="s">
-        <v>7597</v>
+        <v>8241</v>
       </c>
       <c r="D69" t="s">
-        <v>7669</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>7358</v>
+        <v>7980</v>
       </c>
       <c r="B70" t="s">
-        <v>7504</v>
+        <v>8131</v>
       </c>
       <c r="C70" t="s">
-        <v>7598</v>
+        <v>8241</v>
       </c>
       <c r="D70" t="s">
-        <v>7670</v>
+        <v>8302</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7359</v>
+        <v>7981</v>
       </c>
       <c r="B71" t="s">
-        <v>7505</v>
+        <v>8132</v>
       </c>
       <c r="C71" t="s">
-        <v>7599</v>
+        <v>8241</v>
       </c>
       <c r="D71" t="s">
-        <v>7671</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>7360</v>
+        <v>7982</v>
       </c>
       <c r="B72" t="s">
-        <v>7506</v>
+        <v>8133</v>
       </c>
       <c r="C72" t="s">
-        <v>7599</v>
+        <v>8241</v>
       </c>
       <c r="D72" t="s">
-        <v>7672</v>
+        <v>8304</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>7361</v>
+        <v>7983</v>
       </c>
       <c r="B73" t="s">
-        <v>7507</v>
+        <v>8134</v>
       </c>
       <c r="C73" t="s">
-        <v>7599</v>
+        <v>8242</v>
       </c>
       <c r="D73" t="s">
-        <v>7672</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>7362</v>
+        <v>7984</v>
       </c>
       <c r="B74" t="s">
-        <v>7508</v>
+        <v>8135</v>
       </c>
       <c r="C74" t="s">
-        <v>7600</v>
+        <v>8242</v>
       </c>
       <c r="D74" t="s">
-        <v>7673</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>7363</v>
+        <v>7985</v>
       </c>
       <c r="B75" t="s">
-        <v>7509</v>
+        <v>8136</v>
       </c>
       <c r="C75" t="s">
-        <v>7601</v>
+        <v>8242</v>
       </c>
       <c r="D75" t="s">
-        <v>7674</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>7364</v>
+        <v>7986</v>
       </c>
       <c r="B76" t="s">
-        <v>7510</v>
+        <v>8137</v>
       </c>
       <c r="C76" t="s">
-        <v>7601</v>
+        <v>8242</v>
       </c>
       <c r="D76" t="s">
-        <v>7675</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>7365</v>
+        <v>7987</v>
       </c>
       <c r="B77" t="s">
-        <v>7511</v>
+        <v>8138</v>
       </c>
       <c r="C77" t="s">
-        <v>7601</v>
+        <v>8242</v>
       </c>
       <c r="D77" t="s">
-        <v>7676</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7366</v>
+        <v>7988</v>
       </c>
       <c r="B78" t="s">
-        <v>7512</v>
+        <v>8139</v>
       </c>
       <c r="C78" t="s">
-        <v>7601</v>
+        <v>8242</v>
       </c>
       <c r="D78" t="s">
-        <v>7677</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>7367</v>
+        <v>7989</v>
       </c>
       <c r="B79" t="s">
-        <v>7513</v>
+        <v>8140</v>
       </c>
       <c r="C79" t="s">
-        <v>7601</v>
+        <v>8243</v>
       </c>
       <c r="D79" t="s">
-        <v>7678</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>7368</v>
+        <v>7990</v>
       </c>
       <c r="B80" t="s">
-        <v>7514</v>
+        <v>8141</v>
       </c>
       <c r="C80" t="s">
-        <v>7602</v>
+        <v>8244</v>
       </c>
       <c r="D80" t="s">
-        <v>7679</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>7369</v>
+        <v>7991</v>
       </c>
       <c r="B81" t="s">
-        <v>7515</v>
+        <v>8142</v>
       </c>
       <c r="C81" t="s">
-        <v>7602</v>
+        <v>8244</v>
       </c>
       <c r="D81" t="s">
-        <v>7680</v>
+        <v>8313</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>7370</v>
+        <v>7992</v>
       </c>
       <c r="B82" t="s">
-        <v>7516</v>
+        <v>8143</v>
       </c>
       <c r="C82" t="s">
-        <v>7603</v>
+        <v>8245</v>
       </c>
       <c r="D82" t="s">
-        <v>7681</v>
+        <v>8314</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>7371</v>
+        <v>7993</v>
       </c>
       <c r="B83" t="s">
-        <v>7517</v>
+        <v>8144</v>
       </c>
       <c r="C83" t="s">
-        <v>7604</v>
+        <v>8245</v>
       </c>
       <c r="D83" t="s">
-        <v>7682</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>7372</v>
+        <v>7994</v>
       </c>
       <c r="B84" t="s">
-        <v>7518</v>
+        <v>8145</v>
       </c>
       <c r="C84" t="s">
-        <v>7605</v>
+        <v>8246</v>
       </c>
       <c r="D84" t="s">
-        <v>7683</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>7373</v>
+        <v>7995</v>
       </c>
       <c r="B85" t="s">
-        <v>7519</v>
+        <v>8146</v>
       </c>
       <c r="C85" t="s">
-        <v>7606</v>
+        <v>8247</v>
       </c>
       <c r="D85" t="s">
-        <v>7684</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>7374</v>
+        <v>7996</v>
       </c>
       <c r="B86" t="s">
-        <v>7520</v>
+        <v>8147</v>
       </c>
       <c r="C86" t="s">
-        <v>7606</v>
+        <v>8247</v>
       </c>
       <c r="D86" t="s">
-        <v>7685</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>7375</v>
+        <v>7997</v>
       </c>
       <c r="B87" t="s">
-        <v>7521</v>
+        <v>8148</v>
       </c>
       <c r="C87" t="s">
-        <v>7607</v>
+        <v>8248</v>
       </c>
       <c r="D87" t="s">
-        <v>7686</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>7376</v>
+        <v>7998</v>
       </c>
       <c r="B88" t="s">
-        <v>7522</v>
+        <v>8149</v>
       </c>
       <c r="C88" t="s">
-        <v>7608</v>
+        <v>8249</v>
       </c>
       <c r="D88" t="s">
-        <v>7687</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>7377</v>
+        <v>7999</v>
       </c>
       <c r="B89" t="s">
-        <v>7523</v>
+        <v>8150</v>
       </c>
       <c r="C89" t="s">
-        <v>7608</v>
+        <v>8249</v>
       </c>
       <c r="D89" t="s">
-        <v>7688</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>7378</v>
+        <v>8000</v>
       </c>
       <c r="B90" t="s">
-        <v>7524</v>
+        <v>8151</v>
       </c>
       <c r="C90" t="s">
-        <v>7608</v>
+        <v>8250</v>
       </c>
       <c r="D90" t="s">
-        <v>7689</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>7379</v>
+        <v>8001</v>
       </c>
       <c r="B91" t="s">
-        <v>7525</v>
+        <v>8152</v>
       </c>
       <c r="C91" t="s">
-        <v>7608</v>
+        <v>8250</v>
       </c>
       <c r="D91" t="s">
-        <v>7690</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>7380</v>
+        <v>8002</v>
       </c>
       <c r="B92" t="s">
-        <v>7526</v>
+        <v>8153</v>
       </c>
       <c r="C92" t="s">
-        <v>7608</v>
+        <v>8251</v>
       </c>
       <c r="D92" t="s">
-        <v>7691</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>7381</v>
+        <v>8003</v>
       </c>
       <c r="B93" t="s">
-        <v>7527</v>
+        <v>8154</v>
       </c>
       <c r="C93" t="s">
-        <v>7608</v>
+        <v>8251</v>
       </c>
       <c r="D93" t="s">
-        <v>7692</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>7382</v>
+        <v>8004</v>
       </c>
       <c r="B94" t="s">
-        <v>7528</v>
+        <v>8154</v>
       </c>
       <c r="C94" t="s">
-        <v>7608</v>
+        <v>8251</v>
       </c>
       <c r="D94" t="s">
-        <v>7693</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>7383</v>
+        <v>8005</v>
       </c>
       <c r="B95" t="s">
-        <v>7529</v>
+        <v>8155</v>
       </c>
       <c r="C95" t="s">
-        <v>7608</v>
+        <v>8252</v>
       </c>
       <c r="D95" t="s">
-        <v>7694</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>7384</v>
+        <v>8006</v>
       </c>
       <c r="B96" t="s">
-        <v>7530</v>
+        <v>8156</v>
       </c>
       <c r="C96" t="s">
-        <v>7608</v>
+        <v>8253</v>
       </c>
       <c r="D96" t="s">
-        <v>7695</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>7385</v>
+        <v>8007</v>
       </c>
       <c r="B97" t="s">
-        <v>7531</v>
+        <v>8157</v>
       </c>
       <c r="C97" t="s">
-        <v>7609</v>
+        <v>8253</v>
       </c>
       <c r="D97" t="s">
-        <v>7696</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>7386</v>
+        <v>8008</v>
       </c>
       <c r="B98" t="s">
-        <v>7532</v>
+        <v>8158</v>
       </c>
       <c r="C98" t="s">
-        <v>7610</v>
+        <v>8253</v>
       </c>
       <c r="D98" t="s">
-        <v>7697</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>7387</v>
+        <v>8009</v>
       </c>
       <c r="B99" t="s">
-        <v>7533</v>
+        <v>8159</v>
       </c>
       <c r="C99" t="s">
-        <v>7611</v>
+        <v>8254</v>
       </c>
       <c r="D99" t="s">
-        <v>7698</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>7388</v>
+        <v>8010</v>
       </c>
       <c r="B100" t="s">
-        <v>7534</v>
+        <v>8160</v>
       </c>
       <c r="C100" t="s">
-        <v>7612</v>
+        <v>8255</v>
       </c>
       <c r="D100" t="s">
-        <v>7699</v>
+        <v>8329</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>7389</v>
+        <v>8011</v>
       </c>
       <c r="B101" t="s">
-        <v>7535</v>
+        <v>8161</v>
       </c>
       <c r="C101" t="s">
-        <v>7613</v>
+        <v>8255</v>
       </c>
       <c r="D101" t="s">
-        <v>7700</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>7390</v>
+        <v>8012</v>
       </c>
       <c r="B102" t="s">
-        <v>7536</v>
+        <v>8162</v>
       </c>
       <c r="C102" t="s">
-        <v>7613</v>
+        <v>8255</v>
       </c>
       <c r="D102" t="s">
-        <v>7701</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>7391</v>
+        <v>8013</v>
       </c>
       <c r="B103" t="s">
-        <v>7537</v>
+        <v>8163</v>
       </c>
       <c r="C103" t="s">
-        <v>7614</v>
+        <v>8255</v>
       </c>
       <c r="D103" t="s">
-        <v>7702</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>7392</v>
+        <v>8014</v>
       </c>
       <c r="B104" t="s">
-        <v>7538</v>
+        <v>8164</v>
       </c>
       <c r="C104" t="s">
-        <v>7614</v>
+        <v>8255</v>
       </c>
       <c r="D104" t="s">
-        <v>7703</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>7393</v>
+        <v>8015</v>
       </c>
       <c r="B105" t="s">
-        <v>7539</v>
+        <v>8165</v>
       </c>
       <c r="C105" t="s">
-        <v>7614</v>
+        <v>8256</v>
       </c>
       <c r="D105" t="s">
-        <v>7704</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>7394</v>
+        <v>8016</v>
       </c>
       <c r="B106" t="s">
-        <v>7540</v>
+        <v>8166</v>
       </c>
       <c r="C106" t="s">
-        <v>7614</v>
+        <v>8256</v>
       </c>
       <c r="D106" t="s">
-        <v>7705</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>7395</v>
+        <v>8017</v>
       </c>
       <c r="B107" t="s">
-        <v>7541</v>
+        <v>8167</v>
       </c>
       <c r="C107" t="s">
-        <v>7614</v>
+        <v>8257</v>
       </c>
       <c r="D107" t="s">
-        <v>7706</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>7396</v>
+        <v>8018</v>
       </c>
       <c r="B108" t="s">
-        <v>7542</v>
+        <v>8168</v>
       </c>
       <c r="C108" t="s">
-        <v>7614</v>
+        <v>8258</v>
       </c>
       <c r="D108" t="s">
-        <v>7707</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>7397</v>
+        <v>8019</v>
       </c>
       <c r="B109" t="s">
-        <v>7543</v>
+        <v>8169</v>
       </c>
       <c r="C109" t="s">
-        <v>7614</v>
+        <v>8259</v>
       </c>
       <c r="D109" t="s">
-        <v>7708</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>7398</v>
+        <v>8020</v>
       </c>
       <c r="B110" t="s">
-        <v>7544</v>
+        <v>8170</v>
       </c>
       <c r="C110" t="s">
-        <v>7614</v>
+        <v>8260</v>
       </c>
       <c r="D110" t="s">
-        <v>7709</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>7399</v>
+        <v>8021</v>
       </c>
       <c r="B111" t="s">
-        <v>7544</v>
+        <v>8171</v>
       </c>
       <c r="C111" t="s">
-        <v>7614</v>
+        <v>8260</v>
       </c>
       <c r="D111" t="s">
-        <v>7710</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>7400</v>
+        <v>8022</v>
       </c>
       <c r="B112" t="s">
-        <v>7545</v>
+        <v>8172</v>
       </c>
       <c r="C112" t="s">
-        <v>7614</v>
+        <v>8261</v>
       </c>
       <c r="D112" t="s">
-        <v>7711</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>7401</v>
+        <v>8023</v>
       </c>
       <c r="B113" t="s">
-        <v>7545</v>
+        <v>8173</v>
       </c>
       <c r="C113" t="s">
-        <v>7614</v>
+        <v>8262</v>
       </c>
       <c r="D113" t="s">
-        <v>7712</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>7402</v>
+        <v>8024</v>
       </c>
       <c r="B114" t="s">
-        <v>7546</v>
+        <v>8174</v>
       </c>
       <c r="C114" t="s">
-        <v>7614</v>
+        <v>8262</v>
       </c>
       <c r="D114" t="s">
-        <v>7713</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>7403</v>
+        <v>8025</v>
       </c>
       <c r="B115" t="s">
-        <v>7546</v>
+        <v>8175</v>
       </c>
       <c r="C115" t="s">
-        <v>7614</v>
+        <v>8262</v>
       </c>
       <c r="D115" t="s">
-        <v>7714</v>
+        <v>8344</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>7404</v>
+        <v>8026</v>
       </c>
       <c r="B116" t="s">
-        <v>7547</v>
+        <v>8176</v>
       </c>
       <c r="C116" t="s">
-        <v>7614</v>
+        <v>8262</v>
       </c>
       <c r="D116" t="s">
-        <v>7715</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>7405</v>
+        <v>8027</v>
       </c>
       <c r="B117" t="s">
-        <v>7547</v>
+        <v>8177</v>
       </c>
       <c r="C117" t="s">
-        <v>7614</v>
+        <v>8262</v>
       </c>
       <c r="D117" t="s">
-        <v>7716</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>7406</v>
+        <v>8028</v>
       </c>
       <c r="B118" t="s">
-        <v>7548</v>
+        <v>8178</v>
       </c>
       <c r="C118" t="s">
-        <v>7614</v>
+        <v>8262</v>
       </c>
       <c r="D118" t="s">
-        <v>7717</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>7407</v>
+        <v>8029</v>
       </c>
       <c r="B119" t="s">
-        <v>7549</v>
+        <v>8179</v>
       </c>
       <c r="C119" t="s">
-        <v>7614</v>
+        <v>8262</v>
       </c>
       <c r="D119" t="s">
-        <v>7718</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>7408</v>
+        <v>8030</v>
       </c>
       <c r="B120" t="s">
-        <v>7550</v>
+        <v>8180</v>
       </c>
       <c r="C120" t="s">
-        <v>7615</v>
+        <v>8262</v>
       </c>
       <c r="D120" t="s">
-        <v>7719</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>7409</v>
+        <v>8031</v>
       </c>
       <c r="B121" t="s">
-        <v>7551</v>
+        <v>8181</v>
       </c>
       <c r="C121" t="s">
-        <v>7616</v>
+        <v>8262</v>
       </c>
       <c r="D121" t="s">
-        <v>7720</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>7410</v>
+        <v>8032</v>
       </c>
       <c r="B122" t="s">
-        <v>7552</v>
+        <v>8182</v>
       </c>
       <c r="C122" t="s">
-        <v>7616</v>
+        <v>8263</v>
       </c>
       <c r="D122" t="s">
-        <v>7721</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>7411</v>
+        <v>8033</v>
       </c>
       <c r="B123" t="s">
-        <v>7553</v>
+        <v>8183</v>
       </c>
       <c r="C123" t="s">
-        <v>7617</v>
+        <v>8264</v>
       </c>
       <c r="D123" t="s">
-        <v>7722</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>7412</v>
+        <v>8034</v>
       </c>
       <c r="B124" t="s">
-        <v>7554</v>
+        <v>8184</v>
       </c>
       <c r="C124" t="s">
-        <v>7618</v>
+        <v>8265</v>
       </c>
       <c r="D124" t="s">
-        <v>7723</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>7413</v>
+        <v>8035</v>
       </c>
       <c r="B125" t="s">
-        <v>7555</v>
+        <v>8185</v>
       </c>
       <c r="C125" t="s">
-        <v>7618</v>
+        <v>8266</v>
       </c>
       <c r="D125" t="s">
-        <v>7724</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>7414</v>
+        <v>8036</v>
       </c>
       <c r="B126" t="s">
-        <v>7556</v>
+        <v>8186</v>
       </c>
       <c r="C126" t="s">
-        <v>7618</v>
+        <v>8267</v>
       </c>
       <c r="D126" t="s">
-        <v>7725</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>7415</v>
+        <v>8037</v>
       </c>
       <c r="B127" t="s">
-        <v>7557</v>
+        <v>8187</v>
       </c>
       <c r="C127" t="s">
-        <v>7618</v>
+        <v>8267</v>
       </c>
       <c r="D127" t="s">
-        <v>7726</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>7416</v>
+        <v>8038</v>
       </c>
       <c r="B128" t="s">
-        <v>7558</v>
+        <v>8188</v>
       </c>
       <c r="C128" t="s">
-        <v>7618</v>
+        <v>8268</v>
       </c>
       <c r="D128" t="s">
-        <v>7727</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>7417</v>
+        <v>8039</v>
       </c>
       <c r="B129" t="s">
-        <v>7559</v>
+        <v>8189</v>
       </c>
       <c r="C129" t="s">
-        <v>7618</v>
+        <v>8268</v>
       </c>
       <c r="D129" t="s">
-        <v>7728</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>7418</v>
+        <v>8040</v>
       </c>
       <c r="B130" t="s">
-        <v>7560</v>
+        <v>8190</v>
       </c>
       <c r="C130" t="s">
-        <v>7618</v>
+        <v>8268</v>
       </c>
       <c r="D130" t="s">
-        <v>7729</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>7419</v>
+        <v>8041</v>
       </c>
       <c r="B131" t="s">
-        <v>7561</v>
+        <v>8191</v>
       </c>
       <c r="C131" t="s">
-        <v>7619</v>
+        <v>8268</v>
       </c>
       <c r="D131" t="s">
-        <v>7730</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>7420</v>
+        <v>8042</v>
       </c>
       <c r="B132" t="s">
-        <v>7562</v>
+        <v>8192</v>
       </c>
       <c r="C132" t="s">
-        <v>7620</v>
+        <v>8268</v>
       </c>
       <c r="D132" t="s">
-        <v>7731</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>7421</v>
+        <v>8043</v>
       </c>
       <c r="B133" t="s">
-        <v>7563</v>
+        <v>8193</v>
       </c>
       <c r="C133" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D133" t="s">
-        <v>7732</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>7422</v>
+        <v>8044</v>
       </c>
       <c r="B134" t="s">
-        <v>7564</v>
+        <v>8194</v>
       </c>
       <c r="C134" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D134" t="s">
-        <v>7733</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>7423</v>
+        <v>8045</v>
       </c>
       <c r="B135" t="s">
-        <v>7565</v>
+        <v>8195</v>
       </c>
       <c r="C135" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D135" t="s">
-        <v>7734</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>7424</v>
+        <v>8046</v>
       </c>
       <c r="B136" t="s">
-        <v>7566</v>
+        <v>8195</v>
       </c>
       <c r="C136" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D136" t="s">
-        <v>7735</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>7425</v>
+        <v>8047</v>
       </c>
       <c r="B137" t="s">
-        <v>7567</v>
+        <v>8196</v>
       </c>
       <c r="C137" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D137" t="s">
-        <v>7736</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>7426</v>
+        <v>8048</v>
       </c>
       <c r="B138" t="s">
-        <v>7568</v>
+        <v>8196</v>
       </c>
       <c r="C138" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D138" t="s">
-        <v>7737</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>7427</v>
+        <v>8049</v>
       </c>
       <c r="B139" t="s">
-        <v>7569</v>
+        <v>8197</v>
       </c>
       <c r="C139" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D139" t="s">
-        <v>7738</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>7428</v>
+        <v>8050</v>
       </c>
       <c r="B140" t="s">
-        <v>7570</v>
+        <v>8197</v>
       </c>
       <c r="C140" t="s">
-        <v>7621</v>
+        <v>8268</v>
       </c>
       <c r="D140" t="s">
-        <v>7739</v>
+        <v>8369</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>7429</v>
+        <v>8051</v>
       </c>
       <c r="B141" t="s">
-        <v>7571</v>
+        <v>8198</v>
       </c>
       <c r="C141" t="s">
-        <v>7622</v>
+        <v>8268</v>
       </c>
       <c r="D141" t="s">
-        <v>7740</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>7430</v>
+        <v>8052</v>
       </c>
       <c r="B142" t="s">
-        <v>7572</v>
+        <v>8198</v>
       </c>
       <c r="C142" t="s">
-        <v>7623</v>
+        <v>8268</v>
       </c>
       <c r="D142" t="s">
-        <v>7741</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>7431</v>
+        <v>8053</v>
       </c>
       <c r="B143" t="s">
-        <v>7573</v>
+        <v>8199</v>
       </c>
       <c r="C143" t="s">
-        <v>7623</v>
+        <v>8268</v>
       </c>
       <c r="D143" t="s">
-        <v>7742</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>7432</v>
+        <v>8054</v>
       </c>
       <c r="B144" t="s">
-        <v>7574</v>
+        <v>8200</v>
       </c>
       <c r="C144" t="s">
-        <v>7623</v>
+        <v>8268</v>
       </c>
       <c r="D144" t="s">
-        <v>7743</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>7433</v>
+        <v>8055</v>
       </c>
       <c r="B145" t="s">
-        <v>7575</v>
+        <v>8201</v>
       </c>
       <c r="C145" t="s">
-        <v>7623</v>
+        <v>8269</v>
       </c>
       <c r="D145" t="s">
-        <v>7744</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>7434</v>
+        <v>8056</v>
       </c>
       <c r="B146" t="s">
-        <v>7576</v>
+        <v>8202</v>
       </c>
       <c r="C146" t="s">
-        <v>7624</v>
+        <v>8269</v>
       </c>
       <c r="D146" t="s">
-        <v>7745</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>7435</v>
+        <v>8057</v>
       </c>
       <c r="B147" t="s">
-        <v>7577</v>
+        <v>8203</v>
       </c>
       <c r="C147" t="s">
-        <v>7625</v>
+        <v>8269</v>
       </c>
       <c r="D147" t="s">
-        <v>7746</v>
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>8058</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8204</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8269</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>8059</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8205</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8270</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8378</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>8060</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8206</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8270</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>8061</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8207</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8271</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>8062</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8208</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>8063</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8209</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8382</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>8064</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8210</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>8065</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8211</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>8066</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8212</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8385</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>8067</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8213</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>8068</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8214</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>8069</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8215</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8273</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>8070</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8216</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8274</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>8071</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8217</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>8072</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8218</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>8073</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8219</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>8074</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8220</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8393</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>8075</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8221</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8394</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>8076</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8222</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>8077</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8223</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>8078</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8224</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8275</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>8079</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8225</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8276</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>8080</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8226</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8277</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8399</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>8081</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8227</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8277</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>8082</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8228</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8277</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>8083</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8229</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8277</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>8084</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8230</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8278</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8403</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>8085</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8231</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8279</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8404</v>
       </c>
     </row>
   </sheetData>
@@ -25862,816 +28228,816 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7747</v>
+        <v>8405</v>
       </c>
       <c r="B1" t="s">
-        <v>7765</v>
+        <v>8423</v>
       </c>
       <c r="C1" t="s">
-        <v>7837</v>
+        <v>8495</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7748</v>
+        <v>8406</v>
       </c>
       <c r="B2" t="s">
-        <v>7766</v>
+        <v>8424</v>
       </c>
       <c r="C2" t="s">
-        <v>7838</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7748</v>
+        <v>8406</v>
       </c>
       <c r="B3" t="s">
-        <v>7767</v>
+        <v>8425</v>
       </c>
       <c r="C3" t="s">
-        <v>7839</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7748</v>
+        <v>8406</v>
       </c>
       <c r="B4" t="s">
-        <v>7768</v>
+        <v>8426</v>
       </c>
       <c r="C4" t="s">
-        <v>7840</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7748</v>
+        <v>8406</v>
       </c>
       <c r="B5" t="s">
-        <v>7769</v>
+        <v>8427</v>
       </c>
       <c r="C5" t="s">
-        <v>7841</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7749</v>
+        <v>8407</v>
       </c>
       <c r="B6" t="s">
-        <v>7770</v>
+        <v>8428</v>
       </c>
       <c r="C6" t="s">
-        <v>7842</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7749</v>
+        <v>8407</v>
       </c>
       <c r="B7" t="s">
-        <v>7771</v>
+        <v>8429</v>
       </c>
       <c r="C7" t="s">
-        <v>7843</v>
+        <v>8501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7750</v>
+        <v>8408</v>
       </c>
       <c r="B8" t="s">
-        <v>7772</v>
+        <v>8430</v>
       </c>
       <c r="C8" t="s">
-        <v>7844</v>
+        <v>8502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7750</v>
+        <v>8408</v>
       </c>
       <c r="B9" t="s">
-        <v>7773</v>
+        <v>8431</v>
       </c>
       <c r="C9" t="s">
-        <v>7845</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7750</v>
+        <v>8408</v>
       </c>
       <c r="B10" t="s">
-        <v>7774</v>
+        <v>8432</v>
       </c>
       <c r="C10" t="s">
-        <v>7846</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7751</v>
+        <v>8409</v>
       </c>
       <c r="B11" t="s">
-        <v>7775</v>
+        <v>8433</v>
       </c>
       <c r="C11" t="s">
-        <v>7847</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7751</v>
+        <v>8409</v>
       </c>
       <c r="B12" t="s">
-        <v>7776</v>
+        <v>8434</v>
       </c>
       <c r="C12" t="s">
-        <v>7848</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7751</v>
+        <v>8409</v>
       </c>
       <c r="B13" t="s">
-        <v>7777</v>
+        <v>8435</v>
       </c>
       <c r="C13" t="s">
-        <v>7849</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7751</v>
+        <v>8409</v>
       </c>
       <c r="B14" t="s">
-        <v>7778</v>
+        <v>8436</v>
       </c>
       <c r="C14" t="s">
-        <v>7850</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7751</v>
+        <v>8409</v>
       </c>
       <c r="B15" t="s">
-        <v>7779</v>
+        <v>8437</v>
       </c>
       <c r="C15" t="s">
-        <v>7851</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7751</v>
+        <v>8409</v>
       </c>
       <c r="B16" t="s">
-        <v>7780</v>
+        <v>8438</v>
       </c>
       <c r="C16" t="s">
-        <v>7852</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7752</v>
+        <v>8410</v>
       </c>
       <c r="B17" t="s">
-        <v>7781</v>
+        <v>8439</v>
       </c>
       <c r="C17" t="s">
-        <v>7853</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7752</v>
+        <v>8410</v>
       </c>
       <c r="B18" t="s">
-        <v>7782</v>
+        <v>8440</v>
       </c>
       <c r="C18" t="s">
-        <v>7854</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7753</v>
+        <v>8411</v>
       </c>
       <c r="B19" t="s">
-        <v>7783</v>
+        <v>8441</v>
       </c>
       <c r="C19" t="s">
-        <v>7855</v>
+        <v>8513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7753</v>
+        <v>8411</v>
       </c>
       <c r="B20" t="s">
-        <v>7784</v>
+        <v>8442</v>
       </c>
       <c r="C20" t="s">
-        <v>7856</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B21" t="s">
-        <v>7784</v>
+        <v>8442</v>
       </c>
       <c r="C21" t="s">
-        <v>7857</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B22" t="s">
-        <v>7785</v>
+        <v>8443</v>
       </c>
       <c r="C22" t="s">
-        <v>7858</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B23" t="s">
-        <v>7786</v>
+        <v>8444</v>
       </c>
       <c r="C23" t="s">
-        <v>7859</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B24" t="s">
-        <v>7787</v>
+        <v>8445</v>
       </c>
       <c r="C24" t="s">
-        <v>7860</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B25" t="s">
-        <v>7788</v>
+        <v>8446</v>
       </c>
       <c r="C25" t="s">
-        <v>7861</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B26" t="s">
-        <v>7789</v>
+        <v>8447</v>
       </c>
       <c r="C26" t="s">
-        <v>7862</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B27" t="s">
-        <v>7790</v>
+        <v>8448</v>
       </c>
       <c r="C27" t="s">
-        <v>7863</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B28" t="s">
-        <v>7791</v>
+        <v>8449</v>
       </c>
       <c r="C28" t="s">
-        <v>7864</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B29" t="s">
-        <v>7792</v>
+        <v>8450</v>
       </c>
       <c r="C29" t="s">
-        <v>7865</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B30" t="s">
-        <v>7793</v>
+        <v>8451</v>
       </c>
       <c r="C30" t="s">
-        <v>7866</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B31" t="s">
-        <v>7794</v>
+        <v>8452</v>
       </c>
       <c r="C31" t="s">
-        <v>7867</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B32" t="s">
-        <v>7795</v>
+        <v>8453</v>
       </c>
       <c r="C32" t="s">
-        <v>7868</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B33" t="s">
-        <v>7796</v>
+        <v>8454</v>
       </c>
       <c r="C33" t="s">
-        <v>7869</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B34" t="s">
-        <v>7797</v>
+        <v>8455</v>
       </c>
       <c r="C34" t="s">
-        <v>7870</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7754</v>
+        <v>8412</v>
       </c>
       <c r="B35" t="s">
-        <v>7798</v>
+        <v>8456</v>
       </c>
       <c r="C35" t="s">
-        <v>7871</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7755</v>
+        <v>8413</v>
       </c>
       <c r="B36" t="s">
-        <v>7799</v>
+        <v>8457</v>
       </c>
       <c r="C36" t="s">
-        <v>7872</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7755</v>
+        <v>8413</v>
       </c>
       <c r="B37" t="s">
-        <v>7800</v>
+        <v>8458</v>
       </c>
       <c r="C37" t="s">
-        <v>7873</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7756</v>
+        <v>8414</v>
       </c>
       <c r="B38" t="s">
-        <v>7800</v>
+        <v>8458</v>
       </c>
       <c r="C38" t="s">
-        <v>7874</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7756</v>
+        <v>8414</v>
       </c>
       <c r="B39" t="s">
-        <v>7801</v>
+        <v>8459</v>
       </c>
       <c r="C39" t="s">
-        <v>7875</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7756</v>
+        <v>8414</v>
       </c>
       <c r="B40" t="s">
-        <v>7802</v>
+        <v>8460</v>
       </c>
       <c r="C40" t="s">
-        <v>7876</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B41" t="s">
-        <v>7803</v>
+        <v>8461</v>
       </c>
       <c r="C41" t="s">
-        <v>7877</v>
+        <v>8535</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B42" t="s">
-        <v>7804</v>
+        <v>8462</v>
       </c>
       <c r="C42" t="s">
-        <v>7878</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B43" t="s">
-        <v>7805</v>
+        <v>8463</v>
       </c>
       <c r="C43" t="s">
-        <v>7879</v>
+        <v>8537</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B44" t="s">
-        <v>7806</v>
+        <v>8464</v>
       </c>
       <c r="C44" t="s">
-        <v>7880</v>
+        <v>8538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B45" t="s">
-        <v>7807</v>
+        <v>8465</v>
       </c>
       <c r="C45" t="s">
-        <v>7881</v>
+        <v>8539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B46" t="s">
-        <v>7808</v>
+        <v>8466</v>
       </c>
       <c r="C46" t="s">
-        <v>7882</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B47" t="s">
-        <v>7809</v>
+        <v>8467</v>
       </c>
       <c r="C47" t="s">
-        <v>7883</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B48" t="s">
-        <v>7810</v>
+        <v>8468</v>
       </c>
       <c r="C48" t="s">
-        <v>7884</v>
+        <v>8542</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B49" t="s">
-        <v>7811</v>
+        <v>8469</v>
       </c>
       <c r="C49" t="s">
-        <v>7885</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B50" t="s">
-        <v>7812</v>
+        <v>8470</v>
       </c>
       <c r="C50" t="s">
-        <v>7886</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B51" t="s">
-        <v>7813</v>
+        <v>8471</v>
       </c>
       <c r="C51" t="s">
-        <v>7887</v>
+        <v>8545</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B52" t="s">
-        <v>7814</v>
+        <v>8472</v>
       </c>
       <c r="C52" t="s">
-        <v>7888</v>
+        <v>8546</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B53" t="s">
-        <v>7815</v>
+        <v>8473</v>
       </c>
       <c r="C53" t="s">
-        <v>7889</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B54" t="s">
-        <v>7816</v>
+        <v>8474</v>
       </c>
       <c r="C54" t="s">
-        <v>7890</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B55" t="s">
-        <v>7817</v>
+        <v>8475</v>
       </c>
       <c r="C55" t="s">
-        <v>7891</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>7757</v>
+        <v>8415</v>
       </c>
       <c r="B56" t="s">
-        <v>7818</v>
+        <v>8476</v>
       </c>
       <c r="C56" t="s">
-        <v>7892</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7758</v>
+        <v>8416</v>
       </c>
       <c r="B57" t="s">
-        <v>7819</v>
+        <v>8477</v>
       </c>
       <c r="C57" t="s">
-        <v>7893</v>
+        <v>8551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7758</v>
+        <v>8416</v>
       </c>
       <c r="B58" t="s">
-        <v>7820</v>
+        <v>8478</v>
       </c>
       <c r="C58" t="s">
-        <v>7894</v>
+        <v>8552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7758</v>
+        <v>8416</v>
       </c>
       <c r="B59" t="s">
-        <v>7821</v>
+        <v>8479</v>
       </c>
       <c r="C59" t="s">
-        <v>7895</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7759</v>
+        <v>8417</v>
       </c>
       <c r="B60" t="s">
-        <v>7822</v>
+        <v>8480</v>
       </c>
       <c r="C60" t="s">
-        <v>7896</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7759</v>
+        <v>8417</v>
       </c>
       <c r="B61" t="s">
-        <v>7823</v>
+        <v>8481</v>
       </c>
       <c r="C61" t="s">
-        <v>7897</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>7760</v>
+        <v>8418</v>
       </c>
       <c r="B62" t="s">
-        <v>7824</v>
+        <v>8482</v>
       </c>
       <c r="C62" t="s">
-        <v>7898</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7760</v>
+        <v>8418</v>
       </c>
       <c r="B63" t="s">
-        <v>7825</v>
+        <v>8483</v>
       </c>
       <c r="C63" t="s">
-        <v>7899</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>7761</v>
+        <v>8419</v>
       </c>
       <c r="B64" t="s">
-        <v>7826</v>
+        <v>8484</v>
       </c>
       <c r="C64" t="s">
-        <v>7900</v>
+        <v>8558</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7761</v>
+        <v>8419</v>
       </c>
       <c r="B65" t="s">
-        <v>7827</v>
+        <v>8485</v>
       </c>
       <c r="C65" t="s">
-        <v>7901</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>7762</v>
+        <v>8420</v>
       </c>
       <c r="B66" t="s">
-        <v>7828</v>
+        <v>8486</v>
       </c>
       <c r="C66" t="s">
-        <v>7902</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>7762</v>
+        <v>8420</v>
       </c>
       <c r="B67" t="s">
-        <v>7829</v>
+        <v>8487</v>
       </c>
       <c r="C67" t="s">
-        <v>7903</v>
+        <v>8561</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7763</v>
+        <v>8421</v>
       </c>
       <c r="B68" t="s">
-        <v>7830</v>
+        <v>8488</v>
       </c>
       <c r="C68" t="s">
-        <v>7904</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7763</v>
+        <v>8421</v>
       </c>
       <c r="B69" t="s">
-        <v>7831</v>
+        <v>8489</v>
       </c>
       <c r="C69" t="s">
-        <v>7905</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>7763</v>
+        <v>8421</v>
       </c>
       <c r="B70" t="s">
-        <v>7832</v>
+        <v>8490</v>
       </c>
       <c r="C70" t="s">
-        <v>7906</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7763</v>
+        <v>8421</v>
       </c>
       <c r="B71" t="s">
-        <v>7833</v>
+        <v>8491</v>
       </c>
       <c r="C71" t="s">
-        <v>7907</v>
+        <v>8565</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>7763</v>
+        <v>8421</v>
       </c>
       <c r="B72" t="s">
-        <v>7834</v>
+        <v>8492</v>
       </c>
       <c r="C72" t="s">
-        <v>7908</v>
+        <v>8566</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>7764</v>
+        <v>8422</v>
       </c>
       <c r="B73" t="s">
-        <v>7835</v>
+        <v>8493</v>
       </c>
       <c r="C73" t="s">
-        <v>7909</v>
+        <v>8567</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>7764</v>
+        <v>8422</v>
       </c>
       <c r="B74" t="s">
-        <v>7836</v>
+        <v>8494</v>
       </c>
       <c r="C74" t="s">
-        <v>7910</v>
+        <v>8568</v>
       </c>
     </row>
   </sheetData>
